--- a/docs/TABLAS ITE1.xlsx
+++ b/docs/TABLAS ITE1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rembrandtsx/Documents/repos/GitHub/IteracionesA13/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Felipe\Documents\Juanfe\U6_2018-02\ST\Iteraciones\3\IteracionesA13\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,7 +32,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="L2" authorId="0">
+    <comment ref="L2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T9" authorId="0">
+    <comment ref="T9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="111">
   <si>
     <t>PRODUCTOS</t>
   </si>
@@ -390,12 +390,21 @@
   <si>
     <t>FK</t>
   </si>
+  <si>
+    <t>CANTIDAD_EN_CARRITOS</t>
+  </si>
+  <si>
+    <t>NN, CH(&gt;=0)</t>
+  </si>
+  <si>
+    <t>ID_ESTANTE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -721,7 +730,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -849,27 +858,30 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -877,6 +889,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1147,64 +1162,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U2" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="18.5" customWidth="1"/>
-    <col min="7" max="7" width="28.1640625" customWidth="1"/>
-    <col min="8" max="8" width="26.5" customWidth="1"/>
-    <col min="9" max="9" width="23.1640625" customWidth="1"/>
-    <col min="10" max="10" width="25.6640625" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" customWidth="1"/>
-    <col min="12" max="12" width="20.5" customWidth="1"/>
-    <col min="13" max="13" width="21.83203125" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" customWidth="1"/>
+    <col min="13" max="13" width="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" customWidth="1"/>
     <col min="15" max="15" width="24" customWidth="1"/>
-    <col min="16" max="16" width="10.6640625" customWidth="1"/>
-    <col min="17" max="17" width="29.6640625" customWidth="1"/>
-    <col min="18" max="18" width="22.5" customWidth="1"/>
-    <col min="19" max="19" width="10.6640625" customWidth="1"/>
-    <col min="20" max="20" width="21.6640625" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" customWidth="1"/>
-    <col min="22" max="22" width="20.33203125" customWidth="1"/>
-    <col min="23" max="23" width="18.83203125" customWidth="1"/>
-    <col min="24" max="24" width="27.83203125" customWidth="1"/>
-    <col min="25" max="25" width="14.83203125" customWidth="1"/>
-    <col min="26" max="26" width="19.1640625" customWidth="1"/>
-    <col min="27" max="27" width="33.5" customWidth="1"/>
-    <col min="28" max="28" width="25.5" customWidth="1"/>
-    <col min="29" max="29" width="23.1640625" customWidth="1"/>
-    <col min="30" max="30" width="14.5" customWidth="1"/>
-    <col min="31" max="31" width="9.1640625" customWidth="1"/>
-    <col min="32" max="32" width="29.33203125" customWidth="1"/>
-    <col min="33" max="33" width="18.5" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" customWidth="1"/>
+    <col min="17" max="17" width="29.7109375" customWidth="1"/>
+    <col min="18" max="18" width="22.42578125" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" customWidth="1"/>
+    <col min="20" max="20" width="21.7109375" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" customWidth="1"/>
+    <col min="22" max="22" width="20.28515625" customWidth="1"/>
+    <col min="23" max="23" width="18.85546875" customWidth="1"/>
+    <col min="24" max="24" width="27.85546875" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" customWidth="1"/>
+    <col min="26" max="26" width="19.140625" customWidth="1"/>
+    <col min="27" max="27" width="33.42578125" customWidth="1"/>
+    <col min="28" max="28" width="25.42578125" customWidth="1"/>
+    <col min="29" max="29" width="23.140625" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" customWidth="1"/>
+    <col min="31" max="31" width="9.140625" customWidth="1"/>
+    <col min="32" max="32" width="29.28515625" customWidth="1"/>
+    <col min="33" max="33" width="18.42578125" customWidth="1"/>
     <col min="34" max="34" width="18" customWidth="1"/>
     <col min="35" max="35" width="23" customWidth="1"/>
-    <col min="36" max="39" width="24.6640625" customWidth="1"/>
-    <col min="40" max="40" width="15.83203125" customWidth="1"/>
-    <col min="41" max="41" width="10.6640625" customWidth="1"/>
-    <col min="42" max="42" width="14.5" customWidth="1"/>
-    <col min="43" max="43" width="24.6640625" customWidth="1"/>
-    <col min="44" max="44" width="19.6640625" customWidth="1"/>
-    <col min="45" max="45" width="10.6640625" customWidth="1"/>
-    <col min="46" max="46" width="14.5" customWidth="1"/>
-    <col min="47" max="47" width="8.1640625" customWidth="1"/>
-    <col min="48" max="48" width="29.33203125" customWidth="1"/>
+    <col min="36" max="36" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="24.7109375" customWidth="1"/>
+    <col min="40" max="40" width="15.85546875" customWidth="1"/>
+    <col min="41" max="41" width="10.7109375" customWidth="1"/>
+    <col min="42" max="42" width="14.42578125" customWidth="1"/>
+    <col min="43" max="43" width="24.7109375" customWidth="1"/>
+    <col min="44" max="44" width="19.7109375" customWidth="1"/>
+    <col min="45" max="45" width="10.7109375" customWidth="1"/>
+    <col min="46" max="46" width="14.42578125" customWidth="1"/>
+    <col min="47" max="47" width="8.140625" customWidth="1"/>
+    <col min="48" max="48" width="29.28515625" customWidth="1"/>
     <col min="49" max="49" width="19" customWidth="1"/>
-    <col min="50" max="50" width="18.5" customWidth="1"/>
-    <col min="51" max="51" width="24.5" customWidth="1"/>
-    <col min="52" max="52" width="18.1640625" customWidth="1"/>
+    <col min="50" max="50" width="18.42578125" customWidth="1"/>
+    <col min="51" max="51" width="24.42578125" customWidth="1"/>
+    <col min="52" max="52" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:52">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1258,59 +1274,59 @@
       <c r="AY1" s="1"/>
       <c r="AZ1" s="1"/>
     </row>
-    <row r="2" spans="1:52" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:52" ht="15.75">
       <c r="A2" s="1"/>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="43" t="s">
+      <c r="L2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
       <c r="P2" s="1"/>
-      <c r="Q2" s="47" t="s">
+      <c r="Q2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
       <c r="U2" s="1"/>
-      <c r="V2" s="43" t="s">
+      <c r="V2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="44"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
       <c r="AD2" s="1"/>
-      <c r="AE2" s="43" t="s">
+      <c r="AE2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
       <c r="AP2" s="1"/>
       <c r="AT2" s="1"/>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:52">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -1406,7 +1422,7 @@
       <c r="AP3" s="1"/>
       <c r="AT3" s="1"/>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:52">
       <c r="A4" s="1"/>
       <c r="B4" s="11" t="s">
         <v>28</v>
@@ -1502,7 +1518,7 @@
       <c r="AP4" s="1"/>
       <c r="AT4" s="1"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:52">
       <c r="A5" s="1"/>
       <c r="B5" s="21"/>
       <c r="C5" s="22"/>
@@ -1542,7 +1558,7 @@
       <c r="AP5" s="1"/>
       <c r="AT5" s="1"/>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:52">
       <c r="A6" s="1"/>
       <c r="B6" s="24"/>
       <c r="C6" s="25"/>
@@ -1582,7 +1598,7 @@
       <c r="AP6" s="1"/>
       <c r="AT6" s="1"/>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:52">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1635,50 +1651,50 @@
       <c r="AY7" s="1"/>
       <c r="AZ7" s="1"/>
     </row>
-    <row r="8" spans="1:52" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:52" ht="16.5" thickBot="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="46"/>
+      <c r="C8" s="47"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="43" t="s">
+      <c r="L8" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="M8" s="44"/>
-      <c r="P8" s="43" t="s">
+      <c r="M8" s="45"/>
+      <c r="P8" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
       <c r="U8" s="1"/>
-      <c r="V8" s="43" t="s">
+      <c r="V8" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="44"/>
-      <c r="AF8" s="43" t="s">
+      <c r="W8" s="45"/>
+      <c r="X8" s="45"/>
+      <c r="Y8" s="45"/>
+      <c r="AF8" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="AG8" s="44"/>
-      <c r="AH8" s="44"/>
-      <c r="AJ8" s="43" t="s">
+      <c r="AG8" s="45"/>
+      <c r="AH8" s="45"/>
+      <c r="AJ8" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="AK8" s="44"/>
-      <c r="AL8" s="44"/>
+      <c r="AK8" s="45"/>
+      <c r="AL8" s="45"/>
       <c r="AR8" s="1"/>
       <c r="AS8" s="1"/>
       <c r="AT8" s="1"/>
@@ -1689,7 +1705,7 @@
       <c r="AY8" s="1"/>
       <c r="AZ8" s="1"/>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:52">
       <c r="A9" s="1"/>
       <c r="B9" s="6" t="s">
         <v>52</v>
@@ -1764,7 +1780,10 @@
       <c r="AK9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AL9" s="5" t="s">
+      <c r="AL9" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM9" s="5" t="s">
         <v>62</v>
       </c>
       <c r="AR9" s="1"/>
@@ -1777,7 +1796,7 @@
       <c r="AY9" s="1"/>
       <c r="AZ9" s="1"/>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:52" ht="15.75" thickBot="1">
       <c r="A10" s="1"/>
       <c r="B10" s="11" t="s">
         <v>28</v>
@@ -1850,7 +1869,10 @@
       <c r="AK10" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="AL10" s="14" t="s">
+      <c r="AL10" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM10" s="14" t="s">
         <v>73</v>
       </c>
       <c r="AR10" s="1"/>
@@ -1863,7 +1885,7 @@
       <c r="AY10" s="1"/>
       <c r="AZ10" s="1"/>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:52">
       <c r="A11" s="1"/>
       <c r="B11" s="21"/>
       <c r="C11" s="23"/>
@@ -1892,7 +1914,8 @@
       <c r="AH11" s="23"/>
       <c r="AJ11" s="21"/>
       <c r="AK11" s="22"/>
-      <c r="AL11" s="23"/>
+      <c r="AL11" s="22"/>
+      <c r="AM11" s="23"/>
       <c r="AR11" s="1"/>
       <c r="AS11" s="1"/>
       <c r="AT11" s="1"/>
@@ -1903,7 +1926,7 @@
       <c r="AY11" s="1"/>
       <c r="AZ11" s="1"/>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:52" ht="15.75" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="24"/>
       <c r="C12" s="26"/>
@@ -1932,7 +1955,8 @@
       <c r="AH12" s="26"/>
       <c r="AJ12" s="24"/>
       <c r="AK12" s="25"/>
-      <c r="AL12" s="26"/>
+      <c r="AL12" s="25"/>
+      <c r="AM12" s="26"/>
       <c r="AR12" s="1"/>
       <c r="AS12" s="1"/>
       <c r="AT12" s="1"/>
@@ -1943,7 +1967,7 @@
       <c r="AY12" s="1"/>
       <c r="AZ12" s="1"/>
     </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:52">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1994,57 +2018,57 @@
       <c r="AY13" s="1"/>
       <c r="AZ13" s="1"/>
     </row>
-    <row r="14" spans="1:52" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:52" ht="16.5" thickBot="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="43" t="s">
+      <c r="F14" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="43" t="s">
+      <c r="L14" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="M14" s="44"/>
+      <c r="M14" s="45"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="48" t="s">
+      <c r="Q14" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="R14" s="46"/>
+      <c r="R14" s="47"/>
       <c r="S14" s="29"/>
       <c r="T14" s="29"/>
       <c r="U14" s="1"/>
-      <c r="V14" s="43" t="s">
+      <c r="V14" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="W14" s="44"/>
-      <c r="X14" s="44"/>
-      <c r="Y14" s="44"/>
-      <c r="Z14" s="44"/>
-      <c r="AA14" s="44"/>
-      <c r="AB14" s="49"/>
-      <c r="AC14" s="49"/>
+      <c r="W14" s="45"/>
+      <c r="X14" s="45"/>
+      <c r="Y14" s="45"/>
+      <c r="Z14" s="45"/>
+      <c r="AA14" s="45"/>
+      <c r="AB14" s="43"/>
+      <c r="AC14" s="43"/>
       <c r="AD14" s="1"/>
-      <c r="AE14" s="43" t="s">
+      <c r="AE14" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="AF14" s="44"/>
-      <c r="AG14" s="44"/>
-      <c r="AH14" s="44"/>
-      <c r="AI14" s="44"/>
-      <c r="AJ14" s="44"/>
-      <c r="AK14" s="44"/>
-      <c r="AL14" s="44"/>
+      <c r="AF14" s="45"/>
+      <c r="AG14" s="45"/>
+      <c r="AH14" s="45"/>
+      <c r="AI14" s="45"/>
+      <c r="AJ14" s="45"/>
+      <c r="AK14" s="45"/>
+      <c r="AL14" s="45"/>
       <c r="AP14" s="1"/>
       <c r="AQ14" s="1"/>
       <c r="AR14" s="1"/>
@@ -2057,7 +2081,7 @@
       <c r="AY14" s="1"/>
       <c r="AZ14" s="1"/>
     </row>
-    <row r="15" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:52">
       <c r="A15" s="1"/>
       <c r="B15" s="6" t="s">
         <v>52</v>
@@ -2160,7 +2184,7 @@
       <c r="AW15" s="1"/>
       <c r="AX15" s="1"/>
     </row>
-    <row r="16" spans="1:52" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:52" ht="15.75" thickBot="1">
       <c r="A16" s="1"/>
       <c r="B16" s="31" t="s">
         <v>28</v>
@@ -2261,7 +2285,7 @@
       <c r="AW16" s="1"/>
       <c r="AX16" s="1"/>
     </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:52">
       <c r="A17" s="1"/>
       <c r="B17" s="36"/>
       <c r="C17" s="37"/>
@@ -2310,7 +2334,7 @@
       <c r="AW17" s="1"/>
       <c r="AX17" s="1"/>
     </row>
-    <row r="18" spans="1:52" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:52" ht="15.75" thickBot="1">
       <c r="A18" s="1"/>
       <c r="B18" s="24"/>
       <c r="C18" s="25"/>
@@ -2359,7 +2383,7 @@
       <c r="AW18" s="1"/>
       <c r="AX18" s="1"/>
     </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:52">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2413,7 +2437,7 @@
       <c r="AY19" s="1"/>
       <c r="AZ19" s="1"/>
     </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:52">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2458,7 +2482,7 @@
       <c r="AY20" s="1"/>
       <c r="AZ20" s="1"/>
     </row>
-    <row r="21" spans="1:52" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:52" ht="15.75" customHeight="1" thickBot="1">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2467,10 +2491,10 @@
       <c r="F21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="43" t="s">
+      <c r="L21" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="M21" s="44"/>
+      <c r="M21" s="45"/>
       <c r="N21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -2487,7 +2511,6 @@
       <c r="AB21" s="27"/>
       <c r="AC21" s="27"/>
       <c r="AD21" s="1"/>
-      <c r="AH21" s="1"/>
       <c r="AI21" s="1"/>
       <c r="AJ21" s="1"/>
       <c r="AK21" s="1"/>
@@ -2504,7 +2527,7 @@
       <c r="AY21" s="1"/>
       <c r="AZ21" s="1"/>
     </row>
-    <row r="22" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:52" ht="15.75" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2540,7 +2563,6 @@
       <c r="AB22" s="27"/>
       <c r="AC22" s="27"/>
       <c r="AD22" s="1"/>
-      <c r="AH22" s="1"/>
       <c r="AI22" s="1"/>
       <c r="AJ22" s="1"/>
       <c r="AK22" s="1"/>
@@ -2556,7 +2578,7 @@
       <c r="AY22" s="1"/>
       <c r="AZ22" s="1"/>
     </row>
-    <row r="23" spans="1:52" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:52" ht="15.75" customHeight="1" thickBot="1">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2592,7 +2614,6 @@
       <c r="AB23" s="27"/>
       <c r="AC23" s="27"/>
       <c r="AD23" s="1"/>
-      <c r="AH23" s="1"/>
       <c r="AI23" s="1"/>
       <c r="AJ23" s="1"/>
       <c r="AK23" s="1"/>
@@ -2608,7 +2629,7 @@
       <c r="AY23" s="1"/>
       <c r="AZ23" s="1"/>
     </row>
-    <row r="24" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:52" ht="15.75" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2636,7 +2657,6 @@
       <c r="AB24" s="27"/>
       <c r="AC24" s="27"/>
       <c r="AD24" s="1"/>
-      <c r="AH24" s="1"/>
       <c r="AI24" s="1"/>
       <c r="AJ24" s="1"/>
       <c r="AK24" s="1"/>
@@ -2652,7 +2672,7 @@
       <c r="AY24" s="1"/>
       <c r="AZ24" s="1"/>
     </row>
-    <row r="25" spans="1:52" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:52" ht="15.75" customHeight="1" thickBot="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2683,10 +2703,6 @@
       <c r="AB25" s="27"/>
       <c r="AC25" s="27"/>
       <c r="AD25" s="1"/>
-      <c r="AE25" s="1"/>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
-      <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
       <c r="AJ25" s="1"/>
       <c r="AK25" s="1"/>
@@ -2703,7 +2719,7 @@
       <c r="AY25" s="1"/>
       <c r="AZ25" s="1"/>
     </row>
-    <row r="26" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:52" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2734,9 +2750,6 @@
       <c r="AB26" s="27"/>
       <c r="AC26" s="27"/>
       <c r="AD26" s="1"/>
-      <c r="AE26" s="1"/>
-      <c r="AF26" s="1"/>
-      <c r="AG26" s="1"/>
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
       <c r="AJ26" s="1"/>
@@ -2754,7 +2767,7 @@
       <c r="AY26" s="1"/>
       <c r="AZ26" s="1"/>
     </row>
-    <row r="27" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:52" ht="15.75" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2808,7 +2821,7 @@
       <c r="AY27" s="1"/>
       <c r="AZ27" s="1"/>
     </row>
-    <row r="28" spans="1:52" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:52" ht="15.75" customHeight="1" thickBot="1">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2820,10 +2833,10 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-      <c r="L28" s="43" t="s">
+      <c r="L28" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="M28" s="44"/>
+      <c r="M28" s="45"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -2864,7 +2877,7 @@
       <c r="AY28" s="1"/>
       <c r="AZ28" s="1"/>
     </row>
-    <row r="29" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:52" ht="15.75" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2883,9 +2896,11 @@
         <v>105</v>
       </c>
       <c r="N29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -2924,7 +2939,7 @@
       <c r="AY29" s="1"/>
       <c r="AZ29" s="1"/>
     </row>
-    <row r="30" spans="1:52" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:52" ht="15.75" customHeight="1" thickBot="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2943,9 +2958,11 @@
         <v>28</v>
       </c>
       <c r="N30" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="O30" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -2984,7 +3001,7 @@
       <c r="AY30" s="1"/>
       <c r="AZ30" s="1"/>
     </row>
-    <row r="31" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:52" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2999,7 +3016,7 @@
       <c r="L31" s="21"/>
       <c r="M31" s="23"/>
       <c r="N31" s="23"/>
-      <c r="O31" s="1"/>
+      <c r="O31" s="23"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
@@ -3038,7 +3055,7 @@
       <c r="AY31" s="1"/>
       <c r="AZ31" s="1"/>
     </row>
-    <row r="32" spans="1:52" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:52" ht="15.75" customHeight="1" thickBot="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -3053,7 +3070,7 @@
       <c r="L32" s="24"/>
       <c r="M32" s="26"/>
       <c r="N32" s="26"/>
-      <c r="O32" s="1"/>
+      <c r="O32" s="26"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
@@ -3092,7 +3109,7 @@
       <c r="AY32" s="1"/>
       <c r="AZ32" s="1"/>
     </row>
-    <row r="33" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:52" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -3106,7 +3123,7 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
+      <c r="N33" s="27"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
@@ -3146,7 +3163,7 @@
       <c r="AY33" s="1"/>
       <c r="AZ33" s="1"/>
     </row>
-    <row r="34" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:52" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -3160,7 +3177,7 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
+      <c r="N34" s="27"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
@@ -3200,7 +3217,7 @@
       <c r="AY34" s="1"/>
       <c r="AZ34" s="1"/>
     </row>
-    <row r="35" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:52" ht="15.75" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -3254,7 +3271,7 @@
       <c r="AY35" s="1"/>
       <c r="AZ35" s="1"/>
     </row>
-    <row r="36" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:52" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -3308,7 +3325,7 @@
       <c r="AY36" s="1"/>
       <c r="AZ36" s="1"/>
     </row>
-    <row r="37" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:52" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -3362,7 +3379,7 @@
       <c r="AY37" s="1"/>
       <c r="AZ37" s="1"/>
     </row>
-    <row r="38" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:52" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -3416,7 +3433,7 @@
       <c r="AY38" s="1"/>
       <c r="AZ38" s="1"/>
     </row>
-    <row r="39" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:52" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3470,7 +3487,7 @@
       <c r="AY39" s="1"/>
       <c r="AZ39" s="1"/>
     </row>
-    <row r="40" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:52" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3524,7 +3541,7 @@
       <c r="AY40" s="1"/>
       <c r="AZ40" s="1"/>
     </row>
-    <row r="41" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:52" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -3578,7 +3595,7 @@
       <c r="AY41" s="1"/>
       <c r="AZ41" s="1"/>
     </row>
-    <row r="42" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:52" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -3632,7 +3649,7 @@
       <c r="AY42" s="1"/>
       <c r="AZ42" s="1"/>
     </row>
-    <row r="43" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:52" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -3686,7 +3703,7 @@
       <c r="AY43" s="1"/>
       <c r="AZ43" s="1"/>
     </row>
-    <row r="44" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:52" ht="15.75" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -3740,7 +3757,7 @@
       <c r="AY44" s="1"/>
       <c r="AZ44" s="1"/>
     </row>
-    <row r="45" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:52" ht="15.75" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3794,7 +3811,7 @@
       <c r="AY45" s="1"/>
       <c r="AZ45" s="1"/>
     </row>
-    <row r="46" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:52" ht="15.75" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -3848,7 +3865,7 @@
       <c r="AY46" s="1"/>
       <c r="AZ46" s="1"/>
     </row>
-    <row r="47" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:52" ht="15.75" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -3902,7 +3919,7 @@
       <c r="AY47" s="1"/>
       <c r="AZ47" s="1"/>
     </row>
-    <row r="48" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:52" ht="15.75" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3956,7 +3973,7 @@
       <c r="AY48" s="1"/>
       <c r="AZ48" s="1"/>
     </row>
-    <row r="49" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:52" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -4010,7 +4027,7 @@
       <c r="AY49" s="1"/>
       <c r="AZ49" s="1"/>
     </row>
-    <row r="50" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:52" ht="15.75" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -4064,7 +4081,7 @@
       <c r="AY50" s="1"/>
       <c r="AZ50" s="1"/>
     </row>
-    <row r="51" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:52" ht="15.75" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -4118,7 +4135,7 @@
       <c r="AY51" s="1"/>
       <c r="AZ51" s="1"/>
     </row>
-    <row r="52" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:52" ht="15.75" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -4172,7 +4189,7 @@
       <c r="AY52" s="1"/>
       <c r="AZ52" s="1"/>
     </row>
-    <row r="53" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:52" ht="15.75" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -4226,7 +4243,7 @@
       <c r="AY53" s="1"/>
       <c r="AZ53" s="1"/>
     </row>
-    <row r="54" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:52" ht="15.75" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -4280,7 +4297,7 @@
       <c r="AY54" s="1"/>
       <c r="AZ54" s="1"/>
     </row>
-    <row r="55" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:52" ht="15.75" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -4334,7 +4351,7 @@
       <c r="AY55" s="1"/>
       <c r="AZ55" s="1"/>
     </row>
-    <row r="56" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:52" ht="15.75" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -4388,7 +4405,7 @@
       <c r="AY56" s="1"/>
       <c r="AZ56" s="1"/>
     </row>
-    <row r="57" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:52" ht="15.75" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -4442,7 +4459,7 @@
       <c r="AY57" s="1"/>
       <c r="AZ57" s="1"/>
     </row>
-    <row r="58" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:52" ht="15.75" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -4496,7 +4513,7 @@
       <c r="AY58" s="1"/>
       <c r="AZ58" s="1"/>
     </row>
-    <row r="59" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:52" ht="15.75" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -4550,7 +4567,7 @@
       <c r="AY59" s="1"/>
       <c r="AZ59" s="1"/>
     </row>
-    <row r="60" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:52" ht="15.75" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -4604,7 +4621,7 @@
       <c r="AY60" s="1"/>
       <c r="AZ60" s="1"/>
     </row>
-    <row r="61" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:52" ht="15.75" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -4658,7 +4675,7 @@
       <c r="AY61" s="1"/>
       <c r="AZ61" s="1"/>
     </row>
-    <row r="62" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:52" ht="15.75" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -4712,7 +4729,7 @@
       <c r="AY62" s="1"/>
       <c r="AZ62" s="1"/>
     </row>
-    <row r="63" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:52" ht="15.75" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -4766,7 +4783,7 @@
       <c r="AY63" s="1"/>
       <c r="AZ63" s="1"/>
     </row>
-    <row r="64" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:52" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -4820,7 +4837,7 @@
       <c r="AY64" s="1"/>
       <c r="AZ64" s="1"/>
     </row>
-    <row r="65" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:52" ht="15.75" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -4874,7 +4891,7 @@
       <c r="AY65" s="1"/>
       <c r="AZ65" s="1"/>
     </row>
-    <row r="66" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:52" ht="15.75" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -4928,7 +4945,7 @@
       <c r="AY66" s="1"/>
       <c r="AZ66" s="1"/>
     </row>
-    <row r="67" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:52" ht="15.75" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -4982,7 +4999,7 @@
       <c r="AY67" s="1"/>
       <c r="AZ67" s="1"/>
     </row>
-    <row r="68" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:52" ht="15.75" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -5036,7 +5053,7 @@
       <c r="AY68" s="1"/>
       <c r="AZ68" s="1"/>
     </row>
-    <row r="69" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:52" ht="15.75" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -5090,7 +5107,7 @@
       <c r="AY69" s="1"/>
       <c r="AZ69" s="1"/>
     </row>
-    <row r="70" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:52" ht="15.75" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -5144,7 +5161,7 @@
       <c r="AY70" s="1"/>
       <c r="AZ70" s="1"/>
     </row>
-    <row r="71" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:52" ht="15.75" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -5198,7 +5215,7 @@
       <c r="AY71" s="1"/>
       <c r="AZ71" s="1"/>
     </row>
-    <row r="72" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:52" ht="15.75" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -5252,7 +5269,7 @@
       <c r="AY72" s="1"/>
       <c r="AZ72" s="1"/>
     </row>
-    <row r="73" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:52" ht="15.75" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -5306,7 +5323,7 @@
       <c r="AY73" s="1"/>
       <c r="AZ73" s="1"/>
     </row>
-    <row r="74" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:52" ht="15.75" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -5360,7 +5377,7 @@
       <c r="AY74" s="1"/>
       <c r="AZ74" s="1"/>
     </row>
-    <row r="75" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:52" ht="15.75" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -5414,7 +5431,7 @@
       <c r="AY75" s="1"/>
       <c r="AZ75" s="1"/>
     </row>
-    <row r="76" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:52" ht="15.75" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -5468,7 +5485,7 @@
       <c r="AY76" s="1"/>
       <c r="AZ76" s="1"/>
     </row>
-    <row r="77" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:52" ht="15.75" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -5522,7 +5539,7 @@
       <c r="AY77" s="1"/>
       <c r="AZ77" s="1"/>
     </row>
-    <row r="78" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:52" ht="15.75" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -5576,7 +5593,7 @@
       <c r="AY78" s="1"/>
       <c r="AZ78" s="1"/>
     </row>
-    <row r="79" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:52" ht="15.75" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -5630,7 +5647,7 @@
       <c r="AY79" s="1"/>
       <c r="AZ79" s="1"/>
     </row>
-    <row r="80" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:52" ht="15.75" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -5684,7 +5701,7 @@
       <c r="AY80" s="1"/>
       <c r="AZ80" s="1"/>
     </row>
-    <row r="81" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:52" ht="15.75" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -5738,7 +5755,7 @@
       <c r="AY81" s="1"/>
       <c r="AZ81" s="1"/>
     </row>
-    <row r="82" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:52" ht="15.75" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -5792,7 +5809,7 @@
       <c r="AY82" s="1"/>
       <c r="AZ82" s="1"/>
     </row>
-    <row r="83" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:52" ht="15.75" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -5846,7 +5863,7 @@
       <c r="AY83" s="1"/>
       <c r="AZ83" s="1"/>
     </row>
-    <row r="84" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:52" ht="15.75" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -5900,7 +5917,7 @@
       <c r="AY84" s="1"/>
       <c r="AZ84" s="1"/>
     </row>
-    <row r="85" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:52" ht="15.75" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -5954,7 +5971,7 @@
       <c r="AY85" s="1"/>
       <c r="AZ85" s="1"/>
     </row>
-    <row r="86" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:52" ht="15.75" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -6008,7 +6025,7 @@
       <c r="AY86" s="1"/>
       <c r="AZ86" s="1"/>
     </row>
-    <row r="87" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:52" ht="15.75" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -6062,7 +6079,7 @@
       <c r="AY87" s="1"/>
       <c r="AZ87" s="1"/>
     </row>
-    <row r="88" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:52" ht="15.75" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -6116,7 +6133,7 @@
       <c r="AY88" s="1"/>
       <c r="AZ88" s="1"/>
     </row>
-    <row r="89" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:52" ht="15.75" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -6170,7 +6187,7 @@
       <c r="AY89" s="1"/>
       <c r="AZ89" s="1"/>
     </row>
-    <row r="90" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:52" ht="15.75" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -6224,7 +6241,7 @@
       <c r="AY90" s="1"/>
       <c r="AZ90" s="1"/>
     </row>
-    <row r="91" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:52" ht="15.75" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -6278,7 +6295,7 @@
       <c r="AY91" s="1"/>
       <c r="AZ91" s="1"/>
     </row>
-    <row r="92" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:52" ht="15.75" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -6332,7 +6349,7 @@
       <c r="AY92" s="1"/>
       <c r="AZ92" s="1"/>
     </row>
-    <row r="93" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:52" ht="15.75" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -6386,7 +6403,7 @@
       <c r="AY93" s="1"/>
       <c r="AZ93" s="1"/>
     </row>
-    <row r="94" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:52" ht="15.75" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -6440,7 +6457,7 @@
       <c r="AY94" s="1"/>
       <c r="AZ94" s="1"/>
     </row>
-    <row r="95" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:52" ht="15.75" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -6494,7 +6511,7 @@
       <c r="AY95" s="1"/>
       <c r="AZ95" s="1"/>
     </row>
-    <row r="96" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:52" ht="15.75" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -6548,7 +6565,7 @@
       <c r="AY96" s="1"/>
       <c r="AZ96" s="1"/>
     </row>
-    <row r="97" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:52" ht="15.75" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -6602,7 +6619,7 @@
       <c r="AY97" s="1"/>
       <c r="AZ97" s="1"/>
     </row>
-    <row r="98" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:52" ht="15.75" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -6656,7 +6673,7 @@
       <c r="AY98" s="1"/>
       <c r="AZ98" s="1"/>
     </row>
-    <row r="99" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:52" ht="15.75" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -6710,7 +6727,7 @@
       <c r="AY99" s="1"/>
       <c r="AZ99" s="1"/>
     </row>
-    <row r="100" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:52" ht="15.75" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -6764,7 +6781,7 @@
       <c r="AY100" s="1"/>
       <c r="AZ100" s="1"/>
     </row>
-    <row r="101" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:52" ht="15.75" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -6818,7 +6835,7 @@
       <c r="AY101" s="1"/>
       <c r="AZ101" s="1"/>
     </row>
-    <row r="102" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:52" ht="15.75" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -6872,7 +6889,7 @@
       <c r="AY102" s="1"/>
       <c r="AZ102" s="1"/>
     </row>
-    <row r="103" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:52" ht="15.75" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -6926,7 +6943,7 @@
       <c r="AY103" s="1"/>
       <c r="AZ103" s="1"/>
     </row>
-    <row r="104" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:52" ht="15.75" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -6980,7 +6997,7 @@
       <c r="AY104" s="1"/>
       <c r="AZ104" s="1"/>
     </row>
-    <row r="105" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:52" ht="15.75" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -7034,7 +7051,7 @@
       <c r="AY105" s="1"/>
       <c r="AZ105" s="1"/>
     </row>
-    <row r="106" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:52" ht="15.75" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -7088,7 +7105,7 @@
       <c r="AY106" s="1"/>
       <c r="AZ106" s="1"/>
     </row>
-    <row r="107" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:52" ht="15.75" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -7142,7 +7159,7 @@
       <c r="AY107" s="1"/>
       <c r="AZ107" s="1"/>
     </row>
-    <row r="108" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:52" ht="15.75" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -7196,7 +7213,7 @@
       <c r="AY108" s="1"/>
       <c r="AZ108" s="1"/>
     </row>
-    <row r="109" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:52" ht="15.75" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -7250,7 +7267,7 @@
       <c r="AY109" s="1"/>
       <c r="AZ109" s="1"/>
     </row>
-    <row r="110" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:52" ht="15.75" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -7304,7 +7321,7 @@
       <c r="AY110" s="1"/>
       <c r="AZ110" s="1"/>
     </row>
-    <row r="111" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:52" ht="15.75" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -7358,7 +7375,7 @@
       <c r="AY111" s="1"/>
       <c r="AZ111" s="1"/>
     </row>
-    <row r="112" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:52" ht="15.75" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -7412,7 +7429,7 @@
       <c r="AY112" s="1"/>
       <c r="AZ112" s="1"/>
     </row>
-    <row r="113" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:52" ht="15.75" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -7466,7 +7483,7 @@
       <c r="AY113" s="1"/>
       <c r="AZ113" s="1"/>
     </row>
-    <row r="114" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:52" ht="15.75" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -7520,7 +7537,7 @@
       <c r="AY114" s="1"/>
       <c r="AZ114" s="1"/>
     </row>
-    <row r="115" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:52" ht="15.75" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -7574,7 +7591,7 @@
       <c r="AY115" s="1"/>
       <c r="AZ115" s="1"/>
     </row>
-    <row r="116" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:52" ht="15.75" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -7628,7 +7645,7 @@
       <c r="AY116" s="1"/>
       <c r="AZ116" s="1"/>
     </row>
-    <row r="117" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:52" ht="15.75" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -7682,7 +7699,7 @@
       <c r="AY117" s="1"/>
       <c r="AZ117" s="1"/>
     </row>
-    <row r="118" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:52" ht="15.75" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -7736,7 +7753,7 @@
       <c r="AY118" s="1"/>
       <c r="AZ118" s="1"/>
     </row>
-    <row r="119" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:52" ht="15.75" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -7790,7 +7807,7 @@
       <c r="AY119" s="1"/>
       <c r="AZ119" s="1"/>
     </row>
-    <row r="120" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:52" ht="15.75" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -7844,7 +7861,7 @@
       <c r="AY120" s="1"/>
       <c r="AZ120" s="1"/>
     </row>
-    <row r="121" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:52" ht="15.75" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -7898,7 +7915,7 @@
       <c r="AY121" s="1"/>
       <c r="AZ121" s="1"/>
     </row>
-    <row r="122" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:52" ht="15.75" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -7952,7 +7969,7 @@
       <c r="AY122" s="1"/>
       <c r="AZ122" s="1"/>
     </row>
-    <row r="123" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:52" ht="15.75" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -8006,7 +8023,7 @@
       <c r="AY123" s="1"/>
       <c r="AZ123" s="1"/>
     </row>
-    <row r="124" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:52" ht="15.75" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -8060,7 +8077,7 @@
       <c r="AY124" s="1"/>
       <c r="AZ124" s="1"/>
     </row>
-    <row r="125" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:52" ht="15.75" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -8114,7 +8131,7 @@
       <c r="AY125" s="1"/>
       <c r="AZ125" s="1"/>
     </row>
-    <row r="126" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:52" ht="15.75" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -8168,7 +8185,7 @@
       <c r="AY126" s="1"/>
       <c r="AZ126" s="1"/>
     </row>
-    <row r="127" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:52" ht="15.75" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -8222,7 +8239,7 @@
       <c r="AY127" s="1"/>
       <c r="AZ127" s="1"/>
     </row>
-    <row r="128" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:52" ht="15.75" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -8276,7 +8293,7 @@
       <c r="AY128" s="1"/>
       <c r="AZ128" s="1"/>
     </row>
-    <row r="129" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:52" ht="15.75" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -8330,7 +8347,7 @@
       <c r="AY129" s="1"/>
       <c r="AZ129" s="1"/>
     </row>
-    <row r="130" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:52" ht="15.75" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -8384,7 +8401,7 @@
       <c r="AY130" s="1"/>
       <c r="AZ130" s="1"/>
     </row>
-    <row r="131" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:52" ht="15.75" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -8438,7 +8455,7 @@
       <c r="AY131" s="1"/>
       <c r="AZ131" s="1"/>
     </row>
-    <row r="132" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:52" ht="15.75" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -8492,7 +8509,7 @@
       <c r="AY132" s="1"/>
       <c r="AZ132" s="1"/>
     </row>
-    <row r="133" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:52" ht="15.75" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -8546,7 +8563,7 @@
       <c r="AY133" s="1"/>
       <c r="AZ133" s="1"/>
     </row>
-    <row r="134" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:52" ht="15.75" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -8600,7 +8617,7 @@
       <c r="AY134" s="1"/>
       <c r="AZ134" s="1"/>
     </row>
-    <row r="135" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:52" ht="15.75" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -8654,7 +8671,7 @@
       <c r="AY135" s="1"/>
       <c r="AZ135" s="1"/>
     </row>
-    <row r="136" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:52" ht="15.75" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -8708,7 +8725,7 @@
       <c r="AY136" s="1"/>
       <c r="AZ136" s="1"/>
     </row>
-    <row r="137" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:52" ht="15.75" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -8762,7 +8779,7 @@
       <c r="AY137" s="1"/>
       <c r="AZ137" s="1"/>
     </row>
-    <row r="138" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:52" ht="15.75" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -8816,7 +8833,7 @@
       <c r="AY138" s="1"/>
       <c r="AZ138" s="1"/>
     </row>
-    <row r="139" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:52" ht="15.75" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -8870,7 +8887,7 @@
       <c r="AY139" s="1"/>
       <c r="AZ139" s="1"/>
     </row>
-    <row r="140" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:52" ht="15.75" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -8924,7 +8941,7 @@
       <c r="AY140" s="1"/>
       <c r="AZ140" s="1"/>
     </row>
-    <row r="141" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:52" ht="15.75" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -8978,7 +8995,7 @@
       <c r="AY141" s="1"/>
       <c r="AZ141" s="1"/>
     </row>
-    <row r="142" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:52" ht="15.75" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -9032,7 +9049,7 @@
       <c r="AY142" s="1"/>
       <c r="AZ142" s="1"/>
     </row>
-    <row r="143" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:52" ht="15.75" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -9086,7 +9103,7 @@
       <c r="AY143" s="1"/>
       <c r="AZ143" s="1"/>
     </row>
-    <row r="144" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:52" ht="15.75" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -9140,7 +9157,7 @@
       <c r="AY144" s="1"/>
       <c r="AZ144" s="1"/>
     </row>
-    <row r="145" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:52" ht="15.75" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -9194,7 +9211,7 @@
       <c r="AY145" s="1"/>
       <c r="AZ145" s="1"/>
     </row>
-    <row r="146" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:52" ht="15.75" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -9248,7 +9265,7 @@
       <c r="AY146" s="1"/>
       <c r="AZ146" s="1"/>
     </row>
-    <row r="147" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:52" ht="15.75" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -9302,7 +9319,7 @@
       <c r="AY147" s="1"/>
       <c r="AZ147" s="1"/>
     </row>
-    <row r="148" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:52" ht="15.75" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -9356,7 +9373,7 @@
       <c r="AY148" s="1"/>
       <c r="AZ148" s="1"/>
     </row>
-    <row r="149" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:52" ht="15.75" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -9410,7 +9427,7 @@
       <c r="AY149" s="1"/>
       <c r="AZ149" s="1"/>
     </row>
-    <row r="150" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:52" ht="15.75" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -9464,7 +9481,7 @@
       <c r="AY150" s="1"/>
       <c r="AZ150" s="1"/>
     </row>
-    <row r="151" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:52" ht="15.75" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -9518,7 +9535,7 @@
       <c r="AY151" s="1"/>
       <c r="AZ151" s="1"/>
     </row>
-    <row r="152" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:52" ht="15.75" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -9572,7 +9589,7 @@
       <c r="AY152" s="1"/>
       <c r="AZ152" s="1"/>
     </row>
-    <row r="153" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:52" ht="15.75" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -9626,7 +9643,7 @@
       <c r="AY153" s="1"/>
       <c r="AZ153" s="1"/>
     </row>
-    <row r="154" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:52" ht="15.75" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -9680,7 +9697,7 @@
       <c r="AY154" s="1"/>
       <c r="AZ154" s="1"/>
     </row>
-    <row r="155" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:52" ht="15.75" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -9734,7 +9751,7 @@
       <c r="AY155" s="1"/>
       <c r="AZ155" s="1"/>
     </row>
-    <row r="156" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:52" ht="15.75" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -9788,7 +9805,7 @@
       <c r="AY156" s="1"/>
       <c r="AZ156" s="1"/>
     </row>
-    <row r="157" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:52" ht="15.75" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -9842,7 +9859,7 @@
       <c r="AY157" s="1"/>
       <c r="AZ157" s="1"/>
     </row>
-    <row r="158" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:52" ht="15.75" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -9896,7 +9913,7 @@
       <c r="AY158" s="1"/>
       <c r="AZ158" s="1"/>
     </row>
-    <row r="159" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:52" ht="15.75" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -9950,7 +9967,7 @@
       <c r="AY159" s="1"/>
       <c r="AZ159" s="1"/>
     </row>
-    <row r="160" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:52" ht="15.75" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -10004,7 +10021,7 @@
       <c r="AY160" s="1"/>
       <c r="AZ160" s="1"/>
     </row>
-    <row r="161" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:52" ht="15.75" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -10058,7 +10075,7 @@
       <c r="AY161" s="1"/>
       <c r="AZ161" s="1"/>
     </row>
-    <row r="162" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:52" ht="15.75" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -10112,7 +10129,7 @@
       <c r="AY162" s="1"/>
       <c r="AZ162" s="1"/>
     </row>
-    <row r="163" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:52" ht="15.75" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -10166,7 +10183,7 @@
       <c r="AY163" s="1"/>
       <c r="AZ163" s="1"/>
     </row>
-    <row r="164" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:52" ht="15.75" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -10220,7 +10237,7 @@
       <c r="AY164" s="1"/>
       <c r="AZ164" s="1"/>
     </row>
-    <row r="165" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:52" ht="15.75" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -10274,7 +10291,7 @@
       <c r="AY165" s="1"/>
       <c r="AZ165" s="1"/>
     </row>
-    <row r="166" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:52" ht="15.75" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -10328,7 +10345,7 @@
       <c r="AY166" s="1"/>
       <c r="AZ166" s="1"/>
     </row>
-    <row r="167" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:52" ht="15.75" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -10382,7 +10399,7 @@
       <c r="AY167" s="1"/>
       <c r="AZ167" s="1"/>
     </row>
-    <row r="168" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:52" ht="15.75" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -10436,7 +10453,7 @@
       <c r="AY168" s="1"/>
       <c r="AZ168" s="1"/>
     </row>
-    <row r="169" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:52" ht="15.75" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -10490,7 +10507,7 @@
       <c r="AY169" s="1"/>
       <c r="AZ169" s="1"/>
     </row>
-    <row r="170" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:52" ht="15.75" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -10544,7 +10561,7 @@
       <c r="AY170" s="1"/>
       <c r="AZ170" s="1"/>
     </row>
-    <row r="171" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:52" ht="15.75" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -10598,7 +10615,7 @@
       <c r="AY171" s="1"/>
       <c r="AZ171" s="1"/>
     </row>
-    <row r="172" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:52" ht="15.75" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -10652,7 +10669,7 @@
       <c r="AY172" s="1"/>
       <c r="AZ172" s="1"/>
     </row>
-    <row r="173" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:52" ht="15.75" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -10706,7 +10723,7 @@
       <c r="AY173" s="1"/>
       <c r="AZ173" s="1"/>
     </row>
-    <row r="174" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:52" ht="15.75" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -10760,7 +10777,7 @@
       <c r="AY174" s="1"/>
       <c r="AZ174" s="1"/>
     </row>
-    <row r="175" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:52" ht="15.75" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -10814,7 +10831,7 @@
       <c r="AY175" s="1"/>
       <c r="AZ175" s="1"/>
     </row>
-    <row r="176" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:52" ht="15.75" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -10868,7 +10885,7 @@
       <c r="AY176" s="1"/>
       <c r="AZ176" s="1"/>
     </row>
-    <row r="177" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:52" ht="15.75" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -10922,7 +10939,7 @@
       <c r="AY177" s="1"/>
       <c r="AZ177" s="1"/>
     </row>
-    <row r="178" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:52" ht="15.75" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -10976,7 +10993,7 @@
       <c r="AY178" s="1"/>
       <c r="AZ178" s="1"/>
     </row>
-    <row r="179" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:52" ht="15.75" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -11030,7 +11047,7 @@
       <c r="AY179" s="1"/>
       <c r="AZ179" s="1"/>
     </row>
-    <row r="180" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:52" ht="15.75" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -11084,7 +11101,7 @@
       <c r="AY180" s="1"/>
       <c r="AZ180" s="1"/>
     </row>
-    <row r="181" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:52" ht="15.75" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -11138,7 +11155,7 @@
       <c r="AY181" s="1"/>
       <c r="AZ181" s="1"/>
     </row>
-    <row r="182" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:52" ht="15.75" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -11192,7 +11209,7 @@
       <c r="AY182" s="1"/>
       <c r="AZ182" s="1"/>
     </row>
-    <row r="183" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:52" ht="15.75" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -11246,7 +11263,7 @@
       <c r="AY183" s="1"/>
       <c r="AZ183" s="1"/>
     </row>
-    <row r="184" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:52" ht="15.75" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -11300,7 +11317,7 @@
       <c r="AY184" s="1"/>
       <c r="AZ184" s="1"/>
     </row>
-    <row r="185" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:52" ht="15.75" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -11354,7 +11371,7 @@
       <c r="AY185" s="1"/>
       <c r="AZ185" s="1"/>
     </row>
-    <row r="186" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:52" ht="15.75" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -11408,7 +11425,7 @@
       <c r="AY186" s="1"/>
       <c r="AZ186" s="1"/>
     </row>
-    <row r="187" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:52" ht="15.75" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -11462,7 +11479,7 @@
       <c r="AY187" s="1"/>
       <c r="AZ187" s="1"/>
     </row>
-    <row r="188" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:52" ht="15.75" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -11516,7 +11533,7 @@
       <c r="AY188" s="1"/>
       <c r="AZ188" s="1"/>
     </row>
-    <row r="189" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:52" ht="15.75" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -11570,7 +11587,7 @@
       <c r="AY189" s="1"/>
       <c r="AZ189" s="1"/>
     </row>
-    <row r="190" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:52" ht="15.75" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -11624,7 +11641,7 @@
       <c r="AY190" s="1"/>
       <c r="AZ190" s="1"/>
     </row>
-    <row r="191" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:52" ht="15.75" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -11678,7 +11695,7 @@
       <c r="AY191" s="1"/>
       <c r="AZ191" s="1"/>
     </row>
-    <row r="192" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:52" ht="15.75" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -11732,7 +11749,7 @@
       <c r="AY192" s="1"/>
       <c r="AZ192" s="1"/>
     </row>
-    <row r="193" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:52" ht="15.75" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -11786,7 +11803,7 @@
       <c r="AY193" s="1"/>
       <c r="AZ193" s="1"/>
     </row>
-    <row r="194" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:52" ht="15.75" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -11840,7 +11857,7 @@
       <c r="AY194" s="1"/>
       <c r="AZ194" s="1"/>
     </row>
-    <row r="195" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:52" ht="15.75" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -11894,7 +11911,7 @@
       <c r="AY195" s="1"/>
       <c r="AZ195" s="1"/>
     </row>
-    <row r="196" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:52" ht="15.75" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -11948,7 +11965,7 @@
       <c r="AY196" s="1"/>
       <c r="AZ196" s="1"/>
     </row>
-    <row r="197" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:52" ht="15.75" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -12002,7 +12019,7 @@
       <c r="AY197" s="1"/>
       <c r="AZ197" s="1"/>
     </row>
-    <row r="198" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:52" ht="15.75" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -12056,7 +12073,7 @@
       <c r="AY198" s="1"/>
       <c r="AZ198" s="1"/>
     </row>
-    <row r="199" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:52" ht="15.75" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -12110,7 +12127,7 @@
       <c r="AY199" s="1"/>
       <c r="AZ199" s="1"/>
     </row>
-    <row r="200" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:52" ht="15.75" customHeight="1">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -12164,7 +12181,7 @@
       <c r="AY200" s="1"/>
       <c r="AZ200" s="1"/>
     </row>
-    <row r="201" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:52" ht="15.75" customHeight="1">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -12218,7 +12235,7 @@
       <c r="AY201" s="1"/>
       <c r="AZ201" s="1"/>
     </row>
-    <row r="202" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:52" ht="15.75" customHeight="1">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -12272,7 +12289,7 @@
       <c r="AY202" s="1"/>
       <c r="AZ202" s="1"/>
     </row>
-    <row r="203" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:52" ht="15.75" customHeight="1">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -12326,7 +12343,7 @@
       <c r="AY203" s="1"/>
       <c r="AZ203" s="1"/>
     </row>
-    <row r="204" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:52" ht="15.75" customHeight="1">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -12380,7 +12397,7 @@
       <c r="AY204" s="1"/>
       <c r="AZ204" s="1"/>
     </row>
-    <row r="205" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:52" ht="15.75" customHeight="1">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -12434,7 +12451,7 @@
       <c r="AY205" s="1"/>
       <c r="AZ205" s="1"/>
     </row>
-    <row r="206" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:52" ht="15.75" customHeight="1">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -12488,7 +12505,7 @@
       <c r="AY206" s="1"/>
       <c r="AZ206" s="1"/>
     </row>
-    <row r="207" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:52" ht="15.75" customHeight="1">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -12542,7 +12559,7 @@
       <c r="AY207" s="1"/>
       <c r="AZ207" s="1"/>
     </row>
-    <row r="208" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:52" ht="15.75" customHeight="1">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -12596,7 +12613,7 @@
       <c r="AY208" s="1"/>
       <c r="AZ208" s="1"/>
     </row>
-    <row r="209" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:52" ht="15.75" customHeight="1">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -12650,7 +12667,7 @@
       <c r="AY209" s="1"/>
       <c r="AZ209" s="1"/>
     </row>
-    <row r="210" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:52" ht="15.75" customHeight="1">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -12704,7 +12721,7 @@
       <c r="AY210" s="1"/>
       <c r="AZ210" s="1"/>
     </row>
-    <row r="211" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:52" ht="15.75" customHeight="1">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -12758,7 +12775,7 @@
       <c r="AY211" s="1"/>
       <c r="AZ211" s="1"/>
     </row>
-    <row r="212" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:52" ht="15.75" customHeight="1">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -12812,7 +12829,7 @@
       <c r="AY212" s="1"/>
       <c r="AZ212" s="1"/>
     </row>
-    <row r="213" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:52" ht="15.75" customHeight="1">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -12866,7 +12883,7 @@
       <c r="AY213" s="1"/>
       <c r="AZ213" s="1"/>
     </row>
-    <row r="214" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:52" ht="15.75" customHeight="1">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -12920,7 +12937,7 @@
       <c r="AY214" s="1"/>
       <c r="AZ214" s="1"/>
     </row>
-    <row r="215" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:52" ht="15.75" customHeight="1">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -12974,7 +12991,7 @@
       <c r="AY215" s="1"/>
       <c r="AZ215" s="1"/>
     </row>
-    <row r="216" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:52" ht="15.75" customHeight="1">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -13028,7 +13045,7 @@
       <c r="AY216" s="1"/>
       <c r="AZ216" s="1"/>
     </row>
-    <row r="217" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:52" ht="15.75" customHeight="1">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -13082,7 +13099,7 @@
       <c r="AY217" s="1"/>
       <c r="AZ217" s="1"/>
     </row>
-    <row r="218" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:52" ht="15.75" customHeight="1">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -13136,7 +13153,7 @@
       <c r="AY218" s="1"/>
       <c r="AZ218" s="1"/>
     </row>
-    <row r="219" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:52" ht="15.75" customHeight="1">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -13190,7 +13207,7 @@
       <c r="AY219" s="1"/>
       <c r="AZ219" s="1"/>
     </row>
-    <row r="220" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:52" ht="15.75" customHeight="1">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -13244,7 +13261,7 @@
       <c r="AY220" s="1"/>
       <c r="AZ220" s="1"/>
     </row>
-    <row r="221" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:52" ht="15.75" customHeight="1">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -13298,7 +13315,7 @@
       <c r="AY221" s="1"/>
       <c r="AZ221" s="1"/>
     </row>
-    <row r="222" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:52" ht="15.75" customHeight="1">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -13352,7 +13369,7 @@
       <c r="AY222" s="1"/>
       <c r="AZ222" s="1"/>
     </row>
-    <row r="223" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:52" ht="15.75" customHeight="1">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -13406,7 +13423,7 @@
       <c r="AY223" s="1"/>
       <c r="AZ223" s="1"/>
     </row>
-    <row r="224" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:52" ht="15.75" customHeight="1">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -13460,7 +13477,7 @@
       <c r="AY224" s="1"/>
       <c r="AZ224" s="1"/>
     </row>
-    <row r="225" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:52" ht="15.75" customHeight="1">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -13514,7 +13531,7 @@
       <c r="AY225" s="1"/>
       <c r="AZ225" s="1"/>
     </row>
-    <row r="226" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:52" ht="15.75" customHeight="1">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -13568,7 +13585,7 @@
       <c r="AY226" s="1"/>
       <c r="AZ226" s="1"/>
     </row>
-    <row r="227" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:52" ht="15.75" customHeight="1">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -13622,7 +13639,7 @@
       <c r="AY227" s="1"/>
       <c r="AZ227" s="1"/>
     </row>
-    <row r="228" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:52" ht="15.75" customHeight="1">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -13676,7 +13693,7 @@
       <c r="AY228" s="1"/>
       <c r="AZ228" s="1"/>
     </row>
-    <row r="229" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:52" ht="15.75" customHeight="1">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -13730,7 +13747,7 @@
       <c r="AY229" s="1"/>
       <c r="AZ229" s="1"/>
     </row>
-    <row r="230" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:52" ht="15.75" customHeight="1">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -13784,7 +13801,7 @@
       <c r="AY230" s="1"/>
       <c r="AZ230" s="1"/>
     </row>
-    <row r="231" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:52" ht="15.75" customHeight="1">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -13838,7 +13855,7 @@
       <c r="AY231" s="1"/>
       <c r="AZ231" s="1"/>
     </row>
-    <row r="232" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:52" ht="15.75" customHeight="1">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -13892,7 +13909,7 @@
       <c r="AY232" s="1"/>
       <c r="AZ232" s="1"/>
     </row>
-    <row r="233" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:52" ht="15.75" customHeight="1">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -13946,7 +13963,7 @@
       <c r="AY233" s="1"/>
       <c r="AZ233" s="1"/>
     </row>
-    <row r="234" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:52" ht="15.75" customHeight="1">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -14000,7 +14017,7 @@
       <c r="AY234" s="1"/>
       <c r="AZ234" s="1"/>
     </row>
-    <row r="235" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:52" ht="15.75" customHeight="1">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -14054,7 +14071,7 @@
       <c r="AY235" s="1"/>
       <c r="AZ235" s="1"/>
     </row>
-    <row r="236" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:52" ht="15.75" customHeight="1">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -14108,7 +14125,7 @@
       <c r="AY236" s="1"/>
       <c r="AZ236" s="1"/>
     </row>
-    <row r="237" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:52" ht="15.75" customHeight="1">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -14162,7 +14179,7 @@
       <c r="AY237" s="1"/>
       <c r="AZ237" s="1"/>
     </row>
-    <row r="238" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:52" ht="15.75" customHeight="1">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -14216,7 +14233,7 @@
       <c r="AY238" s="1"/>
       <c r="AZ238" s="1"/>
     </row>
-    <row r="239" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:52" ht="15.75" customHeight="1">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -14270,7 +14287,7 @@
       <c r="AY239" s="1"/>
       <c r="AZ239" s="1"/>
     </row>
-    <row r="240" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:52" ht="15.75" customHeight="1">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -14324,7 +14341,7 @@
       <c r="AY240" s="1"/>
       <c r="AZ240" s="1"/>
     </row>
-    <row r="241" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:52" ht="15.75" customHeight="1">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -14378,7 +14395,7 @@
       <c r="AY241" s="1"/>
       <c r="AZ241" s="1"/>
     </row>
-    <row r="242" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:52" ht="15.75" customHeight="1">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -14432,7 +14449,7 @@
       <c r="AY242" s="1"/>
       <c r="AZ242" s="1"/>
     </row>
-    <row r="243" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:52" ht="15.75" customHeight="1">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -14486,7 +14503,7 @@
       <c r="AY243" s="1"/>
       <c r="AZ243" s="1"/>
     </row>
-    <row r="244" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:52" ht="15.75" customHeight="1">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -14540,7 +14557,7 @@
       <c r="AY244" s="1"/>
       <c r="AZ244" s="1"/>
     </row>
-    <row r="245" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:52" ht="15.75" customHeight="1">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -14594,7 +14611,7 @@
       <c r="AY245" s="1"/>
       <c r="AZ245" s="1"/>
     </row>
-    <row r="246" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:52" ht="15.75" customHeight="1">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -14648,7 +14665,7 @@
       <c r="AY246" s="1"/>
       <c r="AZ246" s="1"/>
     </row>
-    <row r="247" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:52" ht="15.75" customHeight="1">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -14702,7 +14719,7 @@
       <c r="AY247" s="1"/>
       <c r="AZ247" s="1"/>
     </row>
-    <row r="248" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:52" ht="15.75" customHeight="1">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -14756,7 +14773,7 @@
       <c r="AY248" s="1"/>
       <c r="AZ248" s="1"/>
     </row>
-    <row r="249" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:52" ht="15.75" customHeight="1">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -14810,7 +14827,7 @@
       <c r="AY249" s="1"/>
       <c r="AZ249" s="1"/>
     </row>
-    <row r="250" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:52" ht="15.75" customHeight="1">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -14864,7 +14881,7 @@
       <c r="AY250" s="1"/>
       <c r="AZ250" s="1"/>
     </row>
-    <row r="251" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:52" ht="15.75" customHeight="1">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -14918,7 +14935,7 @@
       <c r="AY251" s="1"/>
       <c r="AZ251" s="1"/>
     </row>
-    <row r="252" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:52" ht="15.75" customHeight="1">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -14972,7 +14989,7 @@
       <c r="AY252" s="1"/>
       <c r="AZ252" s="1"/>
     </row>
-    <row r="253" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:52" ht="15.75" customHeight="1">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -15026,7 +15043,7 @@
       <c r="AY253" s="1"/>
       <c r="AZ253" s="1"/>
     </row>
-    <row r="254" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:52" ht="15.75" customHeight="1">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -15080,7 +15097,7 @@
       <c r="AY254" s="1"/>
       <c r="AZ254" s="1"/>
     </row>
-    <row r="255" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:52" ht="15.75" customHeight="1">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -15134,7 +15151,7 @@
       <c r="AY255" s="1"/>
       <c r="AZ255" s="1"/>
     </row>
-    <row r="256" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:52" ht="15.75" customHeight="1">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -15188,7 +15205,7 @@
       <c r="AY256" s="1"/>
       <c r="AZ256" s="1"/>
     </row>
-    <row r="257" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:52" ht="15.75" customHeight="1">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -15242,7 +15259,7 @@
       <c r="AY257" s="1"/>
       <c r="AZ257" s="1"/>
     </row>
-    <row r="258" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:52" ht="15.75" customHeight="1">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -15296,7 +15313,7 @@
       <c r="AY258" s="1"/>
       <c r="AZ258" s="1"/>
     </row>
-    <row r="259" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:52" ht="15.75" customHeight="1">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -15350,7 +15367,7 @@
       <c r="AY259" s="1"/>
       <c r="AZ259" s="1"/>
     </row>
-    <row r="260" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:52" ht="15.75" customHeight="1">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -15404,7 +15421,7 @@
       <c r="AY260" s="1"/>
       <c r="AZ260" s="1"/>
     </row>
-    <row r="261" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:52" ht="15.75" customHeight="1">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -15458,7 +15475,7 @@
       <c r="AY261" s="1"/>
       <c r="AZ261" s="1"/>
     </row>
-    <row r="262" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:52" ht="15.75" customHeight="1">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -15512,7 +15529,7 @@
       <c r="AY262" s="1"/>
       <c r="AZ262" s="1"/>
     </row>
-    <row r="263" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:52" ht="15.75" customHeight="1">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -15566,7 +15583,7 @@
       <c r="AY263" s="1"/>
       <c r="AZ263" s="1"/>
     </row>
-    <row r="264" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:52" ht="15.75" customHeight="1">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -15620,7 +15637,7 @@
       <c r="AY264" s="1"/>
       <c r="AZ264" s="1"/>
     </row>
-    <row r="265" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:52" ht="15.75" customHeight="1">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -15674,7 +15691,7 @@
       <c r="AY265" s="1"/>
       <c r="AZ265" s="1"/>
     </row>
-    <row r="266" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:52" ht="15.75" customHeight="1">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -15728,7 +15745,7 @@
       <c r="AY266" s="1"/>
       <c r="AZ266" s="1"/>
     </row>
-    <row r="267" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:52" ht="15.75" customHeight="1">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -15782,7 +15799,7 @@
       <c r="AY267" s="1"/>
       <c r="AZ267" s="1"/>
     </row>
-    <row r="268" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:52" ht="15.75" customHeight="1">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -15836,7 +15853,7 @@
       <c r="AY268" s="1"/>
       <c r="AZ268" s="1"/>
     </row>
-    <row r="269" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:52" ht="15.75" customHeight="1">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -15890,7 +15907,7 @@
       <c r="AY269" s="1"/>
       <c r="AZ269" s="1"/>
     </row>
-    <row r="270" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:52" ht="15.75" customHeight="1">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -15944,7 +15961,7 @@
       <c r="AY270" s="1"/>
       <c r="AZ270" s="1"/>
     </row>
-    <row r="271" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:52" ht="15.75" customHeight="1">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -15998,7 +16015,7 @@
       <c r="AY271" s="1"/>
       <c r="AZ271" s="1"/>
     </row>
-    <row r="272" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:52" ht="15.75" customHeight="1">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -16052,7 +16069,7 @@
       <c r="AY272" s="1"/>
       <c r="AZ272" s="1"/>
     </row>
-    <row r="273" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:52" ht="15.75" customHeight="1">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -16106,7 +16123,7 @@
       <c r="AY273" s="1"/>
       <c r="AZ273" s="1"/>
     </row>
-    <row r="274" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:52" ht="15.75" customHeight="1">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -16160,7 +16177,7 @@
       <c r="AY274" s="1"/>
       <c r="AZ274" s="1"/>
     </row>
-    <row r="275" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:52" ht="15.75" customHeight="1">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -16214,7 +16231,7 @@
       <c r="AY275" s="1"/>
       <c r="AZ275" s="1"/>
     </row>
-    <row r="276" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:52" ht="15.75" customHeight="1">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -16268,7 +16285,7 @@
       <c r="AY276" s="1"/>
       <c r="AZ276" s="1"/>
     </row>
-    <row r="277" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:52" ht="15.75" customHeight="1">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -16322,7 +16339,7 @@
       <c r="AY277" s="1"/>
       <c r="AZ277" s="1"/>
     </row>
-    <row r="278" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:52" ht="15.75" customHeight="1">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -16376,7 +16393,7 @@
       <c r="AY278" s="1"/>
       <c r="AZ278" s="1"/>
     </row>
-    <row r="279" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:52" ht="15.75" customHeight="1">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -16430,7 +16447,7 @@
       <c r="AY279" s="1"/>
       <c r="AZ279" s="1"/>
     </row>
-    <row r="280" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:52" ht="15.75" customHeight="1">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -16484,7 +16501,7 @@
       <c r="AY280" s="1"/>
       <c r="AZ280" s="1"/>
     </row>
-    <row r="281" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:52" ht="15.75" customHeight="1">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -16538,7 +16555,7 @@
       <c r="AY281" s="1"/>
       <c r="AZ281" s="1"/>
     </row>
-    <row r="282" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:52" ht="15.75" customHeight="1">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -16592,7 +16609,7 @@
       <c r="AY282" s="1"/>
       <c r="AZ282" s="1"/>
     </row>
-    <row r="283" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:52" ht="15.75" customHeight="1">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -16646,7 +16663,7 @@
       <c r="AY283" s="1"/>
       <c r="AZ283" s="1"/>
     </row>
-    <row r="284" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:52" ht="15.75" customHeight="1">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -16700,7 +16717,7 @@
       <c r="AY284" s="1"/>
       <c r="AZ284" s="1"/>
     </row>
-    <row r="285" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:52" ht="15.75" customHeight="1">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -16754,7 +16771,7 @@
       <c r="AY285" s="1"/>
       <c r="AZ285" s="1"/>
     </row>
-    <row r="286" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:52" ht="15.75" customHeight="1">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -16808,7 +16825,7 @@
       <c r="AY286" s="1"/>
       <c r="AZ286" s="1"/>
     </row>
-    <row r="287" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:52" ht="15.75" customHeight="1">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -16862,7 +16879,7 @@
       <c r="AY287" s="1"/>
       <c r="AZ287" s="1"/>
     </row>
-    <row r="288" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:52" ht="15.75" customHeight="1">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -16916,7 +16933,7 @@
       <c r="AY288" s="1"/>
       <c r="AZ288" s="1"/>
     </row>
-    <row r="289" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:52" ht="15.75" customHeight="1">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -16970,7 +16987,7 @@
       <c r="AY289" s="1"/>
       <c r="AZ289" s="1"/>
     </row>
-    <row r="290" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:52" ht="15.75" customHeight="1">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -17024,7 +17041,7 @@
       <c r="AY290" s="1"/>
       <c r="AZ290" s="1"/>
     </row>
-    <row r="291" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:52" ht="15.75" customHeight="1">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -17078,7 +17095,7 @@
       <c r="AY291" s="1"/>
       <c r="AZ291" s="1"/>
     </row>
-    <row r="292" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:52" ht="15.75" customHeight="1">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -17132,7 +17149,7 @@
       <c r="AY292" s="1"/>
       <c r="AZ292" s="1"/>
     </row>
-    <row r="293" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:52" ht="15.75" customHeight="1">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -17186,7 +17203,7 @@
       <c r="AY293" s="1"/>
       <c r="AZ293" s="1"/>
     </row>
-    <row r="294" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:52" ht="15.75" customHeight="1">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -17240,7 +17257,7 @@
       <c r="AY294" s="1"/>
       <c r="AZ294" s="1"/>
     </row>
-    <row r="295" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:52" ht="15.75" customHeight="1">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -17294,7 +17311,7 @@
       <c r="AY295" s="1"/>
       <c r="AZ295" s="1"/>
     </row>
-    <row r="296" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:52" ht="15.75" customHeight="1">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -17348,7 +17365,7 @@
       <c r="AY296" s="1"/>
       <c r="AZ296" s="1"/>
     </row>
-    <row r="297" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:52" ht="15.75" customHeight="1">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -17402,7 +17419,7 @@
       <c r="AY297" s="1"/>
       <c r="AZ297" s="1"/>
     </row>
-    <row r="298" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:52" ht="15.75" customHeight="1">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -17456,7 +17473,7 @@
       <c r="AY298" s="1"/>
       <c r="AZ298" s="1"/>
     </row>
-    <row r="299" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:52" ht="15.75" customHeight="1">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -17510,7 +17527,7 @@
       <c r="AY299" s="1"/>
       <c r="AZ299" s="1"/>
     </row>
-    <row r="300" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:52" ht="15.75" customHeight="1">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -17564,7 +17581,7 @@
       <c r="AY300" s="1"/>
       <c r="AZ300" s="1"/>
     </row>
-    <row r="301" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:52" ht="15.75" customHeight="1">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -17618,7 +17635,7 @@
       <c r="AY301" s="1"/>
       <c r="AZ301" s="1"/>
     </row>
-    <row r="302" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:52" ht="15.75" customHeight="1">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -17672,7 +17689,7 @@
       <c r="AY302" s="1"/>
       <c r="AZ302" s="1"/>
     </row>
-    <row r="303" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:52" ht="15.75" customHeight="1">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -17726,7 +17743,7 @@
       <c r="AY303" s="1"/>
       <c r="AZ303" s="1"/>
     </row>
-    <row r="304" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:52" ht="15.75" customHeight="1">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -17780,7 +17797,7 @@
       <c r="AY304" s="1"/>
       <c r="AZ304" s="1"/>
     </row>
-    <row r="305" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:52" ht="15.75" customHeight="1">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -17834,7 +17851,7 @@
       <c r="AY305" s="1"/>
       <c r="AZ305" s="1"/>
     </row>
-    <row r="306" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:52" ht="15.75" customHeight="1">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -17888,7 +17905,7 @@
       <c r="AY306" s="1"/>
       <c r="AZ306" s="1"/>
     </row>
-    <row r="307" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:52" ht="15.75" customHeight="1">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -17942,7 +17959,7 @@
       <c r="AY307" s="1"/>
       <c r="AZ307" s="1"/>
     </row>
-    <row r="308" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:52" ht="15.75" customHeight="1">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -17996,7 +18013,7 @@
       <c r="AY308" s="1"/>
       <c r="AZ308" s="1"/>
     </row>
-    <row r="309" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:52" ht="15.75" customHeight="1">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -18050,7 +18067,7 @@
       <c r="AY309" s="1"/>
       <c r="AZ309" s="1"/>
     </row>
-    <row r="310" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:52" ht="15.75" customHeight="1">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -18104,7 +18121,7 @@
       <c r="AY310" s="1"/>
       <c r="AZ310" s="1"/>
     </row>
-    <row r="311" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:52" ht="15.75" customHeight="1">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -18158,7 +18175,7 @@
       <c r="AY311" s="1"/>
       <c r="AZ311" s="1"/>
     </row>
-    <row r="312" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:52" ht="15.75" customHeight="1">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -18212,7 +18229,7 @@
       <c r="AY312" s="1"/>
       <c r="AZ312" s="1"/>
     </row>
-    <row r="313" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:52" ht="15.75" customHeight="1">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -18266,7 +18283,7 @@
       <c r="AY313" s="1"/>
       <c r="AZ313" s="1"/>
     </row>
-    <row r="314" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:52" ht="15.75" customHeight="1">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -18320,7 +18337,7 @@
       <c r="AY314" s="1"/>
       <c r="AZ314" s="1"/>
     </row>
-    <row r="315" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:52" ht="15.75" customHeight="1">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -18374,7 +18391,7 @@
       <c r="AY315" s="1"/>
       <c r="AZ315" s="1"/>
     </row>
-    <row r="316" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:52" ht="15.75" customHeight="1">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -18428,7 +18445,7 @@
       <c r="AY316" s="1"/>
       <c r="AZ316" s="1"/>
     </row>
-    <row r="317" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:52" ht="15.75" customHeight="1">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -18482,7 +18499,7 @@
       <c r="AY317" s="1"/>
       <c r="AZ317" s="1"/>
     </row>
-    <row r="318" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:52" ht="15.75" customHeight="1">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -18536,7 +18553,7 @@
       <c r="AY318" s="1"/>
       <c r="AZ318" s="1"/>
     </row>
-    <row r="319" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:52" ht="15.75" customHeight="1">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -18590,7 +18607,7 @@
       <c r="AY319" s="1"/>
       <c r="AZ319" s="1"/>
     </row>
-    <row r="320" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:52" ht="15.75" customHeight="1">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -18644,7 +18661,7 @@
       <c r="AY320" s="1"/>
       <c r="AZ320" s="1"/>
     </row>
-    <row r="321" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:52" ht="15.75" customHeight="1">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -18698,7 +18715,7 @@
       <c r="AY321" s="1"/>
       <c r="AZ321" s="1"/>
     </row>
-    <row r="322" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:52" ht="15.75" customHeight="1">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -18752,7 +18769,7 @@
       <c r="AY322" s="1"/>
       <c r="AZ322" s="1"/>
     </row>
-    <row r="323" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:52" ht="15.75" customHeight="1">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -18806,7 +18823,7 @@
       <c r="AY323" s="1"/>
       <c r="AZ323" s="1"/>
     </row>
-    <row r="324" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:52" ht="15.75" customHeight="1">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -18860,7 +18877,7 @@
       <c r="AY324" s="1"/>
       <c r="AZ324" s="1"/>
     </row>
-    <row r="325" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:52" ht="15.75" customHeight="1">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -18914,7 +18931,7 @@
       <c r="AY325" s="1"/>
       <c r="AZ325" s="1"/>
     </row>
-    <row r="326" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:52" ht="15.75" customHeight="1">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -18968,7 +18985,7 @@
       <c r="AY326" s="1"/>
       <c r="AZ326" s="1"/>
     </row>
-    <row r="327" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:52" ht="15.75" customHeight="1">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -19022,7 +19039,7 @@
       <c r="AY327" s="1"/>
       <c r="AZ327" s="1"/>
     </row>
-    <row r="328" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:52" ht="15.75" customHeight="1">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -19076,7 +19093,7 @@
       <c r="AY328" s="1"/>
       <c r="AZ328" s="1"/>
     </row>
-    <row r="329" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:52" ht="15.75" customHeight="1">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -19130,7 +19147,7 @@
       <c r="AY329" s="1"/>
       <c r="AZ329" s="1"/>
     </row>
-    <row r="330" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:52" ht="15.75" customHeight="1">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -19184,7 +19201,7 @@
       <c r="AY330" s="1"/>
       <c r="AZ330" s="1"/>
     </row>
-    <row r="331" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:52" ht="15.75" customHeight="1">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -19238,7 +19255,7 @@
       <c r="AY331" s="1"/>
       <c r="AZ331" s="1"/>
     </row>
-    <row r="332" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:52" ht="15.75" customHeight="1">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -19292,7 +19309,7 @@
       <c r="AY332" s="1"/>
       <c r="AZ332" s="1"/>
     </row>
-    <row r="333" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:52" ht="15.75" customHeight="1">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -19346,7 +19363,7 @@
       <c r="AY333" s="1"/>
       <c r="AZ333" s="1"/>
     </row>
-    <row r="334" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:52" ht="15.75" customHeight="1">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -19400,7 +19417,7 @@
       <c r="AY334" s="1"/>
       <c r="AZ334" s="1"/>
     </row>
-    <row r="335" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:52" ht="15.75" customHeight="1">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -19454,7 +19471,7 @@
       <c r="AY335" s="1"/>
       <c r="AZ335" s="1"/>
     </row>
-    <row r="336" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:52" ht="15.75" customHeight="1">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -19508,7 +19525,7 @@
       <c r="AY336" s="1"/>
       <c r="AZ336" s="1"/>
     </row>
-    <row r="337" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:52" ht="15.75" customHeight="1">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -19562,7 +19579,7 @@
       <c r="AY337" s="1"/>
       <c r="AZ337" s="1"/>
     </row>
-    <row r="338" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:52" ht="15.75" customHeight="1">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -19616,7 +19633,7 @@
       <c r="AY338" s="1"/>
       <c r="AZ338" s="1"/>
     </row>
-    <row r="339" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:52" ht="15.75" customHeight="1">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -19670,7 +19687,7 @@
       <c r="AY339" s="1"/>
       <c r="AZ339" s="1"/>
     </row>
-    <row r="340" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:52" ht="15.75" customHeight="1">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -19724,7 +19741,7 @@
       <c r="AY340" s="1"/>
       <c r="AZ340" s="1"/>
     </row>
-    <row r="341" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:52" ht="15.75" customHeight="1">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -19778,7 +19795,7 @@
       <c r="AY341" s="1"/>
       <c r="AZ341" s="1"/>
     </row>
-    <row r="342" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:52" ht="15.75" customHeight="1">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -19832,7 +19849,7 @@
       <c r="AY342" s="1"/>
       <c r="AZ342" s="1"/>
     </row>
-    <row r="343" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:52" ht="15.75" customHeight="1">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -19886,7 +19903,7 @@
       <c r="AY343" s="1"/>
       <c r="AZ343" s="1"/>
     </row>
-    <row r="344" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:52" ht="15.75" customHeight="1">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -19940,7 +19957,7 @@
       <c r="AY344" s="1"/>
       <c r="AZ344" s="1"/>
     </row>
-    <row r="345" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:52" ht="15.75" customHeight="1">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -19994,7 +20011,7 @@
       <c r="AY345" s="1"/>
       <c r="AZ345" s="1"/>
     </row>
-    <row r="346" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:52" ht="15.75" customHeight="1">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -20048,7 +20065,7 @@
       <c r="AY346" s="1"/>
       <c r="AZ346" s="1"/>
     </row>
-    <row r="347" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:52" ht="15.75" customHeight="1">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -20102,7 +20119,7 @@
       <c r="AY347" s="1"/>
       <c r="AZ347" s="1"/>
     </row>
-    <row r="348" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:52" ht="15.75" customHeight="1">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -20156,7 +20173,7 @@
       <c r="AY348" s="1"/>
       <c r="AZ348" s="1"/>
     </row>
-    <row r="349" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:52" ht="15.75" customHeight="1">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -20210,7 +20227,7 @@
       <c r="AY349" s="1"/>
       <c r="AZ349" s="1"/>
     </row>
-    <row r="350" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:52" ht="15.75" customHeight="1">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -20264,7 +20281,7 @@
       <c r="AY350" s="1"/>
       <c r="AZ350" s="1"/>
     </row>
-    <row r="351" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:52" ht="15.75" customHeight="1">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -20318,7 +20335,7 @@
       <c r="AY351" s="1"/>
       <c r="AZ351" s="1"/>
     </row>
-    <row r="352" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:52" ht="15.75" customHeight="1">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -20372,7 +20389,7 @@
       <c r="AY352" s="1"/>
       <c r="AZ352" s="1"/>
     </row>
-    <row r="353" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:52" ht="15.75" customHeight="1">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -20426,7 +20443,7 @@
       <c r="AY353" s="1"/>
       <c r="AZ353" s="1"/>
     </row>
-    <row r="354" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:52" ht="15.75" customHeight="1">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -20480,7 +20497,7 @@
       <c r="AY354" s="1"/>
       <c r="AZ354" s="1"/>
     </row>
-    <row r="355" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:52" ht="15.75" customHeight="1">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -20534,7 +20551,7 @@
       <c r="AY355" s="1"/>
       <c r="AZ355" s="1"/>
     </row>
-    <row r="356" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:52" ht="15.75" customHeight="1">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -20588,7 +20605,7 @@
       <c r="AY356" s="1"/>
       <c r="AZ356" s="1"/>
     </row>
-    <row r="357" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:52" ht="15.75" customHeight="1">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -20642,7 +20659,7 @@
       <c r="AY357" s="1"/>
       <c r="AZ357" s="1"/>
     </row>
-    <row r="358" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:52" ht="15.75" customHeight="1">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -20696,7 +20713,7 @@
       <c r="AY358" s="1"/>
       <c r="AZ358" s="1"/>
     </row>
-    <row r="359" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:52" ht="15.75" customHeight="1">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -20750,7 +20767,7 @@
       <c r="AY359" s="1"/>
       <c r="AZ359" s="1"/>
     </row>
-    <row r="360" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:52" ht="15.75" customHeight="1">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -20804,7 +20821,7 @@
       <c r="AY360" s="1"/>
       <c r="AZ360" s="1"/>
     </row>
-    <row r="361" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:52" ht="15.75" customHeight="1">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -20858,7 +20875,7 @@
       <c r="AY361" s="1"/>
       <c r="AZ361" s="1"/>
     </row>
-    <row r="362" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:52" ht="15.75" customHeight="1">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -20912,7 +20929,7 @@
       <c r="AY362" s="1"/>
       <c r="AZ362" s="1"/>
     </row>
-    <row r="363" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:52" ht="15.75" customHeight="1">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -20966,7 +20983,7 @@
       <c r="AY363" s="1"/>
       <c r="AZ363" s="1"/>
     </row>
-    <row r="364" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:52" ht="15.75" customHeight="1">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -21020,7 +21037,7 @@
       <c r="AY364" s="1"/>
       <c r="AZ364" s="1"/>
     </row>
-    <row r="365" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:52" ht="15.75" customHeight="1">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -21074,7 +21091,7 @@
       <c r="AY365" s="1"/>
       <c r="AZ365" s="1"/>
     </row>
-    <row r="366" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:52" ht="15.75" customHeight="1">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -21128,7 +21145,7 @@
       <c r="AY366" s="1"/>
       <c r="AZ366" s="1"/>
     </row>
-    <row r="367" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:52" ht="15.75" customHeight="1">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -21182,7 +21199,7 @@
       <c r="AY367" s="1"/>
       <c r="AZ367" s="1"/>
     </row>
-    <row r="368" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:52" ht="15.75" customHeight="1">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -21236,7 +21253,7 @@
       <c r="AY368" s="1"/>
       <c r="AZ368" s="1"/>
     </row>
-    <row r="369" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:52" ht="15.75" customHeight="1">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -21290,7 +21307,7 @@
       <c r="AY369" s="1"/>
       <c r="AZ369" s="1"/>
     </row>
-    <row r="370" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:52" ht="15.75" customHeight="1">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -21344,7 +21361,7 @@
       <c r="AY370" s="1"/>
       <c r="AZ370" s="1"/>
     </row>
-    <row r="371" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:52" ht="15.75" customHeight="1">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -21398,7 +21415,7 @@
       <c r="AY371" s="1"/>
       <c r="AZ371" s="1"/>
     </row>
-    <row r="372" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:52" ht="15.75" customHeight="1">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -21452,7 +21469,7 @@
       <c r="AY372" s="1"/>
       <c r="AZ372" s="1"/>
     </row>
-    <row r="373" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:52" ht="15.75" customHeight="1">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -21506,7 +21523,7 @@
       <c r="AY373" s="1"/>
       <c r="AZ373" s="1"/>
     </row>
-    <row r="374" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:52" ht="15.75" customHeight="1">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -21560,7 +21577,7 @@
       <c r="AY374" s="1"/>
       <c r="AZ374" s="1"/>
     </row>
-    <row r="375" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:52" ht="15.75" customHeight="1">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -21614,7 +21631,7 @@
       <c r="AY375" s="1"/>
       <c r="AZ375" s="1"/>
     </row>
-    <row r="376" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:52" ht="15.75" customHeight="1">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -21668,7 +21685,7 @@
       <c r="AY376" s="1"/>
       <c r="AZ376" s="1"/>
     </row>
-    <row r="377" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:52" ht="15.75" customHeight="1">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -21722,7 +21739,7 @@
       <c r="AY377" s="1"/>
       <c r="AZ377" s="1"/>
     </row>
-    <row r="378" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:52" ht="15.75" customHeight="1">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -21776,7 +21793,7 @@
       <c r="AY378" s="1"/>
       <c r="AZ378" s="1"/>
     </row>
-    <row r="379" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:52" ht="15.75" customHeight="1">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -21830,7 +21847,7 @@
       <c r="AY379" s="1"/>
       <c r="AZ379" s="1"/>
     </row>
-    <row r="380" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:52" ht="15.75" customHeight="1">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -21884,7 +21901,7 @@
       <c r="AY380" s="1"/>
       <c r="AZ380" s="1"/>
     </row>
-    <row r="381" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:52" ht="15.75" customHeight="1">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -21938,7 +21955,7 @@
       <c r="AY381" s="1"/>
       <c r="AZ381" s="1"/>
     </row>
-    <row r="382" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:52" ht="15.75" customHeight="1">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -21992,7 +22009,7 @@
       <c r="AY382" s="1"/>
       <c r="AZ382" s="1"/>
     </row>
-    <row r="383" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:52" ht="15.75" customHeight="1">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -22046,7 +22063,7 @@
       <c r="AY383" s="1"/>
       <c r="AZ383" s="1"/>
     </row>
-    <row r="384" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:52" ht="15.75" customHeight="1">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -22100,7 +22117,7 @@
       <c r="AY384" s="1"/>
       <c r="AZ384" s="1"/>
     </row>
-    <row r="385" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:52" ht="15.75" customHeight="1">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -22154,7 +22171,7 @@
       <c r="AY385" s="1"/>
       <c r="AZ385" s="1"/>
     </row>
-    <row r="386" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:52" ht="15.75" customHeight="1">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -22208,7 +22225,7 @@
       <c r="AY386" s="1"/>
       <c r="AZ386" s="1"/>
     </row>
-    <row r="387" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:52" ht="15.75" customHeight="1">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -22262,7 +22279,7 @@
       <c r="AY387" s="1"/>
       <c r="AZ387" s="1"/>
     </row>
-    <row r="388" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:52" ht="15.75" customHeight="1">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -22316,7 +22333,7 @@
       <c r="AY388" s="1"/>
       <c r="AZ388" s="1"/>
     </row>
-    <row r="389" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:52" ht="15.75" customHeight="1">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -22370,7 +22387,7 @@
       <c r="AY389" s="1"/>
       <c r="AZ389" s="1"/>
     </row>
-    <row r="390" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:52" ht="15.75" customHeight="1">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -22424,7 +22441,7 @@
       <c r="AY390" s="1"/>
       <c r="AZ390" s="1"/>
     </row>
-    <row r="391" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:52" ht="15.75" customHeight="1">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -22478,7 +22495,7 @@
       <c r="AY391" s="1"/>
       <c r="AZ391" s="1"/>
     </row>
-    <row r="392" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:52" ht="15.75" customHeight="1">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -22532,7 +22549,7 @@
       <c r="AY392" s="1"/>
       <c r="AZ392" s="1"/>
     </row>
-    <row r="393" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:52" ht="15.75" customHeight="1">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -22586,7 +22603,7 @@
       <c r="AY393" s="1"/>
       <c r="AZ393" s="1"/>
     </row>
-    <row r="394" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:52" ht="15.75" customHeight="1">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -22640,7 +22657,7 @@
       <c r="AY394" s="1"/>
       <c r="AZ394" s="1"/>
     </row>
-    <row r="395" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:52" ht="15.75" customHeight="1">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -22694,7 +22711,7 @@
       <c r="AY395" s="1"/>
       <c r="AZ395" s="1"/>
     </row>
-    <row r="396" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:52" ht="15.75" customHeight="1">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -22748,7 +22765,7 @@
       <c r="AY396" s="1"/>
       <c r="AZ396" s="1"/>
     </row>
-    <row r="397" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:52" ht="15.75" customHeight="1">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -22802,7 +22819,7 @@
       <c r="AY397" s="1"/>
       <c r="AZ397" s="1"/>
     </row>
-    <row r="398" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:52" ht="15.75" customHeight="1">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -22856,7 +22873,7 @@
       <c r="AY398" s="1"/>
       <c r="AZ398" s="1"/>
     </row>
-    <row r="399" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:52" ht="15.75" customHeight="1">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -22910,7 +22927,7 @@
       <c r="AY399" s="1"/>
       <c r="AZ399" s="1"/>
     </row>
-    <row r="400" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:52" ht="15.75" customHeight="1">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -22964,7 +22981,7 @@
       <c r="AY400" s="1"/>
       <c r="AZ400" s="1"/>
     </row>
-    <row r="401" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:52" ht="15.75" customHeight="1">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -23018,7 +23035,7 @@
       <c r="AY401" s="1"/>
       <c r="AZ401" s="1"/>
     </row>
-    <row r="402" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:52" ht="15.75" customHeight="1">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -23072,7 +23089,7 @@
       <c r="AY402" s="1"/>
       <c r="AZ402" s="1"/>
     </row>
-    <row r="403" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:52" ht="15.75" customHeight="1">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -23126,7 +23143,7 @@
       <c r="AY403" s="1"/>
       <c r="AZ403" s="1"/>
     </row>
-    <row r="404" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:52" ht="15.75" customHeight="1">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -23180,7 +23197,7 @@
       <c r="AY404" s="1"/>
       <c r="AZ404" s="1"/>
     </row>
-    <row r="405" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:52" ht="15.75" customHeight="1">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -23234,7 +23251,7 @@
       <c r="AY405" s="1"/>
       <c r="AZ405" s="1"/>
     </row>
-    <row r="406" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:52" ht="15.75" customHeight="1">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -23288,7 +23305,7 @@
       <c r="AY406" s="1"/>
       <c r="AZ406" s="1"/>
     </row>
-    <row r="407" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:52" ht="15.75" customHeight="1">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -23342,7 +23359,7 @@
       <c r="AY407" s="1"/>
       <c r="AZ407" s="1"/>
     </row>
-    <row r="408" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:52" ht="15.75" customHeight="1">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -23396,7 +23413,7 @@
       <c r="AY408" s="1"/>
       <c r="AZ408" s="1"/>
     </row>
-    <row r="409" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:52" ht="15.75" customHeight="1">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -23450,7 +23467,7 @@
       <c r="AY409" s="1"/>
       <c r="AZ409" s="1"/>
     </row>
-    <row r="410" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:52" ht="15.75" customHeight="1">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -23504,7 +23521,7 @@
       <c r="AY410" s="1"/>
       <c r="AZ410" s="1"/>
     </row>
-    <row r="411" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:52" ht="15.75" customHeight="1">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -23558,7 +23575,7 @@
       <c r="AY411" s="1"/>
       <c r="AZ411" s="1"/>
     </row>
-    <row r="412" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:52" ht="15.75" customHeight="1">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -23612,7 +23629,7 @@
       <c r="AY412" s="1"/>
       <c r="AZ412" s="1"/>
     </row>
-    <row r="413" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:52" ht="15.75" customHeight="1">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -23666,7 +23683,7 @@
       <c r="AY413" s="1"/>
       <c r="AZ413" s="1"/>
     </row>
-    <row r="414" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:52" ht="15.75" customHeight="1">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -23720,7 +23737,7 @@
       <c r="AY414" s="1"/>
       <c r="AZ414" s="1"/>
     </row>
-    <row r="415" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:52" ht="15.75" customHeight="1">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -23774,7 +23791,7 @@
       <c r="AY415" s="1"/>
       <c r="AZ415" s="1"/>
     </row>
-    <row r="416" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:52" ht="15.75" customHeight="1">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -23828,7 +23845,7 @@
       <c r="AY416" s="1"/>
       <c r="AZ416" s="1"/>
     </row>
-    <row r="417" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:52" ht="15.75" customHeight="1">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -23882,7 +23899,7 @@
       <c r="AY417" s="1"/>
       <c r="AZ417" s="1"/>
     </row>
-    <row r="418" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:52" ht="15.75" customHeight="1">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -23936,7 +23953,7 @@
       <c r="AY418" s="1"/>
       <c r="AZ418" s="1"/>
     </row>
-    <row r="419" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:52" ht="15.75" customHeight="1">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -23990,7 +24007,7 @@
       <c r="AY419" s="1"/>
       <c r="AZ419" s="1"/>
     </row>
-    <row r="420" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:52" ht="15.75" customHeight="1">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -24044,7 +24061,7 @@
       <c r="AY420" s="1"/>
       <c r="AZ420" s="1"/>
     </row>
-    <row r="421" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:52" ht="15.75" customHeight="1">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -24098,7 +24115,7 @@
       <c r="AY421" s="1"/>
       <c r="AZ421" s="1"/>
     </row>
-    <row r="422" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:52" ht="15.75" customHeight="1">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -24152,7 +24169,7 @@
       <c r="AY422" s="1"/>
       <c r="AZ422" s="1"/>
     </row>
-    <row r="423" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:52" ht="15.75" customHeight="1">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -24206,7 +24223,7 @@
       <c r="AY423" s="1"/>
       <c r="AZ423" s="1"/>
     </row>
-    <row r="424" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:52" ht="15.75" customHeight="1">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -24260,7 +24277,7 @@
       <c r="AY424" s="1"/>
       <c r="AZ424" s="1"/>
     </row>
-    <row r="425" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:52" ht="15.75" customHeight="1">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -24314,7 +24331,7 @@
       <c r="AY425" s="1"/>
       <c r="AZ425" s="1"/>
     </row>
-    <row r="426" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:52" ht="15.75" customHeight="1">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -24368,7 +24385,7 @@
       <c r="AY426" s="1"/>
       <c r="AZ426" s="1"/>
     </row>
-    <row r="427" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:52" ht="15.75" customHeight="1">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -24422,7 +24439,7 @@
       <c r="AY427" s="1"/>
       <c r="AZ427" s="1"/>
     </row>
-    <row r="428" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:52" ht="15.75" customHeight="1">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -24476,7 +24493,7 @@
       <c r="AY428" s="1"/>
       <c r="AZ428" s="1"/>
     </row>
-    <row r="429" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:52" ht="15.75" customHeight="1">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -24530,7 +24547,7 @@
       <c r="AY429" s="1"/>
       <c r="AZ429" s="1"/>
     </row>
-    <row r="430" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:52" ht="15.75" customHeight="1">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -24584,7 +24601,7 @@
       <c r="AY430" s="1"/>
       <c r="AZ430" s="1"/>
     </row>
-    <row r="431" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:52" ht="15.75" customHeight="1">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -24638,7 +24655,7 @@
       <c r="AY431" s="1"/>
       <c r="AZ431" s="1"/>
     </row>
-    <row r="432" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:52" ht="15.75" customHeight="1">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -24692,7 +24709,7 @@
       <c r="AY432" s="1"/>
       <c r="AZ432" s="1"/>
     </row>
-    <row r="433" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:52" ht="15.75" customHeight="1">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -24746,7 +24763,7 @@
       <c r="AY433" s="1"/>
       <c r="AZ433" s="1"/>
     </row>
-    <row r="434" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:52" ht="15.75" customHeight="1">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -24800,7 +24817,7 @@
       <c r="AY434" s="1"/>
       <c r="AZ434" s="1"/>
     </row>
-    <row r="435" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:52" ht="15.75" customHeight="1">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -24854,7 +24871,7 @@
       <c r="AY435" s="1"/>
       <c r="AZ435" s="1"/>
     </row>
-    <row r="436" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:52" ht="15.75" customHeight="1">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -24908,7 +24925,7 @@
       <c r="AY436" s="1"/>
       <c r="AZ436" s="1"/>
     </row>
-    <row r="437" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:52" ht="15.75" customHeight="1">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -24962,7 +24979,7 @@
       <c r="AY437" s="1"/>
       <c r="AZ437" s="1"/>
     </row>
-    <row r="438" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:52" ht="15.75" customHeight="1">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -25016,7 +25033,7 @@
       <c r="AY438" s="1"/>
       <c r="AZ438" s="1"/>
     </row>
-    <row r="439" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:52" ht="15.75" customHeight="1">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -25070,7 +25087,7 @@
       <c r="AY439" s="1"/>
       <c r="AZ439" s="1"/>
     </row>
-    <row r="440" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:52" ht="15.75" customHeight="1">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -25124,7 +25141,7 @@
       <c r="AY440" s="1"/>
       <c r="AZ440" s="1"/>
     </row>
-    <row r="441" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:52" ht="15.75" customHeight="1">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -25178,7 +25195,7 @@
       <c r="AY441" s="1"/>
       <c r="AZ441" s="1"/>
     </row>
-    <row r="442" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:52" ht="15.75" customHeight="1">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -25232,7 +25249,7 @@
       <c r="AY442" s="1"/>
       <c r="AZ442" s="1"/>
     </row>
-    <row r="443" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:52" ht="15.75" customHeight="1">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -25286,7 +25303,7 @@
       <c r="AY443" s="1"/>
       <c r="AZ443" s="1"/>
     </row>
-    <row r="444" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:52" ht="15.75" customHeight="1">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -25340,7 +25357,7 @@
       <c r="AY444" s="1"/>
       <c r="AZ444" s="1"/>
     </row>
-    <row r="445" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:52" ht="15.75" customHeight="1">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -25394,7 +25411,7 @@
       <c r="AY445" s="1"/>
       <c r="AZ445" s="1"/>
     </row>
-    <row r="446" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:52" ht="15.75" customHeight="1">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -25448,7 +25465,7 @@
       <c r="AY446" s="1"/>
       <c r="AZ446" s="1"/>
     </row>
-    <row r="447" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:52" ht="15.75" customHeight="1">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -25502,7 +25519,7 @@
       <c r="AY447" s="1"/>
       <c r="AZ447" s="1"/>
     </row>
-    <row r="448" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:52" ht="15.75" customHeight="1">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -25556,7 +25573,7 @@
       <c r="AY448" s="1"/>
       <c r="AZ448" s="1"/>
     </row>
-    <row r="449" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:52" ht="15.75" customHeight="1">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -25610,7 +25627,7 @@
       <c r="AY449" s="1"/>
       <c r="AZ449" s="1"/>
     </row>
-    <row r="450" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:52" ht="15.75" customHeight="1">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -25664,7 +25681,7 @@
       <c r="AY450" s="1"/>
       <c r="AZ450" s="1"/>
     </row>
-    <row r="451" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:52" ht="15.75" customHeight="1">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -25718,7 +25735,7 @@
       <c r="AY451" s="1"/>
       <c r="AZ451" s="1"/>
     </row>
-    <row r="452" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:52" ht="15.75" customHeight="1">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -25772,7 +25789,7 @@
       <c r="AY452" s="1"/>
       <c r="AZ452" s="1"/>
     </row>
-    <row r="453" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:52" ht="15.75" customHeight="1">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -25826,7 +25843,7 @@
       <c r="AY453" s="1"/>
       <c r="AZ453" s="1"/>
     </row>
-    <row r="454" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:52" ht="15.75" customHeight="1">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -25880,7 +25897,7 @@
       <c r="AY454" s="1"/>
       <c r="AZ454" s="1"/>
     </row>
-    <row r="455" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:52" ht="15.75" customHeight="1">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -25934,7 +25951,7 @@
       <c r="AY455" s="1"/>
       <c r="AZ455" s="1"/>
     </row>
-    <row r="456" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:52" ht="15.75" customHeight="1">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -25988,7 +26005,7 @@
       <c r="AY456" s="1"/>
       <c r="AZ456" s="1"/>
     </row>
-    <row r="457" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:52" ht="15.75" customHeight="1">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -26042,7 +26059,7 @@
       <c r="AY457" s="1"/>
       <c r="AZ457" s="1"/>
     </row>
-    <row r="458" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:52" ht="15.75" customHeight="1">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -26096,7 +26113,7 @@
       <c r="AY458" s="1"/>
       <c r="AZ458" s="1"/>
     </row>
-    <row r="459" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:52" ht="15.75" customHeight="1">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -26150,7 +26167,7 @@
       <c r="AY459" s="1"/>
       <c r="AZ459" s="1"/>
     </row>
-    <row r="460" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:52" ht="15.75" customHeight="1">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -26204,7 +26221,7 @@
       <c r="AY460" s="1"/>
       <c r="AZ460" s="1"/>
     </row>
-    <row r="461" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:52" ht="15.75" customHeight="1">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -26258,7 +26275,7 @@
       <c r="AY461" s="1"/>
       <c r="AZ461" s="1"/>
     </row>
-    <row r="462" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:52" ht="15.75" customHeight="1">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -26312,7 +26329,7 @@
       <c r="AY462" s="1"/>
       <c r="AZ462" s="1"/>
     </row>
-    <row r="463" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:52" ht="15.75" customHeight="1">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -26366,7 +26383,7 @@
       <c r="AY463" s="1"/>
       <c r="AZ463" s="1"/>
     </row>
-    <row r="464" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:52" ht="15.75" customHeight="1">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -26420,7 +26437,7 @@
       <c r="AY464" s="1"/>
       <c r="AZ464" s="1"/>
     </row>
-    <row r="465" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:52" ht="15.75" customHeight="1">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -26474,7 +26491,7 @@
       <c r="AY465" s="1"/>
       <c r="AZ465" s="1"/>
     </row>
-    <row r="466" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:52" ht="15.75" customHeight="1">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -26528,7 +26545,7 @@
       <c r="AY466" s="1"/>
       <c r="AZ466" s="1"/>
     </row>
-    <row r="467" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:52" ht="15.75" customHeight="1">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -26582,7 +26599,7 @@
       <c r="AY467" s="1"/>
       <c r="AZ467" s="1"/>
     </row>
-    <row r="468" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:52" ht="15.75" customHeight="1">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -26636,7 +26653,7 @@
       <c r="AY468" s="1"/>
       <c r="AZ468" s="1"/>
     </row>
-    <row r="469" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:52" ht="15.75" customHeight="1">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -26690,7 +26707,7 @@
       <c r="AY469" s="1"/>
       <c r="AZ469" s="1"/>
     </row>
-    <row r="470" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:52" ht="15.75" customHeight="1">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -26744,7 +26761,7 @@
       <c r="AY470" s="1"/>
       <c r="AZ470" s="1"/>
     </row>
-    <row r="471" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:52" ht="15.75" customHeight="1">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -26798,7 +26815,7 @@
       <c r="AY471" s="1"/>
       <c r="AZ471" s="1"/>
     </row>
-    <row r="472" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:52" ht="15.75" customHeight="1">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -26852,7 +26869,7 @@
       <c r="AY472" s="1"/>
       <c r="AZ472" s="1"/>
     </row>
-    <row r="473" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:52" ht="15.75" customHeight="1">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -26906,7 +26923,7 @@
       <c r="AY473" s="1"/>
       <c r="AZ473" s="1"/>
     </row>
-    <row r="474" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:52" ht="15.75" customHeight="1">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -26960,7 +26977,7 @@
       <c r="AY474" s="1"/>
       <c r="AZ474" s="1"/>
     </row>
-    <row r="475" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:52" ht="15.75" customHeight="1">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -27014,7 +27031,7 @@
       <c r="AY475" s="1"/>
       <c r="AZ475" s="1"/>
     </row>
-    <row r="476" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:52" ht="15.75" customHeight="1">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -27068,7 +27085,7 @@
       <c r="AY476" s="1"/>
       <c r="AZ476" s="1"/>
     </row>
-    <row r="477" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:52" ht="15.75" customHeight="1">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -27122,7 +27139,7 @@
       <c r="AY477" s="1"/>
       <c r="AZ477" s="1"/>
     </row>
-    <row r="478" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:52" ht="15.75" customHeight="1">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -27176,7 +27193,7 @@
       <c r="AY478" s="1"/>
       <c r="AZ478" s="1"/>
     </row>
-    <row r="479" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:52" ht="15.75" customHeight="1">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -27230,7 +27247,7 @@
       <c r="AY479" s="1"/>
       <c r="AZ479" s="1"/>
     </row>
-    <row r="480" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:52" ht="15.75" customHeight="1">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -27284,7 +27301,7 @@
       <c r="AY480" s="1"/>
       <c r="AZ480" s="1"/>
     </row>
-    <row r="481" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:52" ht="15.75" customHeight="1">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -27338,7 +27355,7 @@
       <c r="AY481" s="1"/>
       <c r="AZ481" s="1"/>
     </row>
-    <row r="482" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:52" ht="15.75" customHeight="1">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -27392,7 +27409,7 @@
       <c r="AY482" s="1"/>
       <c r="AZ482" s="1"/>
     </row>
-    <row r="483" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:52" ht="15.75" customHeight="1">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -27446,7 +27463,7 @@
       <c r="AY483" s="1"/>
       <c r="AZ483" s="1"/>
     </row>
-    <row r="484" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:52" ht="15.75" customHeight="1">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -27500,7 +27517,7 @@
       <c r="AY484" s="1"/>
       <c r="AZ484" s="1"/>
     </row>
-    <row r="485" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:52" ht="15.75" customHeight="1">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -27554,7 +27571,7 @@
       <c r="AY485" s="1"/>
       <c r="AZ485" s="1"/>
     </row>
-    <row r="486" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:52" ht="15.75" customHeight="1">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -27608,7 +27625,7 @@
       <c r="AY486" s="1"/>
       <c r="AZ486" s="1"/>
     </row>
-    <row r="487" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:52" ht="15.75" customHeight="1">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -27662,7 +27679,7 @@
       <c r="AY487" s="1"/>
       <c r="AZ487" s="1"/>
     </row>
-    <row r="488" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:52" ht="15.75" customHeight="1">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -27716,7 +27733,7 @@
       <c r="AY488" s="1"/>
       <c r="AZ488" s="1"/>
     </row>
-    <row r="489" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:52" ht="15.75" customHeight="1">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -27770,7 +27787,7 @@
       <c r="AY489" s="1"/>
       <c r="AZ489" s="1"/>
     </row>
-    <row r="490" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:52" ht="15.75" customHeight="1">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -27824,7 +27841,7 @@
       <c r="AY490" s="1"/>
       <c r="AZ490" s="1"/>
     </row>
-    <row r="491" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:52" ht="15.75" customHeight="1">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -27878,7 +27895,7 @@
       <c r="AY491" s="1"/>
       <c r="AZ491" s="1"/>
     </row>
-    <row r="492" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:52" ht="15.75" customHeight="1">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -27932,7 +27949,7 @@
       <c r="AY492" s="1"/>
       <c r="AZ492" s="1"/>
     </row>
-    <row r="493" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:52" ht="15.75" customHeight="1">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -27986,7 +28003,7 @@
       <c r="AY493" s="1"/>
       <c r="AZ493" s="1"/>
     </row>
-    <row r="494" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:52" ht="15.75" customHeight="1">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -28040,7 +28057,7 @@
       <c r="AY494" s="1"/>
       <c r="AZ494" s="1"/>
     </row>
-    <row r="495" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:52" ht="15.75" customHeight="1">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -28094,7 +28111,7 @@
       <c r="AY495" s="1"/>
       <c r="AZ495" s="1"/>
     </row>
-    <row r="496" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:52" ht="15.75" customHeight="1">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -28148,7 +28165,7 @@
       <c r="AY496" s="1"/>
       <c r="AZ496" s="1"/>
     </row>
-    <row r="497" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:52" ht="15.75" customHeight="1">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -28202,7 +28219,7 @@
       <c r="AY497" s="1"/>
       <c r="AZ497" s="1"/>
     </row>
-    <row r="498" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:52" ht="15.75" customHeight="1">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -28256,7 +28273,7 @@
       <c r="AY498" s="1"/>
       <c r="AZ498" s="1"/>
     </row>
-    <row r="499" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:52" ht="15.75" customHeight="1">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -28310,7 +28327,7 @@
       <c r="AY499" s="1"/>
       <c r="AZ499" s="1"/>
     </row>
-    <row r="500" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:52" ht="15.75" customHeight="1">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -28364,7 +28381,7 @@
       <c r="AY500" s="1"/>
       <c r="AZ500" s="1"/>
     </row>
-    <row r="501" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:52" ht="15.75" customHeight="1">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -28418,7 +28435,7 @@
       <c r="AY501" s="1"/>
       <c r="AZ501" s="1"/>
     </row>
-    <row r="502" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:52" ht="15.75" customHeight="1">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -28472,7 +28489,7 @@
       <c r="AY502" s="1"/>
       <c r="AZ502" s="1"/>
     </row>
-    <row r="503" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:52" ht="15.75" customHeight="1">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -28526,7 +28543,7 @@
       <c r="AY503" s="1"/>
       <c r="AZ503" s="1"/>
     </row>
-    <row r="504" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:52" ht="15.75" customHeight="1">
       <c r="A504" s="1"/>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -28580,7 +28597,7 @@
       <c r="AY504" s="1"/>
       <c r="AZ504" s="1"/>
     </row>
-    <row r="505" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:52" ht="15.75" customHeight="1">
       <c r="A505" s="1"/>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -28634,7 +28651,7 @@
       <c r="AY505" s="1"/>
       <c r="AZ505" s="1"/>
     </row>
-    <row r="506" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:52" ht="15.75" customHeight="1">
       <c r="A506" s="1"/>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
@@ -28688,7 +28705,7 @@
       <c r="AY506" s="1"/>
       <c r="AZ506" s="1"/>
     </row>
-    <row r="507" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:52" ht="15.75" customHeight="1">
       <c r="A507" s="1"/>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -28742,7 +28759,7 @@
       <c r="AY507" s="1"/>
       <c r="AZ507" s="1"/>
     </row>
-    <row r="508" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:52" ht="15.75" customHeight="1">
       <c r="A508" s="1"/>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -28796,7 +28813,7 @@
       <c r="AY508" s="1"/>
       <c r="AZ508" s="1"/>
     </row>
-    <row r="509" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:52" ht="15.75" customHeight="1">
       <c r="A509" s="1"/>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -28850,7 +28867,7 @@
       <c r="AY509" s="1"/>
       <c r="AZ509" s="1"/>
     </row>
-    <row r="510" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:52" ht="15.75" customHeight="1">
       <c r="A510" s="1"/>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -28904,7 +28921,7 @@
       <c r="AY510" s="1"/>
       <c r="AZ510" s="1"/>
     </row>
-    <row r="511" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:52" ht="15.75" customHeight="1">
       <c r="A511" s="1"/>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -28958,7 +28975,7 @@
       <c r="AY511" s="1"/>
       <c r="AZ511" s="1"/>
     </row>
-    <row r="512" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:52" ht="15.75" customHeight="1">
       <c r="A512" s="1"/>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
@@ -29012,7 +29029,7 @@
       <c r="AY512" s="1"/>
       <c r="AZ512" s="1"/>
     </row>
-    <row r="513" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:52" ht="15.75" customHeight="1">
       <c r="A513" s="1"/>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -29066,7 +29083,7 @@
       <c r="AY513" s="1"/>
       <c r="AZ513" s="1"/>
     </row>
-    <row r="514" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:52" ht="15.75" customHeight="1">
       <c r="A514" s="1"/>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
@@ -29120,7 +29137,7 @@
       <c r="AY514" s="1"/>
       <c r="AZ514" s="1"/>
     </row>
-    <row r="515" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:52" ht="15.75" customHeight="1">
       <c r="A515" s="1"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
@@ -29174,7 +29191,7 @@
       <c r="AY515" s="1"/>
       <c r="AZ515" s="1"/>
     </row>
-    <row r="516" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:52" ht="15.75" customHeight="1">
       <c r="A516" s="1"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
@@ -29228,7 +29245,7 @@
       <c r="AY516" s="1"/>
       <c r="AZ516" s="1"/>
     </row>
-    <row r="517" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:52" ht="15.75" customHeight="1">
       <c r="A517" s="1"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
@@ -29282,7 +29299,7 @@
       <c r="AY517" s="1"/>
       <c r="AZ517" s="1"/>
     </row>
-    <row r="518" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:52" ht="15.75" customHeight="1">
       <c r="A518" s="1"/>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
@@ -29336,7 +29353,7 @@
       <c r="AY518" s="1"/>
       <c r="AZ518" s="1"/>
     </row>
-    <row r="519" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:52" ht="15.75" customHeight="1">
       <c r="A519" s="1"/>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
@@ -29390,7 +29407,7 @@
       <c r="AY519" s="1"/>
       <c r="AZ519" s="1"/>
     </row>
-    <row r="520" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:52" ht="15.75" customHeight="1">
       <c r="A520" s="1"/>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
@@ -29444,7 +29461,7 @@
       <c r="AY520" s="1"/>
       <c r="AZ520" s="1"/>
     </row>
-    <row r="521" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:52" ht="15.75" customHeight="1">
       <c r="A521" s="1"/>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
@@ -29498,7 +29515,7 @@
       <c r="AY521" s="1"/>
       <c r="AZ521" s="1"/>
     </row>
-    <row r="522" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:52" ht="15.75" customHeight="1">
       <c r="A522" s="1"/>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
@@ -29552,7 +29569,7 @@
       <c r="AY522" s="1"/>
       <c r="AZ522" s="1"/>
     </row>
-    <row r="523" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:52" ht="15.75" customHeight="1">
       <c r="A523" s="1"/>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
@@ -29606,7 +29623,7 @@
       <c r="AY523" s="1"/>
       <c r="AZ523" s="1"/>
     </row>
-    <row r="524" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:52" ht="15.75" customHeight="1">
       <c r="A524" s="1"/>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
@@ -29660,7 +29677,7 @@
       <c r="AY524" s="1"/>
       <c r="AZ524" s="1"/>
     </row>
-    <row r="525" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:52" ht="15.75" customHeight="1">
       <c r="A525" s="1"/>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
@@ -29714,7 +29731,7 @@
       <c r="AY525" s="1"/>
       <c r="AZ525" s="1"/>
     </row>
-    <row r="526" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:52" ht="15.75" customHeight="1">
       <c r="A526" s="1"/>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
@@ -29768,7 +29785,7 @@
       <c r="AY526" s="1"/>
       <c r="AZ526" s="1"/>
     </row>
-    <row r="527" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:52" ht="15.75" customHeight="1">
       <c r="A527" s="1"/>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
@@ -29822,7 +29839,7 @@
       <c r="AY527" s="1"/>
       <c r="AZ527" s="1"/>
     </row>
-    <row r="528" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:52" ht="15.75" customHeight="1">
       <c r="A528" s="1"/>
       <c r="B528" s="1"/>
       <c r="C528" s="1"/>
@@ -29876,7 +29893,7 @@
       <c r="AY528" s="1"/>
       <c r="AZ528" s="1"/>
     </row>
-    <row r="529" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:52" ht="15.75" customHeight="1">
       <c r="A529" s="1"/>
       <c r="B529" s="1"/>
       <c r="C529" s="1"/>
@@ -29930,7 +29947,7 @@
       <c r="AY529" s="1"/>
       <c r="AZ529" s="1"/>
     </row>
-    <row r="530" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:52" ht="15.75" customHeight="1">
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="1"/>
@@ -29984,7 +30001,7 @@
       <c r="AY530" s="1"/>
       <c r="AZ530" s="1"/>
     </row>
-    <row r="531" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:52" ht="15.75" customHeight="1">
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="1"/>
@@ -30038,7 +30055,7 @@
       <c r="AY531" s="1"/>
       <c r="AZ531" s="1"/>
     </row>
-    <row r="532" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:52" ht="15.75" customHeight="1">
       <c r="A532" s="1"/>
       <c r="B532" s="1"/>
       <c r="C532" s="1"/>
@@ -30092,7 +30109,7 @@
       <c r="AY532" s="1"/>
       <c r="AZ532" s="1"/>
     </row>
-    <row r="533" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:52" ht="15.75" customHeight="1">
       <c r="A533" s="1"/>
       <c r="B533" s="1"/>
       <c r="C533" s="1"/>
@@ -30146,7 +30163,7 @@
       <c r="AY533" s="1"/>
       <c r="AZ533" s="1"/>
     </row>
-    <row r="534" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:52" ht="15.75" customHeight="1">
       <c r="A534" s="1"/>
       <c r="B534" s="1"/>
       <c r="C534" s="1"/>
@@ -30200,7 +30217,7 @@
       <c r="AY534" s="1"/>
       <c r="AZ534" s="1"/>
     </row>
-    <row r="535" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:52" ht="15.75" customHeight="1">
       <c r="A535" s="1"/>
       <c r="B535" s="1"/>
       <c r="C535" s="1"/>
@@ -30254,7 +30271,7 @@
       <c r="AY535" s="1"/>
       <c r="AZ535" s="1"/>
     </row>
-    <row r="536" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:52" ht="15.75" customHeight="1">
       <c r="A536" s="1"/>
       <c r="B536" s="1"/>
       <c r="C536" s="1"/>
@@ -30308,7 +30325,7 @@
       <c r="AY536" s="1"/>
       <c r="AZ536" s="1"/>
     </row>
-    <row r="537" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:52" ht="15.75" customHeight="1">
       <c r="A537" s="1"/>
       <c r="B537" s="1"/>
       <c r="C537" s="1"/>
@@ -30362,7 +30379,7 @@
       <c r="AY537" s="1"/>
       <c r="AZ537" s="1"/>
     </row>
-    <row r="538" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:52" ht="15.75" customHeight="1">
       <c r="A538" s="1"/>
       <c r="B538" s="1"/>
       <c r="C538" s="1"/>
@@ -30416,7 +30433,7 @@
       <c r="AY538" s="1"/>
       <c r="AZ538" s="1"/>
     </row>
-    <row r="539" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:52" ht="15.75" customHeight="1">
       <c r="A539" s="1"/>
       <c r="B539" s="1"/>
       <c r="C539" s="1"/>
@@ -30470,7 +30487,7 @@
       <c r="AY539" s="1"/>
       <c r="AZ539" s="1"/>
     </row>
-    <row r="540" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:52" ht="15.75" customHeight="1">
       <c r="A540" s="1"/>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -30524,7 +30541,7 @@
       <c r="AY540" s="1"/>
       <c r="AZ540" s="1"/>
     </row>
-    <row r="541" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:52" ht="15.75" customHeight="1">
       <c r="A541" s="1"/>
       <c r="B541" s="1"/>
       <c r="C541" s="1"/>
@@ -30578,7 +30595,7 @@
       <c r="AY541" s="1"/>
       <c r="AZ541" s="1"/>
     </row>
-    <row r="542" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:52" ht="15.75" customHeight="1">
       <c r="A542" s="1"/>
       <c r="B542" s="1"/>
       <c r="C542" s="1"/>
@@ -30632,7 +30649,7 @@
       <c r="AY542" s="1"/>
       <c r="AZ542" s="1"/>
     </row>
-    <row r="543" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:52" ht="15.75" customHeight="1">
       <c r="A543" s="1"/>
       <c r="B543" s="1"/>
       <c r="C543" s="1"/>
@@ -30686,7 +30703,7 @@
       <c r="AY543" s="1"/>
       <c r="AZ543" s="1"/>
     </row>
-    <row r="544" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:52" ht="15.75" customHeight="1">
       <c r="A544" s="1"/>
       <c r="B544" s="1"/>
       <c r="C544" s="1"/>
@@ -30740,7 +30757,7 @@
       <c r="AY544" s="1"/>
       <c r="AZ544" s="1"/>
     </row>
-    <row r="545" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:52" ht="15.75" customHeight="1">
       <c r="A545" s="1"/>
       <c r="B545" s="1"/>
       <c r="C545" s="1"/>
@@ -30794,7 +30811,7 @@
       <c r="AY545" s="1"/>
       <c r="AZ545" s="1"/>
     </row>
-    <row r="546" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:52" ht="15.75" customHeight="1">
       <c r="A546" s="1"/>
       <c r="B546" s="1"/>
       <c r="C546" s="1"/>
@@ -30848,7 +30865,7 @@
       <c r="AY546" s="1"/>
       <c r="AZ546" s="1"/>
     </row>
-    <row r="547" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:52" ht="15.75" customHeight="1">
       <c r="A547" s="1"/>
       <c r="B547" s="1"/>
       <c r="C547" s="1"/>
@@ -30902,7 +30919,7 @@
       <c r="AY547" s="1"/>
       <c r="AZ547" s="1"/>
     </row>
-    <row r="548" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:52" ht="15.75" customHeight="1">
       <c r="A548" s="1"/>
       <c r="B548" s="1"/>
       <c r="C548" s="1"/>
@@ -30956,7 +30973,7 @@
       <c r="AY548" s="1"/>
       <c r="AZ548" s="1"/>
     </row>
-    <row r="549" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:52" ht="15.75" customHeight="1">
       <c r="A549" s="1"/>
       <c r="B549" s="1"/>
       <c r="C549" s="1"/>
@@ -31010,7 +31027,7 @@
       <c r="AY549" s="1"/>
       <c r="AZ549" s="1"/>
     </row>
-    <row r="550" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:52" ht="15.75" customHeight="1">
       <c r="A550" s="1"/>
       <c r="B550" s="1"/>
       <c r="C550" s="1"/>
@@ -31064,7 +31081,7 @@
       <c r="AY550" s="1"/>
       <c r="AZ550" s="1"/>
     </row>
-    <row r="551" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:52" ht="15.75" customHeight="1">
       <c r="A551" s="1"/>
       <c r="B551" s="1"/>
       <c r="C551" s="1"/>
@@ -31118,7 +31135,7 @@
       <c r="AY551" s="1"/>
       <c r="AZ551" s="1"/>
     </row>
-    <row r="552" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:52" ht="15.75" customHeight="1">
       <c r="A552" s="1"/>
       <c r="B552" s="1"/>
       <c r="C552" s="1"/>
@@ -31172,7 +31189,7 @@
       <c r="AY552" s="1"/>
       <c r="AZ552" s="1"/>
     </row>
-    <row r="553" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:52" ht="15.75" customHeight="1">
       <c r="A553" s="1"/>
       <c r="B553" s="1"/>
       <c r="C553" s="1"/>
@@ -31226,7 +31243,7 @@
       <c r="AY553" s="1"/>
       <c r="AZ553" s="1"/>
     </row>
-    <row r="554" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:52" ht="15.75" customHeight="1">
       <c r="A554" s="1"/>
       <c r="B554" s="1"/>
       <c r="C554" s="1"/>
@@ -31280,7 +31297,7 @@
       <c r="AY554" s="1"/>
       <c r="AZ554" s="1"/>
     </row>
-    <row r="555" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:52" ht="15.75" customHeight="1">
       <c r="A555" s="1"/>
       <c r="B555" s="1"/>
       <c r="C555" s="1"/>
@@ -31334,7 +31351,7 @@
       <c r="AY555" s="1"/>
       <c r="AZ555" s="1"/>
     </row>
-    <row r="556" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:52" ht="15.75" customHeight="1">
       <c r="A556" s="1"/>
       <c r="B556" s="1"/>
       <c r="C556" s="1"/>
@@ -31388,7 +31405,7 @@
       <c r="AY556" s="1"/>
       <c r="AZ556" s="1"/>
     </row>
-    <row r="557" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:52" ht="15.75" customHeight="1">
       <c r="A557" s="1"/>
       <c r="B557" s="1"/>
       <c r="C557" s="1"/>
@@ -31442,7 +31459,7 @@
       <c r="AY557" s="1"/>
       <c r="AZ557" s="1"/>
     </row>
-    <row r="558" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:52" ht="15.75" customHeight="1">
       <c r="A558" s="1"/>
       <c r="B558" s="1"/>
       <c r="C558" s="1"/>
@@ -31496,7 +31513,7 @@
       <c r="AY558" s="1"/>
       <c r="AZ558" s="1"/>
     </row>
-    <row r="559" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:52" ht="15.75" customHeight="1">
       <c r="A559" s="1"/>
       <c r="B559" s="1"/>
       <c r="C559" s="1"/>
@@ -31550,7 +31567,7 @@
       <c r="AY559" s="1"/>
       <c r="AZ559" s="1"/>
     </row>
-    <row r="560" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:52" ht="15.75" customHeight="1">
       <c r="A560" s="1"/>
       <c r="B560" s="1"/>
       <c r="C560" s="1"/>
@@ -31604,7 +31621,7 @@
       <c r="AY560" s="1"/>
       <c r="AZ560" s="1"/>
     </row>
-    <row r="561" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:52" ht="15.75" customHeight="1">
       <c r="A561" s="1"/>
       <c r="B561" s="1"/>
       <c r="C561" s="1"/>
@@ -31658,7 +31675,7 @@
       <c r="AY561" s="1"/>
       <c r="AZ561" s="1"/>
     </row>
-    <row r="562" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:52" ht="15.75" customHeight="1">
       <c r="A562" s="1"/>
       <c r="B562" s="1"/>
       <c r="C562" s="1"/>
@@ -31712,7 +31729,7 @@
       <c r="AY562" s="1"/>
       <c r="AZ562" s="1"/>
     </row>
-    <row r="563" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:52" ht="15.75" customHeight="1">
       <c r="A563" s="1"/>
       <c r="B563" s="1"/>
       <c r="C563" s="1"/>
@@ -31766,7 +31783,7 @@
       <c r="AY563" s="1"/>
       <c r="AZ563" s="1"/>
     </row>
-    <row r="564" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:52" ht="15.75" customHeight="1">
       <c r="A564" s="1"/>
       <c r="B564" s="1"/>
       <c r="C564" s="1"/>
@@ -31820,7 +31837,7 @@
       <c r="AY564" s="1"/>
       <c r="AZ564" s="1"/>
     </row>
-    <row r="565" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:52" ht="15.75" customHeight="1">
       <c r="A565" s="1"/>
       <c r="B565" s="1"/>
       <c r="C565" s="1"/>
@@ -31874,7 +31891,7 @@
       <c r="AY565" s="1"/>
       <c r="AZ565" s="1"/>
     </row>
-    <row r="566" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:52" ht="15.75" customHeight="1">
       <c r="A566" s="1"/>
       <c r="B566" s="1"/>
       <c r="C566" s="1"/>
@@ -31928,7 +31945,7 @@
       <c r="AY566" s="1"/>
       <c r="AZ566" s="1"/>
     </row>
-    <row r="567" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:52" ht="15.75" customHeight="1">
       <c r="A567" s="1"/>
       <c r="B567" s="1"/>
       <c r="C567" s="1"/>
@@ -31982,7 +31999,7 @@
       <c r="AY567" s="1"/>
       <c r="AZ567" s="1"/>
     </row>
-    <row r="568" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:52" ht="15.75" customHeight="1">
       <c r="A568" s="1"/>
       <c r="B568" s="1"/>
       <c r="C568" s="1"/>
@@ -32036,7 +32053,7 @@
       <c r="AY568" s="1"/>
       <c r="AZ568" s="1"/>
     </row>
-    <row r="569" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:52" ht="15.75" customHeight="1">
       <c r="A569" s="1"/>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -32090,7 +32107,7 @@
       <c r="AY569" s="1"/>
       <c r="AZ569" s="1"/>
     </row>
-    <row r="570" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:52" ht="15.75" customHeight="1">
       <c r="A570" s="1"/>
       <c r="B570" s="1"/>
       <c r="C570" s="1"/>
@@ -32144,7 +32161,7 @@
       <c r="AY570" s="1"/>
       <c r="AZ570" s="1"/>
     </row>
-    <row r="571" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:52" ht="15.75" customHeight="1">
       <c r="A571" s="1"/>
       <c r="B571" s="1"/>
       <c r="C571" s="1"/>
@@ -32198,7 +32215,7 @@
       <c r="AY571" s="1"/>
       <c r="AZ571" s="1"/>
     </row>
-    <row r="572" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:52" ht="15.75" customHeight="1">
       <c r="A572" s="1"/>
       <c r="B572" s="1"/>
       <c r="C572" s="1"/>
@@ -32252,7 +32269,7 @@
       <c r="AY572" s="1"/>
       <c r="AZ572" s="1"/>
     </row>
-    <row r="573" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:52" ht="15.75" customHeight="1">
       <c r="A573" s="1"/>
       <c r="B573" s="1"/>
       <c r="C573" s="1"/>
@@ -32306,7 +32323,7 @@
       <c r="AY573" s="1"/>
       <c r="AZ573" s="1"/>
     </row>
-    <row r="574" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:52" ht="15.75" customHeight="1">
       <c r="A574" s="1"/>
       <c r="B574" s="1"/>
       <c r="C574" s="1"/>
@@ -32360,7 +32377,7 @@
       <c r="AY574" s="1"/>
       <c r="AZ574" s="1"/>
     </row>
-    <row r="575" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:52" ht="15.75" customHeight="1">
       <c r="A575" s="1"/>
       <c r="B575" s="1"/>
       <c r="C575" s="1"/>
@@ -32414,7 +32431,7 @@
       <c r="AY575" s="1"/>
       <c r="AZ575" s="1"/>
     </row>
-    <row r="576" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:52" ht="15.75" customHeight="1">
       <c r="A576" s="1"/>
       <c r="B576" s="1"/>
       <c r="C576" s="1"/>
@@ -32468,7 +32485,7 @@
       <c r="AY576" s="1"/>
       <c r="AZ576" s="1"/>
     </row>
-    <row r="577" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:52" ht="15.75" customHeight="1">
       <c r="A577" s="1"/>
       <c r="B577" s="1"/>
       <c r="C577" s="1"/>
@@ -32522,7 +32539,7 @@
       <c r="AY577" s="1"/>
       <c r="AZ577" s="1"/>
     </row>
-    <row r="578" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:52" ht="15.75" customHeight="1">
       <c r="A578" s="1"/>
       <c r="B578" s="1"/>
       <c r="C578" s="1"/>
@@ -32576,7 +32593,7 @@
       <c r="AY578" s="1"/>
       <c r="AZ578" s="1"/>
     </row>
-    <row r="579" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:52" ht="15.75" customHeight="1">
       <c r="A579" s="1"/>
       <c r="B579" s="1"/>
       <c r="C579" s="1"/>
@@ -32630,7 +32647,7 @@
       <c r="AY579" s="1"/>
       <c r="AZ579" s="1"/>
     </row>
-    <row r="580" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:52" ht="15.75" customHeight="1">
       <c r="A580" s="1"/>
       <c r="B580" s="1"/>
       <c r="C580" s="1"/>
@@ -32684,7 +32701,7 @@
       <c r="AY580" s="1"/>
       <c r="AZ580" s="1"/>
     </row>
-    <row r="581" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:52" ht="15.75" customHeight="1">
       <c r="A581" s="1"/>
       <c r="B581" s="1"/>
       <c r="C581" s="1"/>
@@ -32738,7 +32755,7 @@
       <c r="AY581" s="1"/>
       <c r="AZ581" s="1"/>
     </row>
-    <row r="582" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:52" ht="15.75" customHeight="1">
       <c r="A582" s="1"/>
       <c r="B582" s="1"/>
       <c r="C582" s="1"/>
@@ -32792,7 +32809,7 @@
       <c r="AY582" s="1"/>
       <c r="AZ582" s="1"/>
     </row>
-    <row r="583" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:52" ht="15.75" customHeight="1">
       <c r="A583" s="1"/>
       <c r="B583" s="1"/>
       <c r="C583" s="1"/>
@@ -32846,7 +32863,7 @@
       <c r="AY583" s="1"/>
       <c r="AZ583" s="1"/>
     </row>
-    <row r="584" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:52" ht="15.75" customHeight="1">
       <c r="A584" s="1"/>
       <c r="B584" s="1"/>
       <c r="C584" s="1"/>
@@ -32900,7 +32917,7 @@
       <c r="AY584" s="1"/>
       <c r="AZ584" s="1"/>
     </row>
-    <row r="585" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:52" ht="15.75" customHeight="1">
       <c r="A585" s="1"/>
       <c r="B585" s="1"/>
       <c r="C585" s="1"/>
@@ -32954,7 +32971,7 @@
       <c r="AY585" s="1"/>
       <c r="AZ585" s="1"/>
     </row>
-    <row r="586" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:52" ht="15.75" customHeight="1">
       <c r="A586" s="1"/>
       <c r="B586" s="1"/>
       <c r="C586" s="1"/>
@@ -33008,7 +33025,7 @@
       <c r="AY586" s="1"/>
       <c r="AZ586" s="1"/>
     </row>
-    <row r="587" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:52" ht="15.75" customHeight="1">
       <c r="A587" s="1"/>
       <c r="B587" s="1"/>
       <c r="C587" s="1"/>
@@ -33062,7 +33079,7 @@
       <c r="AY587" s="1"/>
       <c r="AZ587" s="1"/>
     </row>
-    <row r="588" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:52" ht="15.75" customHeight="1">
       <c r="A588" s="1"/>
       <c r="B588" s="1"/>
       <c r="C588" s="1"/>
@@ -33116,7 +33133,7 @@
       <c r="AY588" s="1"/>
       <c r="AZ588" s="1"/>
     </row>
-    <row r="589" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:52" ht="15.75" customHeight="1">
       <c r="A589" s="1"/>
       <c r="B589" s="1"/>
       <c r="C589" s="1"/>
@@ -33170,7 +33187,7 @@
       <c r="AY589" s="1"/>
       <c r="AZ589" s="1"/>
     </row>
-    <row r="590" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:52" ht="15.75" customHeight="1">
       <c r="A590" s="1"/>
       <c r="B590" s="1"/>
       <c r="C590" s="1"/>
@@ -33224,7 +33241,7 @@
       <c r="AY590" s="1"/>
       <c r="AZ590" s="1"/>
     </row>
-    <row r="591" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:52" ht="15.75" customHeight="1">
       <c r="A591" s="1"/>
       <c r="B591" s="1"/>
       <c r="C591" s="1"/>
@@ -33278,7 +33295,7 @@
       <c r="AY591" s="1"/>
       <c r="AZ591" s="1"/>
     </row>
-    <row r="592" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:52" ht="15.75" customHeight="1">
       <c r="A592" s="1"/>
       <c r="B592" s="1"/>
       <c r="C592" s="1"/>
@@ -33332,7 +33349,7 @@
       <c r="AY592" s="1"/>
       <c r="AZ592" s="1"/>
     </row>
-    <row r="593" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:52" ht="15.75" customHeight="1">
       <c r="A593" s="1"/>
       <c r="B593" s="1"/>
       <c r="C593" s="1"/>
@@ -33386,7 +33403,7 @@
       <c r="AY593" s="1"/>
       <c r="AZ593" s="1"/>
     </row>
-    <row r="594" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:52" ht="15.75" customHeight="1">
       <c r="A594" s="1"/>
       <c r="B594" s="1"/>
       <c r="C594" s="1"/>
@@ -33440,7 +33457,7 @@
       <c r="AY594" s="1"/>
       <c r="AZ594" s="1"/>
     </row>
-    <row r="595" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:52" ht="15.75" customHeight="1">
       <c r="A595" s="1"/>
       <c r="B595" s="1"/>
       <c r="C595" s="1"/>
@@ -33494,7 +33511,7 @@
       <c r="AY595" s="1"/>
       <c r="AZ595" s="1"/>
     </row>
-    <row r="596" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:52" ht="15.75" customHeight="1">
       <c r="A596" s="1"/>
       <c r="B596" s="1"/>
       <c r="C596" s="1"/>
@@ -33548,7 +33565,7 @@
       <c r="AY596" s="1"/>
       <c r="AZ596" s="1"/>
     </row>
-    <row r="597" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:52" ht="15.75" customHeight="1">
       <c r="A597" s="1"/>
       <c r="B597" s="1"/>
       <c r="C597" s="1"/>
@@ -33602,7 +33619,7 @@
       <c r="AY597" s="1"/>
       <c r="AZ597" s="1"/>
     </row>
-    <row r="598" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:52" ht="15.75" customHeight="1">
       <c r="A598" s="1"/>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
@@ -33656,7 +33673,7 @@
       <c r="AY598" s="1"/>
       <c r="AZ598" s="1"/>
     </row>
-    <row r="599" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:52" ht="15.75" customHeight="1">
       <c r="A599" s="1"/>
       <c r="B599" s="1"/>
       <c r="C599" s="1"/>
@@ -33710,7 +33727,7 @@
       <c r="AY599" s="1"/>
       <c r="AZ599" s="1"/>
     </row>
-    <row r="600" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:52" ht="15.75" customHeight="1">
       <c r="A600" s="1"/>
       <c r="B600" s="1"/>
       <c r="C600" s="1"/>
@@ -33764,7 +33781,7 @@
       <c r="AY600" s="1"/>
       <c r="AZ600" s="1"/>
     </row>
-    <row r="601" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:52" ht="15.75" customHeight="1">
       <c r="A601" s="1"/>
       <c r="B601" s="1"/>
       <c r="C601" s="1"/>
@@ -33818,7 +33835,7 @@
       <c r="AY601" s="1"/>
       <c r="AZ601" s="1"/>
     </row>
-    <row r="602" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:52" ht="15.75" customHeight="1">
       <c r="A602" s="1"/>
       <c r="B602" s="1"/>
       <c r="C602" s="1"/>
@@ -33872,7 +33889,7 @@
       <c r="AY602" s="1"/>
       <c r="AZ602" s="1"/>
     </row>
-    <row r="603" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:52" ht="15.75" customHeight="1">
       <c r="A603" s="1"/>
       <c r="B603" s="1"/>
       <c r="C603" s="1"/>
@@ -33926,7 +33943,7 @@
       <c r="AY603" s="1"/>
       <c r="AZ603" s="1"/>
     </row>
-    <row r="604" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:52" ht="15.75" customHeight="1">
       <c r="A604" s="1"/>
       <c r="B604" s="1"/>
       <c r="C604" s="1"/>
@@ -33980,7 +33997,7 @@
       <c r="AY604" s="1"/>
       <c r="AZ604" s="1"/>
     </row>
-    <row r="605" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:52" ht="15.75" customHeight="1">
       <c r="A605" s="1"/>
       <c r="B605" s="1"/>
       <c r="C605" s="1"/>
@@ -34034,7 +34051,7 @@
       <c r="AY605" s="1"/>
       <c r="AZ605" s="1"/>
     </row>
-    <row r="606" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:52" ht="15.75" customHeight="1">
       <c r="A606" s="1"/>
       <c r="B606" s="1"/>
       <c r="C606" s="1"/>
@@ -34088,7 +34105,7 @@
       <c r="AY606" s="1"/>
       <c r="AZ606" s="1"/>
     </row>
-    <row r="607" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:52" ht="15.75" customHeight="1">
       <c r="A607" s="1"/>
       <c r="B607" s="1"/>
       <c r="C607" s="1"/>
@@ -34142,7 +34159,7 @@
       <c r="AY607" s="1"/>
       <c r="AZ607" s="1"/>
     </row>
-    <row r="608" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:52" ht="15.75" customHeight="1">
       <c r="A608" s="1"/>
       <c r="B608" s="1"/>
       <c r="C608" s="1"/>
@@ -34196,7 +34213,7 @@
       <c r="AY608" s="1"/>
       <c r="AZ608" s="1"/>
     </row>
-    <row r="609" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:52" ht="15.75" customHeight="1">
       <c r="A609" s="1"/>
       <c r="B609" s="1"/>
       <c r="C609" s="1"/>
@@ -34250,7 +34267,7 @@
       <c r="AY609" s="1"/>
       <c r="AZ609" s="1"/>
     </row>
-    <row r="610" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:52" ht="15.75" customHeight="1">
       <c r="A610" s="1"/>
       <c r="B610" s="1"/>
       <c r="C610" s="1"/>
@@ -34304,7 +34321,7 @@
       <c r="AY610" s="1"/>
       <c r="AZ610" s="1"/>
     </row>
-    <row r="611" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:52" ht="15.75" customHeight="1">
       <c r="A611" s="1"/>
       <c r="B611" s="1"/>
       <c r="C611" s="1"/>
@@ -34358,7 +34375,7 @@
       <c r="AY611" s="1"/>
       <c r="AZ611" s="1"/>
     </row>
-    <row r="612" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:52" ht="15.75" customHeight="1">
       <c r="A612" s="1"/>
       <c r="B612" s="1"/>
       <c r="C612" s="1"/>
@@ -34412,7 +34429,7 @@
       <c r="AY612" s="1"/>
       <c r="AZ612" s="1"/>
     </row>
-    <row r="613" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:52" ht="15.75" customHeight="1">
       <c r="A613" s="1"/>
       <c r="B613" s="1"/>
       <c r="C613" s="1"/>
@@ -34466,7 +34483,7 @@
       <c r="AY613" s="1"/>
       <c r="AZ613" s="1"/>
     </row>
-    <row r="614" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:52" ht="15.75" customHeight="1">
       <c r="A614" s="1"/>
       <c r="B614" s="1"/>
       <c r="C614" s="1"/>
@@ -34520,7 +34537,7 @@
       <c r="AY614" s="1"/>
       <c r="AZ614" s="1"/>
     </row>
-    <row r="615" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:52" ht="15.75" customHeight="1">
       <c r="A615" s="1"/>
       <c r="B615" s="1"/>
       <c r="C615" s="1"/>
@@ -34574,7 +34591,7 @@
       <c r="AY615" s="1"/>
       <c r="AZ615" s="1"/>
     </row>
-    <row r="616" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:52" ht="15.75" customHeight="1">
       <c r="A616" s="1"/>
       <c r="B616" s="1"/>
       <c r="C616" s="1"/>
@@ -34628,7 +34645,7 @@
       <c r="AY616" s="1"/>
       <c r="AZ616" s="1"/>
     </row>
-    <row r="617" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:52" ht="15.75" customHeight="1">
       <c r="A617" s="1"/>
       <c r="B617" s="1"/>
       <c r="C617" s="1"/>
@@ -34682,7 +34699,7 @@
       <c r="AY617" s="1"/>
       <c r="AZ617" s="1"/>
     </row>
-    <row r="618" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:52" ht="15.75" customHeight="1">
       <c r="A618" s="1"/>
       <c r="B618" s="1"/>
       <c r="C618" s="1"/>
@@ -34736,7 +34753,7 @@
       <c r="AY618" s="1"/>
       <c r="AZ618" s="1"/>
     </row>
-    <row r="619" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:52" ht="15.75" customHeight="1">
       <c r="A619" s="1"/>
       <c r="B619" s="1"/>
       <c r="C619" s="1"/>
@@ -34790,7 +34807,7 @@
       <c r="AY619" s="1"/>
       <c r="AZ619" s="1"/>
     </row>
-    <row r="620" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:52" ht="15.75" customHeight="1">
       <c r="A620" s="1"/>
       <c r="B620" s="1"/>
       <c r="C620" s="1"/>
@@ -34844,7 +34861,7 @@
       <c r="AY620" s="1"/>
       <c r="AZ620" s="1"/>
     </row>
-    <row r="621" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:52" ht="15.75" customHeight="1">
       <c r="A621" s="1"/>
       <c r="B621" s="1"/>
       <c r="C621" s="1"/>
@@ -34898,7 +34915,7 @@
       <c r="AY621" s="1"/>
       <c r="AZ621" s="1"/>
     </row>
-    <row r="622" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:52" ht="15.75" customHeight="1">
       <c r="A622" s="1"/>
       <c r="B622" s="1"/>
       <c r="C622" s="1"/>
@@ -34952,7 +34969,7 @@
       <c r="AY622" s="1"/>
       <c r="AZ622" s="1"/>
     </row>
-    <row r="623" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:52" ht="15.75" customHeight="1">
       <c r="A623" s="1"/>
       <c r="B623" s="1"/>
       <c r="C623" s="1"/>
@@ -35006,7 +35023,7 @@
       <c r="AY623" s="1"/>
       <c r="AZ623" s="1"/>
     </row>
-    <row r="624" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:52" ht="15.75" customHeight="1">
       <c r="A624" s="1"/>
       <c r="B624" s="1"/>
       <c r="C624" s="1"/>
@@ -35060,7 +35077,7 @@
       <c r="AY624" s="1"/>
       <c r="AZ624" s="1"/>
     </row>
-    <row r="625" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:52" ht="15.75" customHeight="1">
       <c r="A625" s="1"/>
       <c r="B625" s="1"/>
       <c r="C625" s="1"/>
@@ -35114,7 +35131,7 @@
       <c r="AY625" s="1"/>
       <c r="AZ625" s="1"/>
     </row>
-    <row r="626" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:52" ht="15.75" customHeight="1">
       <c r="A626" s="1"/>
       <c r="B626" s="1"/>
       <c r="C626" s="1"/>
@@ -35168,7 +35185,7 @@
       <c r="AY626" s="1"/>
       <c r="AZ626" s="1"/>
     </row>
-    <row r="627" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:52" ht="15.75" customHeight="1">
       <c r="A627" s="1"/>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
@@ -35222,7 +35239,7 @@
       <c r="AY627" s="1"/>
       <c r="AZ627" s="1"/>
     </row>
-    <row r="628" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:52" ht="15.75" customHeight="1">
       <c r="A628" s="1"/>
       <c r="B628" s="1"/>
       <c r="C628" s="1"/>
@@ -35276,7 +35293,7 @@
       <c r="AY628" s="1"/>
       <c r="AZ628" s="1"/>
     </row>
-    <row r="629" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:52" ht="15.75" customHeight="1">
       <c r="A629" s="1"/>
       <c r="B629" s="1"/>
       <c r="C629" s="1"/>
@@ -35330,7 +35347,7 @@
       <c r="AY629" s="1"/>
       <c r="AZ629" s="1"/>
     </row>
-    <row r="630" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:52" ht="15.75" customHeight="1">
       <c r="A630" s="1"/>
       <c r="B630" s="1"/>
       <c r="C630" s="1"/>
@@ -35384,7 +35401,7 @@
       <c r="AY630" s="1"/>
       <c r="AZ630" s="1"/>
     </row>
-    <row r="631" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:52" ht="15.75" customHeight="1">
       <c r="A631" s="1"/>
       <c r="B631" s="1"/>
       <c r="C631" s="1"/>
@@ -35438,7 +35455,7 @@
       <c r="AY631" s="1"/>
       <c r="AZ631" s="1"/>
     </row>
-    <row r="632" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:52" ht="15.75" customHeight="1">
       <c r="A632" s="1"/>
       <c r="B632" s="1"/>
       <c r="C632" s="1"/>
@@ -35492,7 +35509,7 @@
       <c r="AY632" s="1"/>
       <c r="AZ632" s="1"/>
     </row>
-    <row r="633" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:52" ht="15.75" customHeight="1">
       <c r="A633" s="1"/>
       <c r="B633" s="1"/>
       <c r="C633" s="1"/>
@@ -35546,7 +35563,7 @@
       <c r="AY633" s="1"/>
       <c r="AZ633" s="1"/>
     </row>
-    <row r="634" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:52" ht="15.75" customHeight="1">
       <c r="A634" s="1"/>
       <c r="B634" s="1"/>
       <c r="C634" s="1"/>
@@ -35600,7 +35617,7 @@
       <c r="AY634" s="1"/>
       <c r="AZ634" s="1"/>
     </row>
-    <row r="635" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:52" ht="15.75" customHeight="1">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
       <c r="C635" s="1"/>
@@ -35654,7 +35671,7 @@
       <c r="AY635" s="1"/>
       <c r="AZ635" s="1"/>
     </row>
-    <row r="636" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:52" ht="15.75" customHeight="1">
       <c r="A636" s="1"/>
       <c r="B636" s="1"/>
       <c r="C636" s="1"/>
@@ -35708,7 +35725,7 @@
       <c r="AY636" s="1"/>
       <c r="AZ636" s="1"/>
     </row>
-    <row r="637" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:52" ht="15.75" customHeight="1">
       <c r="A637" s="1"/>
       <c r="B637" s="1"/>
       <c r="C637" s="1"/>
@@ -35762,7 +35779,7 @@
       <c r="AY637" s="1"/>
       <c r="AZ637" s="1"/>
     </row>
-    <row r="638" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:52" ht="15.75" customHeight="1">
       <c r="A638" s="1"/>
       <c r="B638" s="1"/>
       <c r="C638" s="1"/>
@@ -35816,7 +35833,7 @@
       <c r="AY638" s="1"/>
       <c r="AZ638" s="1"/>
     </row>
-    <row r="639" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:52" ht="15.75" customHeight="1">
       <c r="A639" s="1"/>
       <c r="B639" s="1"/>
       <c r="C639" s="1"/>
@@ -35870,7 +35887,7 @@
       <c r="AY639" s="1"/>
       <c r="AZ639" s="1"/>
     </row>
-    <row r="640" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:52" ht="15.75" customHeight="1">
       <c r="A640" s="1"/>
       <c r="B640" s="1"/>
       <c r="C640" s="1"/>
@@ -35924,7 +35941,7 @@
       <c r="AY640" s="1"/>
       <c r="AZ640" s="1"/>
     </row>
-    <row r="641" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:52" ht="15.75" customHeight="1">
       <c r="A641" s="1"/>
       <c r="B641" s="1"/>
       <c r="C641" s="1"/>
@@ -35978,7 +35995,7 @@
       <c r="AY641" s="1"/>
       <c r="AZ641" s="1"/>
     </row>
-    <row r="642" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:52" ht="15.75" customHeight="1">
       <c r="A642" s="1"/>
       <c r="B642" s="1"/>
       <c r="C642" s="1"/>
@@ -36032,7 +36049,7 @@
       <c r="AY642" s="1"/>
       <c r="AZ642" s="1"/>
     </row>
-    <row r="643" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:52" ht="15.75" customHeight="1">
       <c r="A643" s="1"/>
       <c r="B643" s="1"/>
       <c r="C643" s="1"/>
@@ -36086,7 +36103,7 @@
       <c r="AY643" s="1"/>
       <c r="AZ643" s="1"/>
     </row>
-    <row r="644" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:52" ht="15.75" customHeight="1">
       <c r="A644" s="1"/>
       <c r="B644" s="1"/>
       <c r="C644" s="1"/>
@@ -36140,7 +36157,7 @@
       <c r="AY644" s="1"/>
       <c r="AZ644" s="1"/>
     </row>
-    <row r="645" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:52" ht="15.75" customHeight="1">
       <c r="A645" s="1"/>
       <c r="B645" s="1"/>
       <c r="C645" s="1"/>
@@ -36194,7 +36211,7 @@
       <c r="AY645" s="1"/>
       <c r="AZ645" s="1"/>
     </row>
-    <row r="646" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:52" ht="15.75" customHeight="1">
       <c r="A646" s="1"/>
       <c r="B646" s="1"/>
       <c r="C646" s="1"/>
@@ -36248,7 +36265,7 @@
       <c r="AY646" s="1"/>
       <c r="AZ646" s="1"/>
     </row>
-    <row r="647" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:52" ht="15.75" customHeight="1">
       <c r="A647" s="1"/>
       <c r="B647" s="1"/>
       <c r="C647" s="1"/>
@@ -36302,7 +36319,7 @@
       <c r="AY647" s="1"/>
       <c r="AZ647" s="1"/>
     </row>
-    <row r="648" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:52" ht="15.75" customHeight="1">
       <c r="A648" s="1"/>
       <c r="B648" s="1"/>
       <c r="C648" s="1"/>
@@ -36356,7 +36373,7 @@
       <c r="AY648" s="1"/>
       <c r="AZ648" s="1"/>
     </row>
-    <row r="649" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:52" ht="15.75" customHeight="1">
       <c r="A649" s="1"/>
       <c r="B649" s="1"/>
       <c r="C649" s="1"/>
@@ -36410,7 +36427,7 @@
       <c r="AY649" s="1"/>
       <c r="AZ649" s="1"/>
     </row>
-    <row r="650" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:52" ht="15.75" customHeight="1">
       <c r="A650" s="1"/>
       <c r="B650" s="1"/>
       <c r="C650" s="1"/>
@@ -36464,7 +36481,7 @@
       <c r="AY650" s="1"/>
       <c r="AZ650" s="1"/>
     </row>
-    <row r="651" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:52" ht="15.75" customHeight="1">
       <c r="A651" s="1"/>
       <c r="B651" s="1"/>
       <c r="C651" s="1"/>
@@ -36518,7 +36535,7 @@
       <c r="AY651" s="1"/>
       <c r="AZ651" s="1"/>
     </row>
-    <row r="652" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:52" ht="15.75" customHeight="1">
       <c r="A652" s="1"/>
       <c r="B652" s="1"/>
       <c r="C652" s="1"/>
@@ -36572,7 +36589,7 @@
       <c r="AY652" s="1"/>
       <c r="AZ652" s="1"/>
     </row>
-    <row r="653" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:52" ht="15.75" customHeight="1">
       <c r="A653" s="1"/>
       <c r="B653" s="1"/>
       <c r="C653" s="1"/>
@@ -36626,7 +36643,7 @@
       <c r="AY653" s="1"/>
       <c r="AZ653" s="1"/>
     </row>
-    <row r="654" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:52" ht="15.75" customHeight="1">
       <c r="A654" s="1"/>
       <c r="B654" s="1"/>
       <c r="C654" s="1"/>
@@ -36680,7 +36697,7 @@
       <c r="AY654" s="1"/>
       <c r="AZ654" s="1"/>
     </row>
-    <row r="655" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:52" ht="15.75" customHeight="1">
       <c r="A655" s="1"/>
       <c r="B655" s="1"/>
       <c r="C655" s="1"/>
@@ -36734,7 +36751,7 @@
       <c r="AY655" s="1"/>
       <c r="AZ655" s="1"/>
     </row>
-    <row r="656" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:52" ht="15.75" customHeight="1">
       <c r="A656" s="1"/>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
@@ -36788,7 +36805,7 @@
       <c r="AY656" s="1"/>
       <c r="AZ656" s="1"/>
     </row>
-    <row r="657" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:52" ht="15.75" customHeight="1">
       <c r="A657" s="1"/>
       <c r="B657" s="1"/>
       <c r="C657" s="1"/>
@@ -36842,7 +36859,7 @@
       <c r="AY657" s="1"/>
       <c r="AZ657" s="1"/>
     </row>
-    <row r="658" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:52" ht="15.75" customHeight="1">
       <c r="A658" s="1"/>
       <c r="B658" s="1"/>
       <c r="C658" s="1"/>
@@ -36896,7 +36913,7 @@
       <c r="AY658" s="1"/>
       <c r="AZ658" s="1"/>
     </row>
-    <row r="659" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:52" ht="15.75" customHeight="1">
       <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
@@ -36950,7 +36967,7 @@
       <c r="AY659" s="1"/>
       <c r="AZ659" s="1"/>
     </row>
-    <row r="660" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:52" ht="15.75" customHeight="1">
       <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
@@ -37004,7 +37021,7 @@
       <c r="AY660" s="1"/>
       <c r="AZ660" s="1"/>
     </row>
-    <row r="661" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:52" ht="15.75" customHeight="1">
       <c r="A661" s="1"/>
       <c r="B661" s="1"/>
       <c r="C661" s="1"/>
@@ -37058,7 +37075,7 @@
       <c r="AY661" s="1"/>
       <c r="AZ661" s="1"/>
     </row>
-    <row r="662" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:52" ht="15.75" customHeight="1">
       <c r="A662" s="1"/>
       <c r="B662" s="1"/>
       <c r="C662" s="1"/>
@@ -37112,7 +37129,7 @@
       <c r="AY662" s="1"/>
       <c r="AZ662" s="1"/>
     </row>
-    <row r="663" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:52" ht="15.75" customHeight="1">
       <c r="A663" s="1"/>
       <c r="B663" s="1"/>
       <c r="C663" s="1"/>
@@ -37166,7 +37183,7 @@
       <c r="AY663" s="1"/>
       <c r="AZ663" s="1"/>
     </row>
-    <row r="664" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:52" ht="15.75" customHeight="1">
       <c r="A664" s="1"/>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
@@ -37220,7 +37237,7 @@
       <c r="AY664" s="1"/>
       <c r="AZ664" s="1"/>
     </row>
-    <row r="665" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:52" ht="15.75" customHeight="1">
       <c r="A665" s="1"/>
       <c r="B665" s="1"/>
       <c r="C665" s="1"/>
@@ -37274,7 +37291,7 @@
       <c r="AY665" s="1"/>
       <c r="AZ665" s="1"/>
     </row>
-    <row r="666" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:52" ht="15.75" customHeight="1">
       <c r="A666" s="1"/>
       <c r="B666" s="1"/>
       <c r="C666" s="1"/>
@@ -37328,7 +37345,7 @@
       <c r="AY666" s="1"/>
       <c r="AZ666" s="1"/>
     </row>
-    <row r="667" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:52" ht="15.75" customHeight="1">
       <c r="A667" s="1"/>
       <c r="B667" s="1"/>
       <c r="C667" s="1"/>
@@ -37382,7 +37399,7 @@
       <c r="AY667" s="1"/>
       <c r="AZ667" s="1"/>
     </row>
-    <row r="668" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:52" ht="15.75" customHeight="1">
       <c r="A668" s="1"/>
       <c r="B668" s="1"/>
       <c r="C668" s="1"/>
@@ -37436,7 +37453,7 @@
       <c r="AY668" s="1"/>
       <c r="AZ668" s="1"/>
     </row>
-    <row r="669" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:52" ht="15.75" customHeight="1">
       <c r="A669" s="1"/>
       <c r="B669" s="1"/>
       <c r="C669" s="1"/>
@@ -37490,7 +37507,7 @@
       <c r="AY669" s="1"/>
       <c r="AZ669" s="1"/>
     </row>
-    <row r="670" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:52" ht="15.75" customHeight="1">
       <c r="A670" s="1"/>
       <c r="B670" s="1"/>
       <c r="C670" s="1"/>
@@ -37544,7 +37561,7 @@
       <c r="AY670" s="1"/>
       <c r="AZ670" s="1"/>
     </row>
-    <row r="671" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:52" ht="15.75" customHeight="1">
       <c r="A671" s="1"/>
       <c r="B671" s="1"/>
       <c r="C671" s="1"/>
@@ -37598,7 +37615,7 @@
       <c r="AY671" s="1"/>
       <c r="AZ671" s="1"/>
     </row>
-    <row r="672" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:52" ht="15.75" customHeight="1">
       <c r="A672" s="1"/>
       <c r="B672" s="1"/>
       <c r="C672" s="1"/>
@@ -37652,7 +37669,7 @@
       <c r="AY672" s="1"/>
       <c r="AZ672" s="1"/>
     </row>
-    <row r="673" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:52" ht="15.75" customHeight="1">
       <c r="A673" s="1"/>
       <c r="B673" s="1"/>
       <c r="C673" s="1"/>
@@ -37706,7 +37723,7 @@
       <c r="AY673" s="1"/>
       <c r="AZ673" s="1"/>
     </row>
-    <row r="674" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:52" ht="15.75" customHeight="1">
       <c r="A674" s="1"/>
       <c r="B674" s="1"/>
       <c r="C674" s="1"/>
@@ -37760,7 +37777,7 @@
       <c r="AY674" s="1"/>
       <c r="AZ674" s="1"/>
     </row>
-    <row r="675" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:52" ht="15.75" customHeight="1">
       <c r="A675" s="1"/>
       <c r="B675" s="1"/>
       <c r="C675" s="1"/>
@@ -37814,7 +37831,7 @@
       <c r="AY675" s="1"/>
       <c r="AZ675" s="1"/>
     </row>
-    <row r="676" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:52" ht="15.75" customHeight="1">
       <c r="A676" s="1"/>
       <c r="B676" s="1"/>
       <c r="C676" s="1"/>
@@ -37868,7 +37885,7 @@
       <c r="AY676" s="1"/>
       <c r="AZ676" s="1"/>
     </row>
-    <row r="677" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:52" ht="15.75" customHeight="1">
       <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
@@ -37922,7 +37939,7 @@
       <c r="AY677" s="1"/>
       <c r="AZ677" s="1"/>
     </row>
-    <row r="678" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:52" ht="15.75" customHeight="1">
       <c r="A678" s="1"/>
       <c r="B678" s="1"/>
       <c r="C678" s="1"/>
@@ -37976,7 +37993,7 @@
       <c r="AY678" s="1"/>
       <c r="AZ678" s="1"/>
     </row>
-    <row r="679" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:52" ht="15.75" customHeight="1">
       <c r="A679" s="1"/>
       <c r="B679" s="1"/>
       <c r="C679" s="1"/>
@@ -38030,7 +38047,7 @@
       <c r="AY679" s="1"/>
       <c r="AZ679" s="1"/>
     </row>
-    <row r="680" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:52" ht="15.75" customHeight="1">
       <c r="A680" s="1"/>
       <c r="B680" s="1"/>
       <c r="C680" s="1"/>
@@ -38084,7 +38101,7 @@
       <c r="AY680" s="1"/>
       <c r="AZ680" s="1"/>
     </row>
-    <row r="681" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:52" ht="15.75" customHeight="1">
       <c r="A681" s="1"/>
       <c r="B681" s="1"/>
       <c r="C681" s="1"/>
@@ -38138,7 +38155,7 @@
       <c r="AY681" s="1"/>
       <c r="AZ681" s="1"/>
     </row>
-    <row r="682" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:52" ht="15.75" customHeight="1">
       <c r="A682" s="1"/>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
@@ -38192,7 +38209,7 @@
       <c r="AY682" s="1"/>
       <c r="AZ682" s="1"/>
     </row>
-    <row r="683" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:52" ht="15.75" customHeight="1">
       <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
@@ -38246,7 +38263,7 @@
       <c r="AY683" s="1"/>
       <c r="AZ683" s="1"/>
     </row>
-    <row r="684" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:52" ht="15.75" customHeight="1">
       <c r="A684" s="1"/>
       <c r="B684" s="1"/>
       <c r="C684" s="1"/>
@@ -38300,7 +38317,7 @@
       <c r="AY684" s="1"/>
       <c r="AZ684" s="1"/>
     </row>
-    <row r="685" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:52" ht="15.75" customHeight="1">
       <c r="A685" s="1"/>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
@@ -38354,7 +38371,7 @@
       <c r="AY685" s="1"/>
       <c r="AZ685" s="1"/>
     </row>
-    <row r="686" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:52" ht="15.75" customHeight="1">
       <c r="A686" s="1"/>
       <c r="B686" s="1"/>
       <c r="C686" s="1"/>
@@ -38408,7 +38425,7 @@
       <c r="AY686" s="1"/>
       <c r="AZ686" s="1"/>
     </row>
-    <row r="687" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:52" ht="15.75" customHeight="1">
       <c r="A687" s="1"/>
       <c r="B687" s="1"/>
       <c r="C687" s="1"/>
@@ -38462,7 +38479,7 @@
       <c r="AY687" s="1"/>
       <c r="AZ687" s="1"/>
     </row>
-    <row r="688" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:52" ht="15.75" customHeight="1">
       <c r="A688" s="1"/>
       <c r="B688" s="1"/>
       <c r="C688" s="1"/>
@@ -38516,7 +38533,7 @@
       <c r="AY688" s="1"/>
       <c r="AZ688" s="1"/>
     </row>
-    <row r="689" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:52" ht="15.75" customHeight="1">
       <c r="A689" s="1"/>
       <c r="B689" s="1"/>
       <c r="C689" s="1"/>
@@ -38570,7 +38587,7 @@
       <c r="AY689" s="1"/>
       <c r="AZ689" s="1"/>
     </row>
-    <row r="690" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:52" ht="15.75" customHeight="1">
       <c r="A690" s="1"/>
       <c r="B690" s="1"/>
       <c r="C690" s="1"/>
@@ -38624,7 +38641,7 @@
       <c r="AY690" s="1"/>
       <c r="AZ690" s="1"/>
     </row>
-    <row r="691" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:52" ht="15.75" customHeight="1">
       <c r="A691" s="1"/>
       <c r="B691" s="1"/>
       <c r="C691" s="1"/>
@@ -38678,7 +38695,7 @@
       <c r="AY691" s="1"/>
       <c r="AZ691" s="1"/>
     </row>
-    <row r="692" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:52" ht="15.75" customHeight="1">
       <c r="A692" s="1"/>
       <c r="B692" s="1"/>
       <c r="C692" s="1"/>
@@ -38732,7 +38749,7 @@
       <c r="AY692" s="1"/>
       <c r="AZ692" s="1"/>
     </row>
-    <row r="693" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:52" ht="15.75" customHeight="1">
       <c r="A693" s="1"/>
       <c r="B693" s="1"/>
       <c r="C693" s="1"/>
@@ -38786,7 +38803,7 @@
       <c r="AY693" s="1"/>
       <c r="AZ693" s="1"/>
     </row>
-    <row r="694" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:52" ht="15.75" customHeight="1">
       <c r="A694" s="1"/>
       <c r="B694" s="1"/>
       <c r="C694" s="1"/>
@@ -38840,7 +38857,7 @@
       <c r="AY694" s="1"/>
       <c r="AZ694" s="1"/>
     </row>
-    <row r="695" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:52" ht="15.75" customHeight="1">
       <c r="A695" s="1"/>
       <c r="B695" s="1"/>
       <c r="C695" s="1"/>
@@ -38894,7 +38911,7 @@
       <c r="AY695" s="1"/>
       <c r="AZ695" s="1"/>
     </row>
-    <row r="696" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:52" ht="15.75" customHeight="1">
       <c r="A696" s="1"/>
       <c r="B696" s="1"/>
       <c r="C696" s="1"/>
@@ -38948,7 +38965,7 @@
       <c r="AY696" s="1"/>
       <c r="AZ696" s="1"/>
     </row>
-    <row r="697" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:52" ht="15.75" customHeight="1">
       <c r="A697" s="1"/>
       <c r="B697" s="1"/>
       <c r="C697" s="1"/>
@@ -39002,7 +39019,7 @@
       <c r="AY697" s="1"/>
       <c r="AZ697" s="1"/>
     </row>
-    <row r="698" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:52" ht="15.75" customHeight="1">
       <c r="A698" s="1"/>
       <c r="B698" s="1"/>
       <c r="C698" s="1"/>
@@ -39056,7 +39073,7 @@
       <c r="AY698" s="1"/>
       <c r="AZ698" s="1"/>
     </row>
-    <row r="699" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:52" ht="15.75" customHeight="1">
       <c r="A699" s="1"/>
       <c r="B699" s="1"/>
       <c r="C699" s="1"/>
@@ -39110,7 +39127,7 @@
       <c r="AY699" s="1"/>
       <c r="AZ699" s="1"/>
     </row>
-    <row r="700" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:52" ht="15.75" customHeight="1">
       <c r="A700" s="1"/>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
@@ -39164,7 +39181,7 @@
       <c r="AY700" s="1"/>
       <c r="AZ700" s="1"/>
     </row>
-    <row r="701" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:52" ht="15.75" customHeight="1">
       <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
@@ -39218,7 +39235,7 @@
       <c r="AY701" s="1"/>
       <c r="AZ701" s="1"/>
     </row>
-    <row r="702" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:52" ht="15.75" customHeight="1">
       <c r="A702" s="1"/>
       <c r="B702" s="1"/>
       <c r="C702" s="1"/>
@@ -39272,7 +39289,7 @@
       <c r="AY702" s="1"/>
       <c r="AZ702" s="1"/>
     </row>
-    <row r="703" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:52" ht="15.75" customHeight="1">
       <c r="A703" s="1"/>
       <c r="B703" s="1"/>
       <c r="C703" s="1"/>
@@ -39326,7 +39343,7 @@
       <c r="AY703" s="1"/>
       <c r="AZ703" s="1"/>
     </row>
-    <row r="704" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:52" ht="15.75" customHeight="1">
       <c r="A704" s="1"/>
       <c r="B704" s="1"/>
       <c r="C704" s="1"/>
@@ -39380,7 +39397,7 @@
       <c r="AY704" s="1"/>
       <c r="AZ704" s="1"/>
     </row>
-    <row r="705" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:52" ht="15.75" customHeight="1">
       <c r="A705" s="1"/>
       <c r="B705" s="1"/>
       <c r="C705" s="1"/>
@@ -39434,7 +39451,7 @@
       <c r="AY705" s="1"/>
       <c r="AZ705" s="1"/>
     </row>
-    <row r="706" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:52" ht="15.75" customHeight="1">
       <c r="A706" s="1"/>
       <c r="B706" s="1"/>
       <c r="C706" s="1"/>
@@ -39488,7 +39505,7 @@
       <c r="AY706" s="1"/>
       <c r="AZ706" s="1"/>
     </row>
-    <row r="707" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:52" ht="15.75" customHeight="1">
       <c r="A707" s="1"/>
       <c r="B707" s="1"/>
       <c r="C707" s="1"/>
@@ -39542,7 +39559,7 @@
       <c r="AY707" s="1"/>
       <c r="AZ707" s="1"/>
     </row>
-    <row r="708" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:52" ht="15.75" customHeight="1">
       <c r="A708" s="1"/>
       <c r="B708" s="1"/>
       <c r="C708" s="1"/>
@@ -39596,7 +39613,7 @@
       <c r="AY708" s="1"/>
       <c r="AZ708" s="1"/>
     </row>
-    <row r="709" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:52" ht="15.75" customHeight="1">
       <c r="A709" s="1"/>
       <c r="B709" s="1"/>
       <c r="C709" s="1"/>
@@ -39650,7 +39667,7 @@
       <c r="AY709" s="1"/>
       <c r="AZ709" s="1"/>
     </row>
-    <row r="710" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:52" ht="15.75" customHeight="1">
       <c r="A710" s="1"/>
       <c r="B710" s="1"/>
       <c r="C710" s="1"/>
@@ -39704,7 +39721,7 @@
       <c r="AY710" s="1"/>
       <c r="AZ710" s="1"/>
     </row>
-    <row r="711" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:52" ht="15.75" customHeight="1">
       <c r="A711" s="1"/>
       <c r="B711" s="1"/>
       <c r="C711" s="1"/>
@@ -39758,7 +39775,7 @@
       <c r="AY711" s="1"/>
       <c r="AZ711" s="1"/>
     </row>
-    <row r="712" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:52" ht="15.75" customHeight="1">
       <c r="A712" s="1"/>
       <c r="B712" s="1"/>
       <c r="C712" s="1"/>
@@ -39812,7 +39829,7 @@
       <c r="AY712" s="1"/>
       <c r="AZ712" s="1"/>
     </row>
-    <row r="713" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:52" ht="15.75" customHeight="1">
       <c r="A713" s="1"/>
       <c r="B713" s="1"/>
       <c r="C713" s="1"/>
@@ -39866,7 +39883,7 @@
       <c r="AY713" s="1"/>
       <c r="AZ713" s="1"/>
     </row>
-    <row r="714" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:52" ht="15.75" customHeight="1">
       <c r="A714" s="1"/>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
@@ -39920,7 +39937,7 @@
       <c r="AY714" s="1"/>
       <c r="AZ714" s="1"/>
     </row>
-    <row r="715" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:52" ht="15.75" customHeight="1">
       <c r="A715" s="1"/>
       <c r="B715" s="1"/>
       <c r="C715" s="1"/>
@@ -39974,7 +39991,7 @@
       <c r="AY715" s="1"/>
       <c r="AZ715" s="1"/>
     </row>
-    <row r="716" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:52" ht="15.75" customHeight="1">
       <c r="A716" s="1"/>
       <c r="B716" s="1"/>
       <c r="C716" s="1"/>
@@ -40028,7 +40045,7 @@
       <c r="AY716" s="1"/>
       <c r="AZ716" s="1"/>
     </row>
-    <row r="717" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:52" ht="15.75" customHeight="1">
       <c r="A717" s="1"/>
       <c r="B717" s="1"/>
       <c r="C717" s="1"/>
@@ -40082,7 +40099,7 @@
       <c r="AY717" s="1"/>
       <c r="AZ717" s="1"/>
     </row>
-    <row r="718" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:52" ht="15.75" customHeight="1">
       <c r="A718" s="1"/>
       <c r="B718" s="1"/>
       <c r="C718" s="1"/>
@@ -40136,7 +40153,7 @@
       <c r="AY718" s="1"/>
       <c r="AZ718" s="1"/>
     </row>
-    <row r="719" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:52" ht="15.75" customHeight="1">
       <c r="A719" s="1"/>
       <c r="B719" s="1"/>
       <c r="C719" s="1"/>
@@ -40190,7 +40207,7 @@
       <c r="AY719" s="1"/>
       <c r="AZ719" s="1"/>
     </row>
-    <row r="720" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:52" ht="15.75" customHeight="1">
       <c r="A720" s="1"/>
       <c r="B720" s="1"/>
       <c r="C720" s="1"/>
@@ -40244,7 +40261,7 @@
       <c r="AY720" s="1"/>
       <c r="AZ720" s="1"/>
     </row>
-    <row r="721" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:52" ht="15.75" customHeight="1">
       <c r="A721" s="1"/>
       <c r="B721" s="1"/>
       <c r="C721" s="1"/>
@@ -40298,7 +40315,7 @@
       <c r="AY721" s="1"/>
       <c r="AZ721" s="1"/>
     </row>
-    <row r="722" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:52" ht="15.75" customHeight="1">
       <c r="A722" s="1"/>
       <c r="B722" s="1"/>
       <c r="C722" s="1"/>
@@ -40352,7 +40369,7 @@
       <c r="AY722" s="1"/>
       <c r="AZ722" s="1"/>
     </row>
-    <row r="723" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:52" ht="15.75" customHeight="1">
       <c r="A723" s="1"/>
       <c r="B723" s="1"/>
       <c r="C723" s="1"/>
@@ -40406,7 +40423,7 @@
       <c r="AY723" s="1"/>
       <c r="AZ723" s="1"/>
     </row>
-    <row r="724" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:52" ht="15.75" customHeight="1">
       <c r="A724" s="1"/>
       <c r="B724" s="1"/>
       <c r="C724" s="1"/>
@@ -40460,7 +40477,7 @@
       <c r="AY724" s="1"/>
       <c r="AZ724" s="1"/>
     </row>
-    <row r="725" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:52" ht="15.75" customHeight="1">
       <c r="A725" s="1"/>
       <c r="B725" s="1"/>
       <c r="C725" s="1"/>
@@ -40514,7 +40531,7 @@
       <c r="AY725" s="1"/>
       <c r="AZ725" s="1"/>
     </row>
-    <row r="726" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:52" ht="15.75" customHeight="1">
       <c r="A726" s="1"/>
       <c r="B726" s="1"/>
       <c r="C726" s="1"/>
@@ -40568,7 +40585,7 @@
       <c r="AY726" s="1"/>
       <c r="AZ726" s="1"/>
     </row>
-    <row r="727" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:52" ht="15.75" customHeight="1">
       <c r="A727" s="1"/>
       <c r="B727" s="1"/>
       <c r="C727" s="1"/>
@@ -40622,7 +40639,7 @@
       <c r="AY727" s="1"/>
       <c r="AZ727" s="1"/>
     </row>
-    <row r="728" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:52" ht="15.75" customHeight="1">
       <c r="A728" s="1"/>
       <c r="B728" s="1"/>
       <c r="C728" s="1"/>
@@ -40676,7 +40693,7 @@
       <c r="AY728" s="1"/>
       <c r="AZ728" s="1"/>
     </row>
-    <row r="729" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:52" ht="15.75" customHeight="1">
       <c r="A729" s="1"/>
       <c r="B729" s="1"/>
       <c r="C729" s="1"/>
@@ -40730,7 +40747,7 @@
       <c r="AY729" s="1"/>
       <c r="AZ729" s="1"/>
     </row>
-    <row r="730" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:52" ht="15.75" customHeight="1">
       <c r="A730" s="1"/>
       <c r="B730" s="1"/>
       <c r="C730" s="1"/>
@@ -40784,7 +40801,7 @@
       <c r="AY730" s="1"/>
       <c r="AZ730" s="1"/>
     </row>
-    <row r="731" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:52" ht="15.75" customHeight="1">
       <c r="A731" s="1"/>
       <c r="B731" s="1"/>
       <c r="C731" s="1"/>
@@ -40838,7 +40855,7 @@
       <c r="AY731" s="1"/>
       <c r="AZ731" s="1"/>
     </row>
-    <row r="732" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:52" ht="15.75" customHeight="1">
       <c r="A732" s="1"/>
       <c r="B732" s="1"/>
       <c r="C732" s="1"/>
@@ -40892,7 +40909,7 @@
       <c r="AY732" s="1"/>
       <c r="AZ732" s="1"/>
     </row>
-    <row r="733" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:52" ht="15.75" customHeight="1">
       <c r="A733" s="1"/>
       <c r="B733" s="1"/>
       <c r="C733" s="1"/>
@@ -40946,7 +40963,7 @@
       <c r="AY733" s="1"/>
       <c r="AZ733" s="1"/>
     </row>
-    <row r="734" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:52" ht="15.75" customHeight="1">
       <c r="A734" s="1"/>
       <c r="B734" s="1"/>
       <c r="C734" s="1"/>
@@ -41000,7 +41017,7 @@
       <c r="AY734" s="1"/>
       <c r="AZ734" s="1"/>
     </row>
-    <row r="735" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:52" ht="15.75" customHeight="1">
       <c r="A735" s="1"/>
       <c r="B735" s="1"/>
       <c r="C735" s="1"/>
@@ -41054,7 +41071,7 @@
       <c r="AY735" s="1"/>
       <c r="AZ735" s="1"/>
     </row>
-    <row r="736" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:52" ht="15.75" customHeight="1">
       <c r="A736" s="1"/>
       <c r="B736" s="1"/>
       <c r="C736" s="1"/>
@@ -41108,7 +41125,7 @@
       <c r="AY736" s="1"/>
       <c r="AZ736" s="1"/>
     </row>
-    <row r="737" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:52" ht="15.75" customHeight="1">
       <c r="A737" s="1"/>
       <c r="B737" s="1"/>
       <c r="C737" s="1"/>
@@ -41162,7 +41179,7 @@
       <c r="AY737" s="1"/>
       <c r="AZ737" s="1"/>
     </row>
-    <row r="738" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:52" ht="15.75" customHeight="1">
       <c r="A738" s="1"/>
       <c r="B738" s="1"/>
       <c r="C738" s="1"/>
@@ -41216,7 +41233,7 @@
       <c r="AY738" s="1"/>
       <c r="AZ738" s="1"/>
     </row>
-    <row r="739" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:52" ht="15.75" customHeight="1">
       <c r="A739" s="1"/>
       <c r="B739" s="1"/>
       <c r="C739" s="1"/>
@@ -41270,7 +41287,7 @@
       <c r="AY739" s="1"/>
       <c r="AZ739" s="1"/>
     </row>
-    <row r="740" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:52" ht="15.75" customHeight="1">
       <c r="A740" s="1"/>
       <c r="B740" s="1"/>
       <c r="C740" s="1"/>
@@ -41324,7 +41341,7 @@
       <c r="AY740" s="1"/>
       <c r="AZ740" s="1"/>
     </row>
-    <row r="741" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:52" ht="15.75" customHeight="1">
       <c r="A741" s="1"/>
       <c r="B741" s="1"/>
       <c r="C741" s="1"/>
@@ -41378,7 +41395,7 @@
       <c r="AY741" s="1"/>
       <c r="AZ741" s="1"/>
     </row>
-    <row r="742" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:52" ht="15.75" customHeight="1">
       <c r="A742" s="1"/>
       <c r="B742" s="1"/>
       <c r="C742" s="1"/>
@@ -41432,7 +41449,7 @@
       <c r="AY742" s="1"/>
       <c r="AZ742" s="1"/>
     </row>
-    <row r="743" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:52" ht="15.75" customHeight="1">
       <c r="A743" s="1"/>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
@@ -41486,7 +41503,7 @@
       <c r="AY743" s="1"/>
       <c r="AZ743" s="1"/>
     </row>
-    <row r="744" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:52" ht="15.75" customHeight="1">
       <c r="A744" s="1"/>
       <c r="B744" s="1"/>
       <c r="C744" s="1"/>
@@ -41540,7 +41557,7 @@
       <c r="AY744" s="1"/>
       <c r="AZ744" s="1"/>
     </row>
-    <row r="745" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:52" ht="15.75" customHeight="1">
       <c r="A745" s="1"/>
       <c r="B745" s="1"/>
       <c r="C745" s="1"/>
@@ -41594,7 +41611,7 @@
       <c r="AY745" s="1"/>
       <c r="AZ745" s="1"/>
     </row>
-    <row r="746" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:52" ht="15.75" customHeight="1">
       <c r="A746" s="1"/>
       <c r="B746" s="1"/>
       <c r="C746" s="1"/>
@@ -41648,7 +41665,7 @@
       <c r="AY746" s="1"/>
       <c r="AZ746" s="1"/>
     </row>
-    <row r="747" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:52" ht="15.75" customHeight="1">
       <c r="A747" s="1"/>
       <c r="B747" s="1"/>
       <c r="C747" s="1"/>
@@ -41702,7 +41719,7 @@
       <c r="AY747" s="1"/>
       <c r="AZ747" s="1"/>
     </row>
-    <row r="748" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:52" ht="15.75" customHeight="1">
       <c r="A748" s="1"/>
       <c r="B748" s="1"/>
       <c r="C748" s="1"/>
@@ -41756,7 +41773,7 @@
       <c r="AY748" s="1"/>
       <c r="AZ748" s="1"/>
     </row>
-    <row r="749" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:52" ht="15.75" customHeight="1">
       <c r="A749" s="1"/>
       <c r="B749" s="1"/>
       <c r="C749" s="1"/>
@@ -41810,7 +41827,7 @@
       <c r="AY749" s="1"/>
       <c r="AZ749" s="1"/>
     </row>
-    <row r="750" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:52" ht="15.75" customHeight="1">
       <c r="A750" s="1"/>
       <c r="B750" s="1"/>
       <c r="C750" s="1"/>
@@ -41864,7 +41881,7 @@
       <c r="AY750" s="1"/>
       <c r="AZ750" s="1"/>
     </row>
-    <row r="751" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:52" ht="15.75" customHeight="1">
       <c r="A751" s="1"/>
       <c r="B751" s="1"/>
       <c r="C751" s="1"/>
@@ -41918,7 +41935,7 @@
       <c r="AY751" s="1"/>
       <c r="AZ751" s="1"/>
     </row>
-    <row r="752" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:52" ht="15.75" customHeight="1">
       <c r="A752" s="1"/>
       <c r="B752" s="1"/>
       <c r="C752" s="1"/>
@@ -41972,7 +41989,7 @@
       <c r="AY752" s="1"/>
       <c r="AZ752" s="1"/>
     </row>
-    <row r="753" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:52" ht="15.75" customHeight="1">
       <c r="A753" s="1"/>
       <c r="B753" s="1"/>
       <c r="C753" s="1"/>
@@ -42026,7 +42043,7 @@
       <c r="AY753" s="1"/>
       <c r="AZ753" s="1"/>
     </row>
-    <row r="754" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:52" ht="15.75" customHeight="1">
       <c r="A754" s="1"/>
       <c r="B754" s="1"/>
       <c r="C754" s="1"/>
@@ -42080,7 +42097,7 @@
       <c r="AY754" s="1"/>
       <c r="AZ754" s="1"/>
     </row>
-    <row r="755" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:52" ht="15.75" customHeight="1">
       <c r="A755" s="1"/>
       <c r="B755" s="1"/>
       <c r="C755" s="1"/>
@@ -42134,7 +42151,7 @@
       <c r="AY755" s="1"/>
       <c r="AZ755" s="1"/>
     </row>
-    <row r="756" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:52" ht="15.75" customHeight="1">
       <c r="A756" s="1"/>
       <c r="B756" s="1"/>
       <c r="C756" s="1"/>
@@ -42188,7 +42205,7 @@
       <c r="AY756" s="1"/>
       <c r="AZ756" s="1"/>
     </row>
-    <row r="757" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:52" ht="15.75" customHeight="1">
       <c r="A757" s="1"/>
       <c r="B757" s="1"/>
       <c r="C757" s="1"/>
@@ -42242,7 +42259,7 @@
       <c r="AY757" s="1"/>
       <c r="AZ757" s="1"/>
     </row>
-    <row r="758" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:52" ht="15.75" customHeight="1">
       <c r="A758" s="1"/>
       <c r="B758" s="1"/>
       <c r="C758" s="1"/>
@@ -42296,7 +42313,7 @@
       <c r="AY758" s="1"/>
       <c r="AZ758" s="1"/>
     </row>
-    <row r="759" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:52" ht="15.75" customHeight="1">
       <c r="A759" s="1"/>
       <c r="B759" s="1"/>
       <c r="C759" s="1"/>
@@ -42350,7 +42367,7 @@
       <c r="AY759" s="1"/>
       <c r="AZ759" s="1"/>
     </row>
-    <row r="760" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:52" ht="15.75" customHeight="1">
       <c r="A760" s="1"/>
       <c r="B760" s="1"/>
       <c r="C760" s="1"/>
@@ -42404,7 +42421,7 @@
       <c r="AY760" s="1"/>
       <c r="AZ760" s="1"/>
     </row>
-    <row r="761" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:52" ht="15.75" customHeight="1">
       <c r="A761" s="1"/>
       <c r="B761" s="1"/>
       <c r="C761" s="1"/>
@@ -42458,7 +42475,7 @@
       <c r="AY761" s="1"/>
       <c r="AZ761" s="1"/>
     </row>
-    <row r="762" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:52" ht="15.75" customHeight="1">
       <c r="A762" s="1"/>
       <c r="B762" s="1"/>
       <c r="C762" s="1"/>
@@ -42512,7 +42529,7 @@
       <c r="AY762" s="1"/>
       <c r="AZ762" s="1"/>
     </row>
-    <row r="763" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:52" ht="15.75" customHeight="1">
       <c r="A763" s="1"/>
       <c r="B763" s="1"/>
       <c r="C763" s="1"/>
@@ -42566,7 +42583,7 @@
       <c r="AY763" s="1"/>
       <c r="AZ763" s="1"/>
     </row>
-    <row r="764" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:52" ht="15.75" customHeight="1">
       <c r="A764" s="1"/>
       <c r="B764" s="1"/>
       <c r="C764" s="1"/>
@@ -42620,7 +42637,7 @@
       <c r="AY764" s="1"/>
       <c r="AZ764" s="1"/>
     </row>
-    <row r="765" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:52" ht="15.75" customHeight="1">
       <c r="A765" s="1"/>
       <c r="B765" s="1"/>
       <c r="C765" s="1"/>
@@ -42674,7 +42691,7 @@
       <c r="AY765" s="1"/>
       <c r="AZ765" s="1"/>
     </row>
-    <row r="766" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:52" ht="15.75" customHeight="1">
       <c r="A766" s="1"/>
       <c r="B766" s="1"/>
       <c r="C766" s="1"/>
@@ -42728,7 +42745,7 @@
       <c r="AY766" s="1"/>
       <c r="AZ766" s="1"/>
     </row>
-    <row r="767" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:52" ht="15.75" customHeight="1">
       <c r="A767" s="1"/>
       <c r="B767" s="1"/>
       <c r="C767" s="1"/>
@@ -42782,7 +42799,7 @@
       <c r="AY767" s="1"/>
       <c r="AZ767" s="1"/>
     </row>
-    <row r="768" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:52" ht="15.75" customHeight="1">
       <c r="A768" s="1"/>
       <c r="B768" s="1"/>
       <c r="C768" s="1"/>
@@ -42836,7 +42853,7 @@
       <c r="AY768" s="1"/>
       <c r="AZ768" s="1"/>
     </row>
-    <row r="769" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:52" ht="15.75" customHeight="1">
       <c r="A769" s="1"/>
       <c r="B769" s="1"/>
       <c r="C769" s="1"/>
@@ -42890,7 +42907,7 @@
       <c r="AY769" s="1"/>
       <c r="AZ769" s="1"/>
     </row>
-    <row r="770" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:52" ht="15.75" customHeight="1">
       <c r="A770" s="1"/>
       <c r="B770" s="1"/>
       <c r="C770" s="1"/>
@@ -42944,7 +42961,7 @@
       <c r="AY770" s="1"/>
       <c r="AZ770" s="1"/>
     </row>
-    <row r="771" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:52" ht="15.75" customHeight="1">
       <c r="A771" s="1"/>
       <c r="B771" s="1"/>
       <c r="C771" s="1"/>
@@ -42998,7 +43015,7 @@
       <c r="AY771" s="1"/>
       <c r="AZ771" s="1"/>
     </row>
-    <row r="772" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:52" ht="15.75" customHeight="1">
       <c r="A772" s="1"/>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
@@ -43052,7 +43069,7 @@
       <c r="AY772" s="1"/>
       <c r="AZ772" s="1"/>
     </row>
-    <row r="773" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:52" ht="15.75" customHeight="1">
       <c r="A773" s="1"/>
       <c r="B773" s="1"/>
       <c r="C773" s="1"/>
@@ -43106,7 +43123,7 @@
       <c r="AY773" s="1"/>
       <c r="AZ773" s="1"/>
     </row>
-    <row r="774" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:52" ht="15.75" customHeight="1">
       <c r="A774" s="1"/>
       <c r="B774" s="1"/>
       <c r="C774" s="1"/>
@@ -43160,7 +43177,7 @@
       <c r="AY774" s="1"/>
       <c r="AZ774" s="1"/>
     </row>
-    <row r="775" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:52" ht="15.75" customHeight="1">
       <c r="A775" s="1"/>
       <c r="B775" s="1"/>
       <c r="C775" s="1"/>
@@ -43214,7 +43231,7 @@
       <c r="AY775" s="1"/>
       <c r="AZ775" s="1"/>
     </row>
-    <row r="776" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:52" ht="15.75" customHeight="1">
       <c r="A776" s="1"/>
       <c r="B776" s="1"/>
       <c r="C776" s="1"/>
@@ -43268,7 +43285,7 @@
       <c r="AY776" s="1"/>
       <c r="AZ776" s="1"/>
     </row>
-    <row r="777" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:52" ht="15.75" customHeight="1">
       <c r="A777" s="1"/>
       <c r="B777" s="1"/>
       <c r="C777" s="1"/>
@@ -43322,7 +43339,7 @@
       <c r="AY777" s="1"/>
       <c r="AZ777" s="1"/>
     </row>
-    <row r="778" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:52" ht="15.75" customHeight="1">
       <c r="A778" s="1"/>
       <c r="B778" s="1"/>
       <c r="C778" s="1"/>
@@ -43376,7 +43393,7 @@
       <c r="AY778" s="1"/>
       <c r="AZ778" s="1"/>
     </row>
-    <row r="779" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:52" ht="15.75" customHeight="1">
       <c r="A779" s="1"/>
       <c r="B779" s="1"/>
       <c r="C779" s="1"/>
@@ -43430,7 +43447,7 @@
       <c r="AY779" s="1"/>
       <c r="AZ779" s="1"/>
     </row>
-    <row r="780" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:52" ht="15.75" customHeight="1">
       <c r="A780" s="1"/>
       <c r="B780" s="1"/>
       <c r="C780" s="1"/>
@@ -43484,7 +43501,7 @@
       <c r="AY780" s="1"/>
       <c r="AZ780" s="1"/>
     </row>
-    <row r="781" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:52" ht="15.75" customHeight="1">
       <c r="A781" s="1"/>
       <c r="B781" s="1"/>
       <c r="C781" s="1"/>
@@ -43538,7 +43555,7 @@
       <c r="AY781" s="1"/>
       <c r="AZ781" s="1"/>
     </row>
-    <row r="782" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:52" ht="15.75" customHeight="1">
       <c r="A782" s="1"/>
       <c r="B782" s="1"/>
       <c r="C782" s="1"/>
@@ -43592,7 +43609,7 @@
       <c r="AY782" s="1"/>
       <c r="AZ782" s="1"/>
     </row>
-    <row r="783" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:52" ht="15.75" customHeight="1">
       <c r="A783" s="1"/>
       <c r="B783" s="1"/>
       <c r="C783" s="1"/>
@@ -43646,7 +43663,7 @@
       <c r="AY783" s="1"/>
       <c r="AZ783" s="1"/>
     </row>
-    <row r="784" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:52" ht="15.75" customHeight="1">
       <c r="A784" s="1"/>
       <c r="B784" s="1"/>
       <c r="C784" s="1"/>
@@ -43700,7 +43717,7 @@
       <c r="AY784" s="1"/>
       <c r="AZ784" s="1"/>
     </row>
-    <row r="785" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:52" ht="15.75" customHeight="1">
       <c r="A785" s="1"/>
       <c r="B785" s="1"/>
       <c r="C785" s="1"/>
@@ -43754,7 +43771,7 @@
       <c r="AY785" s="1"/>
       <c r="AZ785" s="1"/>
     </row>
-    <row r="786" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:52" ht="15.75" customHeight="1">
       <c r="A786" s="1"/>
       <c r="B786" s="1"/>
       <c r="C786" s="1"/>
@@ -43808,7 +43825,7 @@
       <c r="AY786" s="1"/>
       <c r="AZ786" s="1"/>
     </row>
-    <row r="787" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:52" ht="15.75" customHeight="1">
       <c r="A787" s="1"/>
       <c r="B787" s="1"/>
       <c r="C787" s="1"/>
@@ -43862,7 +43879,7 @@
       <c r="AY787" s="1"/>
       <c r="AZ787" s="1"/>
     </row>
-    <row r="788" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:52" ht="15.75" customHeight="1">
       <c r="A788" s="1"/>
       <c r="B788" s="1"/>
       <c r="C788" s="1"/>
@@ -43916,7 +43933,7 @@
       <c r="AY788" s="1"/>
       <c r="AZ788" s="1"/>
     </row>
-    <row r="789" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:52" ht="15.75" customHeight="1">
       <c r="A789" s="1"/>
       <c r="B789" s="1"/>
       <c r="C789" s="1"/>
@@ -43970,7 +43987,7 @@
       <c r="AY789" s="1"/>
       <c r="AZ789" s="1"/>
     </row>
-    <row r="790" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:52" ht="15.75" customHeight="1">
       <c r="A790" s="1"/>
       <c r="B790" s="1"/>
       <c r="C790" s="1"/>
@@ -44024,7 +44041,7 @@
       <c r="AY790" s="1"/>
       <c r="AZ790" s="1"/>
     </row>
-    <row r="791" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:52" ht="15.75" customHeight="1">
       <c r="A791" s="1"/>
       <c r="B791" s="1"/>
       <c r="C791" s="1"/>
@@ -44078,7 +44095,7 @@
       <c r="AY791" s="1"/>
       <c r="AZ791" s="1"/>
     </row>
-    <row r="792" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:52" ht="15.75" customHeight="1">
       <c r="A792" s="1"/>
       <c r="B792" s="1"/>
       <c r="C792" s="1"/>
@@ -44132,7 +44149,7 @@
       <c r="AY792" s="1"/>
       <c r="AZ792" s="1"/>
     </row>
-    <row r="793" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:52" ht="15.75" customHeight="1">
       <c r="A793" s="1"/>
       <c r="B793" s="1"/>
       <c r="C793" s="1"/>
@@ -44186,7 +44203,7 @@
       <c r="AY793" s="1"/>
       <c r="AZ793" s="1"/>
     </row>
-    <row r="794" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:52" ht="15.75" customHeight="1">
       <c r="A794" s="1"/>
       <c r="B794" s="1"/>
       <c r="C794" s="1"/>
@@ -44240,7 +44257,7 @@
       <c r="AY794" s="1"/>
       <c r="AZ794" s="1"/>
     </row>
-    <row r="795" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:52" ht="15.75" customHeight="1">
       <c r="A795" s="1"/>
       <c r="B795" s="1"/>
       <c r="C795" s="1"/>
@@ -44294,7 +44311,7 @@
       <c r="AY795" s="1"/>
       <c r="AZ795" s="1"/>
     </row>
-    <row r="796" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:52" ht="15.75" customHeight="1">
       <c r="A796" s="1"/>
       <c r="B796" s="1"/>
       <c r="C796" s="1"/>
@@ -44348,7 +44365,7 @@
       <c r="AY796" s="1"/>
       <c r="AZ796" s="1"/>
     </row>
-    <row r="797" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:52" ht="15.75" customHeight="1">
       <c r="A797" s="1"/>
       <c r="B797" s="1"/>
       <c r="C797" s="1"/>
@@ -44402,7 +44419,7 @@
       <c r="AY797" s="1"/>
       <c r="AZ797" s="1"/>
     </row>
-    <row r="798" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:52" ht="15.75" customHeight="1">
       <c r="A798" s="1"/>
       <c r="B798" s="1"/>
       <c r="C798" s="1"/>
@@ -44456,7 +44473,7 @@
       <c r="AY798" s="1"/>
       <c r="AZ798" s="1"/>
     </row>
-    <row r="799" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:52" ht="15.75" customHeight="1">
       <c r="A799" s="1"/>
       <c r="B799" s="1"/>
       <c r="C799" s="1"/>
@@ -44510,7 +44527,7 @@
       <c r="AY799" s="1"/>
       <c r="AZ799" s="1"/>
     </row>
-    <row r="800" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:52" ht="15.75" customHeight="1">
       <c r="A800" s="1"/>
       <c r="B800" s="1"/>
       <c r="C800" s="1"/>
@@ -44564,7 +44581,7 @@
       <c r="AY800" s="1"/>
       <c r="AZ800" s="1"/>
     </row>
-    <row r="801" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:52" ht="15.75" customHeight="1">
       <c r="A801" s="1"/>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
@@ -44618,7 +44635,7 @@
       <c r="AY801" s="1"/>
       <c r="AZ801" s="1"/>
     </row>
-    <row r="802" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:52" ht="15.75" customHeight="1">
       <c r="A802" s="1"/>
       <c r="B802" s="1"/>
       <c r="C802" s="1"/>
@@ -44672,7 +44689,7 @@
       <c r="AY802" s="1"/>
       <c r="AZ802" s="1"/>
     </row>
-    <row r="803" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:52" ht="15.75" customHeight="1">
       <c r="A803" s="1"/>
       <c r="B803" s="1"/>
       <c r="C803" s="1"/>
@@ -44726,7 +44743,7 @@
       <c r="AY803" s="1"/>
       <c r="AZ803" s="1"/>
     </row>
-    <row r="804" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:52" ht="15.75" customHeight="1">
       <c r="A804" s="1"/>
       <c r="B804" s="1"/>
       <c r="C804" s="1"/>
@@ -44780,7 +44797,7 @@
       <c r="AY804" s="1"/>
       <c r="AZ804" s="1"/>
     </row>
-    <row r="805" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:52" ht="15.75" customHeight="1">
       <c r="A805" s="1"/>
       <c r="B805" s="1"/>
       <c r="C805" s="1"/>
@@ -44834,7 +44851,7 @@
       <c r="AY805" s="1"/>
       <c r="AZ805" s="1"/>
     </row>
-    <row r="806" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:52" ht="15.75" customHeight="1">
       <c r="A806" s="1"/>
       <c r="B806" s="1"/>
       <c r="C806" s="1"/>
@@ -44888,7 +44905,7 @@
       <c r="AY806" s="1"/>
       <c r="AZ806" s="1"/>
     </row>
-    <row r="807" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:52" ht="15.75" customHeight="1">
       <c r="A807" s="1"/>
       <c r="B807" s="1"/>
       <c r="C807" s="1"/>
@@ -44942,7 +44959,7 @@
       <c r="AY807" s="1"/>
       <c r="AZ807" s="1"/>
     </row>
-    <row r="808" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:52" ht="15.75" customHeight="1">
       <c r="A808" s="1"/>
       <c r="B808" s="1"/>
       <c r="C808" s="1"/>
@@ -44996,7 +45013,7 @@
       <c r="AY808" s="1"/>
       <c r="AZ808" s="1"/>
     </row>
-    <row r="809" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:52" ht="15.75" customHeight="1">
       <c r="A809" s="1"/>
       <c r="B809" s="1"/>
       <c r="C809" s="1"/>
@@ -45050,7 +45067,7 @@
       <c r="AY809" s="1"/>
       <c r="AZ809" s="1"/>
     </row>
-    <row r="810" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:52" ht="15.75" customHeight="1">
       <c r="A810" s="1"/>
       <c r="B810" s="1"/>
       <c r="C810" s="1"/>
@@ -45104,7 +45121,7 @@
       <c r="AY810" s="1"/>
       <c r="AZ810" s="1"/>
     </row>
-    <row r="811" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:52" ht="15.75" customHeight="1">
       <c r="A811" s="1"/>
       <c r="B811" s="1"/>
       <c r="C811" s="1"/>
@@ -45158,7 +45175,7 @@
       <c r="AY811" s="1"/>
       <c r="AZ811" s="1"/>
     </row>
-    <row r="812" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:52" ht="15.75" customHeight="1">
       <c r="A812" s="1"/>
       <c r="B812" s="1"/>
       <c r="C812" s="1"/>
@@ -45212,7 +45229,7 @@
       <c r="AY812" s="1"/>
       <c r="AZ812" s="1"/>
     </row>
-    <row r="813" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:52" ht="15.75" customHeight="1">
       <c r="A813" s="1"/>
       <c r="B813" s="1"/>
       <c r="C813" s="1"/>
@@ -45266,7 +45283,7 @@
       <c r="AY813" s="1"/>
       <c r="AZ813" s="1"/>
     </row>
-    <row r="814" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:52" ht="15.75" customHeight="1">
       <c r="A814" s="1"/>
       <c r="B814" s="1"/>
       <c r="C814" s="1"/>
@@ -45320,7 +45337,7 @@
       <c r="AY814" s="1"/>
       <c r="AZ814" s="1"/>
     </row>
-    <row r="815" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:52" ht="15.75" customHeight="1">
       <c r="A815" s="1"/>
       <c r="B815" s="1"/>
       <c r="C815" s="1"/>
@@ -45374,7 +45391,7 @@
       <c r="AY815" s="1"/>
       <c r="AZ815" s="1"/>
     </row>
-    <row r="816" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:52" ht="15.75" customHeight="1">
       <c r="A816" s="1"/>
       <c r="B816" s="1"/>
       <c r="C816" s="1"/>
@@ -45428,7 +45445,7 @@
       <c r="AY816" s="1"/>
       <c r="AZ816" s="1"/>
     </row>
-    <row r="817" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:52" ht="15.75" customHeight="1">
       <c r="A817" s="1"/>
       <c r="B817" s="1"/>
       <c r="C817" s="1"/>
@@ -45482,7 +45499,7 @@
       <c r="AY817" s="1"/>
       <c r="AZ817" s="1"/>
     </row>
-    <row r="818" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:52" ht="15.75" customHeight="1">
       <c r="A818" s="1"/>
       <c r="B818" s="1"/>
       <c r="C818" s="1"/>
@@ -45536,7 +45553,7 @@
       <c r="AY818" s="1"/>
       <c r="AZ818" s="1"/>
     </row>
-    <row r="819" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:52" ht="15.75" customHeight="1">
       <c r="A819" s="1"/>
       <c r="B819" s="1"/>
       <c r="C819" s="1"/>
@@ -45590,7 +45607,7 @@
       <c r="AY819" s="1"/>
       <c r="AZ819" s="1"/>
     </row>
-    <row r="820" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:52" ht="15.75" customHeight="1">
       <c r="A820" s="1"/>
       <c r="B820" s="1"/>
       <c r="C820" s="1"/>
@@ -45644,7 +45661,7 @@
       <c r="AY820" s="1"/>
       <c r="AZ820" s="1"/>
     </row>
-    <row r="821" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:52" ht="15.75" customHeight="1">
       <c r="A821" s="1"/>
       <c r="B821" s="1"/>
       <c r="C821" s="1"/>
@@ -45698,7 +45715,7 @@
       <c r="AY821" s="1"/>
       <c r="AZ821" s="1"/>
     </row>
-    <row r="822" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:52" ht="15.75" customHeight="1">
       <c r="A822" s="1"/>
       <c r="B822" s="1"/>
       <c r="C822" s="1"/>
@@ -45752,7 +45769,7 @@
       <c r="AY822" s="1"/>
       <c r="AZ822" s="1"/>
     </row>
-    <row r="823" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:52" ht="15.75" customHeight="1">
       <c r="A823" s="1"/>
       <c r="B823" s="1"/>
       <c r="C823" s="1"/>
@@ -45806,7 +45823,7 @@
       <c r="AY823" s="1"/>
       <c r="AZ823" s="1"/>
     </row>
-    <row r="824" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:52" ht="15.75" customHeight="1">
       <c r="A824" s="1"/>
       <c r="B824" s="1"/>
       <c r="C824" s="1"/>
@@ -45860,7 +45877,7 @@
       <c r="AY824" s="1"/>
       <c r="AZ824" s="1"/>
     </row>
-    <row r="825" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:52" ht="15.75" customHeight="1">
       <c r="A825" s="1"/>
       <c r="B825" s="1"/>
       <c r="C825" s="1"/>
@@ -45914,7 +45931,7 @@
       <c r="AY825" s="1"/>
       <c r="AZ825" s="1"/>
     </row>
-    <row r="826" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:52" ht="15.75" customHeight="1">
       <c r="A826" s="1"/>
       <c r="B826" s="1"/>
       <c r="C826" s="1"/>
@@ -45968,7 +45985,7 @@
       <c r="AY826" s="1"/>
       <c r="AZ826" s="1"/>
     </row>
-    <row r="827" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:52" ht="15.75" customHeight="1">
       <c r="A827" s="1"/>
       <c r="B827" s="1"/>
       <c r="C827" s="1"/>
@@ -46022,7 +46039,7 @@
       <c r="AY827" s="1"/>
       <c r="AZ827" s="1"/>
     </row>
-    <row r="828" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:52" ht="15.75" customHeight="1">
       <c r="A828" s="1"/>
       <c r="B828" s="1"/>
       <c r="C828" s="1"/>
@@ -46076,7 +46093,7 @@
       <c r="AY828" s="1"/>
       <c r="AZ828" s="1"/>
     </row>
-    <row r="829" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:52" ht="15.75" customHeight="1">
       <c r="A829" s="1"/>
       <c r="B829" s="1"/>
       <c r="C829" s="1"/>
@@ -46130,7 +46147,7 @@
       <c r="AY829" s="1"/>
       <c r="AZ829" s="1"/>
     </row>
-    <row r="830" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:52" ht="15.75" customHeight="1">
       <c r="A830" s="1"/>
       <c r="B830" s="1"/>
       <c r="C830" s="1"/>
@@ -46184,7 +46201,7 @@
       <c r="AY830" s="1"/>
       <c r="AZ830" s="1"/>
     </row>
-    <row r="831" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:52" ht="15.75" customHeight="1">
       <c r="A831" s="1"/>
       <c r="B831" s="1"/>
       <c r="C831" s="1"/>
@@ -46238,7 +46255,7 @@
       <c r="AY831" s="1"/>
       <c r="AZ831" s="1"/>
     </row>
-    <row r="832" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:52" ht="15.75" customHeight="1">
       <c r="A832" s="1"/>
       <c r="B832" s="1"/>
       <c r="C832" s="1"/>
@@ -46292,7 +46309,7 @@
       <c r="AY832" s="1"/>
       <c r="AZ832" s="1"/>
     </row>
-    <row r="833" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:52" ht="15.75" customHeight="1">
       <c r="A833" s="1"/>
       <c r="B833" s="1"/>
       <c r="C833" s="1"/>
@@ -46346,7 +46363,7 @@
       <c r="AY833" s="1"/>
       <c r="AZ833" s="1"/>
     </row>
-    <row r="834" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:52" ht="15.75" customHeight="1">
       <c r="A834" s="1"/>
       <c r="B834" s="1"/>
       <c r="C834" s="1"/>
@@ -46400,7 +46417,7 @@
       <c r="AY834" s="1"/>
       <c r="AZ834" s="1"/>
     </row>
-    <row r="835" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:52" ht="15.75" customHeight="1">
       <c r="A835" s="1"/>
       <c r="B835" s="1"/>
       <c r="C835" s="1"/>
@@ -46454,7 +46471,7 @@
       <c r="AY835" s="1"/>
       <c r="AZ835" s="1"/>
     </row>
-    <row r="836" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:52" ht="15.75" customHeight="1">
       <c r="A836" s="1"/>
       <c r="B836" s="1"/>
       <c r="C836" s="1"/>
@@ -46508,7 +46525,7 @@
       <c r="AY836" s="1"/>
       <c r="AZ836" s="1"/>
     </row>
-    <row r="837" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:52" ht="15.75" customHeight="1">
       <c r="A837" s="1"/>
       <c r="B837" s="1"/>
       <c r="C837" s="1"/>
@@ -46562,7 +46579,7 @@
       <c r="AY837" s="1"/>
       <c r="AZ837" s="1"/>
     </row>
-    <row r="838" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:52" ht="15.75" customHeight="1">
       <c r="A838" s="1"/>
       <c r="B838" s="1"/>
       <c r="C838" s="1"/>
@@ -46616,7 +46633,7 @@
       <c r="AY838" s="1"/>
       <c r="AZ838" s="1"/>
     </row>
-    <row r="839" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:52" ht="15.75" customHeight="1">
       <c r="A839" s="1"/>
       <c r="B839" s="1"/>
       <c r="C839" s="1"/>
@@ -46670,7 +46687,7 @@
       <c r="AY839" s="1"/>
       <c r="AZ839" s="1"/>
     </row>
-    <row r="840" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:52" ht="15.75" customHeight="1">
       <c r="A840" s="1"/>
       <c r="B840" s="1"/>
       <c r="C840" s="1"/>
@@ -46724,7 +46741,7 @@
       <c r="AY840" s="1"/>
       <c r="AZ840" s="1"/>
     </row>
-    <row r="841" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:52" ht="15.75" customHeight="1">
       <c r="A841" s="1"/>
       <c r="B841" s="1"/>
       <c r="C841" s="1"/>
@@ -46778,7 +46795,7 @@
       <c r="AY841" s="1"/>
       <c r="AZ841" s="1"/>
     </row>
-    <row r="842" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:52" ht="15.75" customHeight="1">
       <c r="A842" s="1"/>
       <c r="B842" s="1"/>
       <c r="C842" s="1"/>
@@ -46832,7 +46849,7 @@
       <c r="AY842" s="1"/>
       <c r="AZ842" s="1"/>
     </row>
-    <row r="843" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:52" ht="15.75" customHeight="1">
       <c r="A843" s="1"/>
       <c r="B843" s="1"/>
       <c r="C843" s="1"/>
@@ -46886,7 +46903,7 @@
       <c r="AY843" s="1"/>
       <c r="AZ843" s="1"/>
     </row>
-    <row r="844" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:52" ht="15.75" customHeight="1">
       <c r="A844" s="1"/>
       <c r="B844" s="1"/>
       <c r="C844" s="1"/>
@@ -46940,7 +46957,7 @@
       <c r="AY844" s="1"/>
       <c r="AZ844" s="1"/>
     </row>
-    <row r="845" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:52" ht="15.75" customHeight="1">
       <c r="A845" s="1"/>
       <c r="B845" s="1"/>
       <c r="C845" s="1"/>
@@ -46994,7 +47011,7 @@
       <c r="AY845" s="1"/>
       <c r="AZ845" s="1"/>
     </row>
-    <row r="846" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:52" ht="15.75" customHeight="1">
       <c r="A846" s="1"/>
       <c r="B846" s="1"/>
       <c r="C846" s="1"/>
@@ -47048,7 +47065,7 @@
       <c r="AY846" s="1"/>
       <c r="AZ846" s="1"/>
     </row>
-    <row r="847" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:52" ht="15.75" customHeight="1">
       <c r="A847" s="1"/>
       <c r="B847" s="1"/>
       <c r="C847" s="1"/>
@@ -47102,7 +47119,7 @@
       <c r="AY847" s="1"/>
       <c r="AZ847" s="1"/>
     </row>
-    <row r="848" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:52" ht="15.75" customHeight="1">
       <c r="A848" s="1"/>
       <c r="B848" s="1"/>
       <c r="C848" s="1"/>
@@ -47156,7 +47173,7 @@
       <c r="AY848" s="1"/>
       <c r="AZ848" s="1"/>
     </row>
-    <row r="849" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:52" ht="15.75" customHeight="1">
       <c r="A849" s="1"/>
       <c r="B849" s="1"/>
       <c r="C849" s="1"/>
@@ -47210,7 +47227,7 @@
       <c r="AY849" s="1"/>
       <c r="AZ849" s="1"/>
     </row>
-    <row r="850" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:52" ht="15.75" customHeight="1">
       <c r="A850" s="1"/>
       <c r="B850" s="1"/>
       <c r="C850" s="1"/>
@@ -47264,7 +47281,7 @@
       <c r="AY850" s="1"/>
       <c r="AZ850" s="1"/>
     </row>
-    <row r="851" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:52" ht="15.75" customHeight="1">
       <c r="A851" s="1"/>
       <c r="B851" s="1"/>
       <c r="C851" s="1"/>
@@ -47318,7 +47335,7 @@
       <c r="AY851" s="1"/>
       <c r="AZ851" s="1"/>
     </row>
-    <row r="852" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:52" ht="15.75" customHeight="1">
       <c r="A852" s="1"/>
       <c r="B852" s="1"/>
       <c r="C852" s="1"/>
@@ -47372,7 +47389,7 @@
       <c r="AY852" s="1"/>
       <c r="AZ852" s="1"/>
     </row>
-    <row r="853" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:52" ht="15.75" customHeight="1">
       <c r="A853" s="1"/>
       <c r="B853" s="1"/>
       <c r="C853" s="1"/>
@@ -47426,7 +47443,7 @@
       <c r="AY853" s="1"/>
       <c r="AZ853" s="1"/>
     </row>
-    <row r="854" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:52" ht="15.75" customHeight="1">
       <c r="A854" s="1"/>
       <c r="B854" s="1"/>
       <c r="C854" s="1"/>
@@ -47480,7 +47497,7 @@
       <c r="AY854" s="1"/>
       <c r="AZ854" s="1"/>
     </row>
-    <row r="855" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:52" ht="15.75" customHeight="1">
       <c r="A855" s="1"/>
       <c r="B855" s="1"/>
       <c r="C855" s="1"/>
@@ -47534,7 +47551,7 @@
       <c r="AY855" s="1"/>
       <c r="AZ855" s="1"/>
     </row>
-    <row r="856" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:52" ht="15.75" customHeight="1">
       <c r="A856" s="1"/>
       <c r="B856" s="1"/>
       <c r="C856" s="1"/>
@@ -47588,7 +47605,7 @@
       <c r="AY856" s="1"/>
       <c r="AZ856" s="1"/>
     </row>
-    <row r="857" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:52" ht="15.75" customHeight="1">
       <c r="A857" s="1"/>
       <c r="B857" s="1"/>
       <c r="C857" s="1"/>
@@ -47642,7 +47659,7 @@
       <c r="AY857" s="1"/>
       <c r="AZ857" s="1"/>
     </row>
-    <row r="858" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:52" ht="15.75" customHeight="1">
       <c r="A858" s="1"/>
       <c r="B858" s="1"/>
       <c r="C858" s="1"/>
@@ -47696,7 +47713,7 @@
       <c r="AY858" s="1"/>
       <c r="AZ858" s="1"/>
     </row>
-    <row r="859" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:52" ht="15.75" customHeight="1">
       <c r="A859" s="1"/>
       <c r="B859" s="1"/>
       <c r="C859" s="1"/>
@@ -47750,7 +47767,7 @@
       <c r="AY859" s="1"/>
       <c r="AZ859" s="1"/>
     </row>
-    <row r="860" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:52" ht="15.75" customHeight="1">
       <c r="A860" s="1"/>
       <c r="B860" s="1"/>
       <c r="C860" s="1"/>
@@ -47804,7 +47821,7 @@
       <c r="AY860" s="1"/>
       <c r="AZ860" s="1"/>
     </row>
-    <row r="861" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:52" ht="15.75" customHeight="1">
       <c r="A861" s="1"/>
       <c r="B861" s="1"/>
       <c r="C861" s="1"/>
@@ -47858,7 +47875,7 @@
       <c r="AY861" s="1"/>
       <c r="AZ861" s="1"/>
     </row>
-    <row r="862" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:52" ht="15.75" customHeight="1">
       <c r="A862" s="1"/>
       <c r="B862" s="1"/>
       <c r="C862" s="1"/>
@@ -47912,7 +47929,7 @@
       <c r="AY862" s="1"/>
       <c r="AZ862" s="1"/>
     </row>
-    <row r="863" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:52" ht="15.75" customHeight="1">
       <c r="A863" s="1"/>
       <c r="B863" s="1"/>
       <c r="C863" s="1"/>
@@ -47966,7 +47983,7 @@
       <c r="AY863" s="1"/>
       <c r="AZ863" s="1"/>
     </row>
-    <row r="864" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:52" ht="15.75" customHeight="1">
       <c r="A864" s="1"/>
       <c r="B864" s="1"/>
       <c r="C864" s="1"/>
@@ -48020,7 +48037,7 @@
       <c r="AY864" s="1"/>
       <c r="AZ864" s="1"/>
     </row>
-    <row r="865" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:52" ht="15.75" customHeight="1">
       <c r="A865" s="1"/>
       <c r="B865" s="1"/>
       <c r="C865" s="1"/>
@@ -48074,7 +48091,7 @@
       <c r="AY865" s="1"/>
       <c r="AZ865" s="1"/>
     </row>
-    <row r="866" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:52" ht="15.75" customHeight="1">
       <c r="A866" s="1"/>
       <c r="B866" s="1"/>
       <c r="C866" s="1"/>
@@ -48128,7 +48145,7 @@
       <c r="AY866" s="1"/>
       <c r="AZ866" s="1"/>
     </row>
-    <row r="867" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:52" ht="15.75" customHeight="1">
       <c r="A867" s="1"/>
       <c r="B867" s="1"/>
       <c r="C867" s="1"/>
@@ -48182,7 +48199,7 @@
       <c r="AY867" s="1"/>
       <c r="AZ867" s="1"/>
     </row>
-    <row r="868" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:52" ht="15.75" customHeight="1">
       <c r="A868" s="1"/>
       <c r="B868" s="1"/>
       <c r="C868" s="1"/>
@@ -48236,7 +48253,7 @@
       <c r="AY868" s="1"/>
       <c r="AZ868" s="1"/>
     </row>
-    <row r="869" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:52" ht="15.75" customHeight="1">
       <c r="A869" s="1"/>
       <c r="B869" s="1"/>
       <c r="C869" s="1"/>
@@ -48290,7 +48307,7 @@
       <c r="AY869" s="1"/>
       <c r="AZ869" s="1"/>
     </row>
-    <row r="870" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:52" ht="15.75" customHeight="1">
       <c r="A870" s="1"/>
       <c r="B870" s="1"/>
       <c r="C870" s="1"/>
@@ -48344,7 +48361,7 @@
       <c r="AY870" s="1"/>
       <c r="AZ870" s="1"/>
     </row>
-    <row r="871" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:52" ht="15.75" customHeight="1">
       <c r="A871" s="1"/>
       <c r="B871" s="1"/>
       <c r="C871" s="1"/>
@@ -48398,7 +48415,7 @@
       <c r="AY871" s="1"/>
       <c r="AZ871" s="1"/>
     </row>
-    <row r="872" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:52" ht="15.75" customHeight="1">
       <c r="A872" s="1"/>
       <c r="B872" s="1"/>
       <c r="C872" s="1"/>
@@ -48452,7 +48469,7 @@
       <c r="AY872" s="1"/>
       <c r="AZ872" s="1"/>
     </row>
-    <row r="873" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:52" ht="15.75" customHeight="1">
       <c r="A873" s="1"/>
       <c r="B873" s="1"/>
       <c r="C873" s="1"/>
@@ -48506,7 +48523,7 @@
       <c r="AY873" s="1"/>
       <c r="AZ873" s="1"/>
     </row>
-    <row r="874" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:52" ht="15.75" customHeight="1">
       <c r="A874" s="1"/>
       <c r="B874" s="1"/>
       <c r="C874" s="1"/>
@@ -48560,7 +48577,7 @@
       <c r="AY874" s="1"/>
       <c r="AZ874" s="1"/>
     </row>
-    <row r="875" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:52" ht="15.75" customHeight="1">
       <c r="A875" s="1"/>
       <c r="B875" s="1"/>
       <c r="C875" s="1"/>
@@ -48614,7 +48631,7 @@
       <c r="AY875" s="1"/>
       <c r="AZ875" s="1"/>
     </row>
-    <row r="876" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:52" ht="15.75" customHeight="1">
       <c r="A876" s="1"/>
       <c r="B876" s="1"/>
       <c r="C876" s="1"/>
@@ -48668,7 +48685,7 @@
       <c r="AY876" s="1"/>
       <c r="AZ876" s="1"/>
     </row>
-    <row r="877" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:52" ht="15.75" customHeight="1">
       <c r="A877" s="1"/>
       <c r="B877" s="1"/>
       <c r="C877" s="1"/>
@@ -48722,7 +48739,7 @@
       <c r="AY877" s="1"/>
       <c r="AZ877" s="1"/>
     </row>
-    <row r="878" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:52" ht="15.75" customHeight="1">
       <c r="A878" s="1"/>
       <c r="B878" s="1"/>
       <c r="C878" s="1"/>
@@ -48776,7 +48793,7 @@
       <c r="AY878" s="1"/>
       <c r="AZ878" s="1"/>
     </row>
-    <row r="879" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:52" ht="15.75" customHeight="1">
       <c r="A879" s="1"/>
       <c r="B879" s="1"/>
       <c r="C879" s="1"/>
@@ -48830,7 +48847,7 @@
       <c r="AY879" s="1"/>
       <c r="AZ879" s="1"/>
     </row>
-    <row r="880" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:52" ht="15.75" customHeight="1">
       <c r="A880" s="1"/>
       <c r="B880" s="1"/>
       <c r="C880" s="1"/>
@@ -48884,7 +48901,7 @@
       <c r="AY880" s="1"/>
       <c r="AZ880" s="1"/>
     </row>
-    <row r="881" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:52" ht="15.75" customHeight="1">
       <c r="A881" s="1"/>
       <c r="B881" s="1"/>
       <c r="C881" s="1"/>
@@ -48938,7 +48955,7 @@
       <c r="AY881" s="1"/>
       <c r="AZ881" s="1"/>
     </row>
-    <row r="882" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:52" ht="15.75" customHeight="1">
       <c r="A882" s="1"/>
       <c r="B882" s="1"/>
       <c r="C882" s="1"/>
@@ -48992,7 +49009,7 @@
       <c r="AY882" s="1"/>
       <c r="AZ882" s="1"/>
     </row>
-    <row r="883" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:52" ht="15.75" customHeight="1">
       <c r="A883" s="1"/>
       <c r="B883" s="1"/>
       <c r="C883" s="1"/>
@@ -49046,7 +49063,7 @@
       <c r="AY883" s="1"/>
       <c r="AZ883" s="1"/>
     </row>
-    <row r="884" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:52" ht="15.75" customHeight="1">
       <c r="A884" s="1"/>
       <c r="B884" s="1"/>
       <c r="C884" s="1"/>
@@ -49100,7 +49117,7 @@
       <c r="AY884" s="1"/>
       <c r="AZ884" s="1"/>
     </row>
-    <row r="885" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:52" ht="15.75" customHeight="1">
       <c r="A885" s="1"/>
       <c r="B885" s="1"/>
       <c r="C885" s="1"/>
@@ -49154,7 +49171,7 @@
       <c r="AY885" s="1"/>
       <c r="AZ885" s="1"/>
     </row>
-    <row r="886" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:52" ht="15.75" customHeight="1">
       <c r="A886" s="1"/>
       <c r="B886" s="1"/>
       <c r="C886" s="1"/>
@@ -49208,7 +49225,7 @@
       <c r="AY886" s="1"/>
       <c r="AZ886" s="1"/>
     </row>
-    <row r="887" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:52" ht="15.75" customHeight="1">
       <c r="A887" s="1"/>
       <c r="B887" s="1"/>
       <c r="C887" s="1"/>
@@ -49262,7 +49279,7 @@
       <c r="AY887" s="1"/>
       <c r="AZ887" s="1"/>
     </row>
-    <row r="888" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:52" ht="15.75" customHeight="1">
       <c r="A888" s="1"/>
       <c r="B888" s="1"/>
       <c r="C888" s="1"/>
@@ -49316,7 +49333,7 @@
       <c r="AY888" s="1"/>
       <c r="AZ888" s="1"/>
     </row>
-    <row r="889" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:52" ht="15.75" customHeight="1">
       <c r="A889" s="1"/>
       <c r="B889" s="1"/>
       <c r="C889" s="1"/>
@@ -49370,7 +49387,7 @@
       <c r="AY889" s="1"/>
       <c r="AZ889" s="1"/>
     </row>
-    <row r="890" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:52" ht="15.75" customHeight="1">
       <c r="A890" s="1"/>
       <c r="B890" s="1"/>
       <c r="C890" s="1"/>
@@ -49424,7 +49441,7 @@
       <c r="AY890" s="1"/>
       <c r="AZ890" s="1"/>
     </row>
-    <row r="891" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:52" ht="15.75" customHeight="1">
       <c r="A891" s="1"/>
       <c r="B891" s="1"/>
       <c r="C891" s="1"/>
@@ -49478,7 +49495,7 @@
       <c r="AY891" s="1"/>
       <c r="AZ891" s="1"/>
     </row>
-    <row r="892" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:52" ht="15.75" customHeight="1">
       <c r="A892" s="1"/>
       <c r="B892" s="1"/>
       <c r="C892" s="1"/>
@@ -49532,7 +49549,7 @@
       <c r="AY892" s="1"/>
       <c r="AZ892" s="1"/>
     </row>
-    <row r="893" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:52" ht="15.75" customHeight="1">
       <c r="A893" s="1"/>
       <c r="B893" s="1"/>
       <c r="C893" s="1"/>
@@ -49586,7 +49603,7 @@
       <c r="AY893" s="1"/>
       <c r="AZ893" s="1"/>
     </row>
-    <row r="894" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:52" ht="15.75" customHeight="1">
       <c r="A894" s="1"/>
       <c r="B894" s="1"/>
       <c r="C894" s="1"/>
@@ -49640,7 +49657,7 @@
       <c r="AY894" s="1"/>
       <c r="AZ894" s="1"/>
     </row>
-    <row r="895" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:52" ht="15.75" customHeight="1">
       <c r="A895" s="1"/>
       <c r="B895" s="1"/>
       <c r="C895" s="1"/>
@@ -49694,7 +49711,7 @@
       <c r="AY895" s="1"/>
       <c r="AZ895" s="1"/>
     </row>
-    <row r="896" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:52" ht="15.75" customHeight="1">
       <c r="A896" s="1"/>
       <c r="B896" s="1"/>
       <c r="C896" s="1"/>
@@ -49748,7 +49765,7 @@
       <c r="AY896" s="1"/>
       <c r="AZ896" s="1"/>
     </row>
-    <row r="897" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:52" ht="15.75" customHeight="1">
       <c r="A897" s="1"/>
       <c r="B897" s="1"/>
       <c r="C897" s="1"/>
@@ -49802,7 +49819,7 @@
       <c r="AY897" s="1"/>
       <c r="AZ897" s="1"/>
     </row>
-    <row r="898" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:52" ht="15.75" customHeight="1">
       <c r="A898" s="1"/>
       <c r="B898" s="1"/>
       <c r="C898" s="1"/>
@@ -49856,7 +49873,7 @@
       <c r="AY898" s="1"/>
       <c r="AZ898" s="1"/>
     </row>
-    <row r="899" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:52" ht="15.75" customHeight="1">
       <c r="A899" s="1"/>
       <c r="B899" s="1"/>
       <c r="C899" s="1"/>
@@ -49910,7 +49927,7 @@
       <c r="AY899" s="1"/>
       <c r="AZ899" s="1"/>
     </row>
-    <row r="900" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:52" ht="15.75" customHeight="1">
       <c r="A900" s="1"/>
       <c r="B900" s="1"/>
       <c r="C900" s="1"/>
@@ -49964,7 +49981,7 @@
       <c r="AY900" s="1"/>
       <c r="AZ900" s="1"/>
     </row>
-    <row r="901" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:52" ht="15.75" customHeight="1">
       <c r="A901" s="1"/>
       <c r="B901" s="1"/>
       <c r="C901" s="1"/>
@@ -50018,7 +50035,7 @@
       <c r="AY901" s="1"/>
       <c r="AZ901" s="1"/>
     </row>
-    <row r="902" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:52" ht="15.75" customHeight="1">
       <c r="A902" s="1"/>
       <c r="B902" s="1"/>
       <c r="C902" s="1"/>
@@ -50072,7 +50089,7 @@
       <c r="AY902" s="1"/>
       <c r="AZ902" s="1"/>
     </row>
-    <row r="903" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:52" ht="15.75" customHeight="1">
       <c r="A903" s="1"/>
       <c r="B903" s="1"/>
       <c r="C903" s="1"/>
@@ -50126,7 +50143,7 @@
       <c r="AY903" s="1"/>
       <c r="AZ903" s="1"/>
     </row>
-    <row r="904" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:52" ht="15.75" customHeight="1">
       <c r="A904" s="1"/>
       <c r="B904" s="1"/>
       <c r="C904" s="1"/>
@@ -50180,7 +50197,7 @@
       <c r="AY904" s="1"/>
       <c r="AZ904" s="1"/>
     </row>
-    <row r="905" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:52" ht="15.75" customHeight="1">
       <c r="A905" s="1"/>
       <c r="B905" s="1"/>
       <c r="C905" s="1"/>
@@ -50234,7 +50251,7 @@
       <c r="AY905" s="1"/>
       <c r="AZ905" s="1"/>
     </row>
-    <row r="906" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:52" ht="15.75" customHeight="1">
       <c r="A906" s="1"/>
       <c r="B906" s="1"/>
       <c r="C906" s="1"/>
@@ -50288,7 +50305,7 @@
       <c r="AY906" s="1"/>
       <c r="AZ906" s="1"/>
     </row>
-    <row r="907" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:52" ht="15.75" customHeight="1">
       <c r="A907" s="1"/>
       <c r="B907" s="1"/>
       <c r="C907" s="1"/>
@@ -50342,7 +50359,7 @@
       <c r="AY907" s="1"/>
       <c r="AZ907" s="1"/>
     </row>
-    <row r="908" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:52" ht="15.75" customHeight="1">
       <c r="A908" s="1"/>
       <c r="B908" s="1"/>
       <c r="C908" s="1"/>
@@ -50396,7 +50413,7 @@
       <c r="AY908" s="1"/>
       <c r="AZ908" s="1"/>
     </row>
-    <row r="909" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:52" ht="15.75" customHeight="1">
       <c r="A909" s="1"/>
       <c r="B909" s="1"/>
       <c r="C909" s="1"/>
@@ -50450,7 +50467,7 @@
       <c r="AY909" s="1"/>
       <c r="AZ909" s="1"/>
     </row>
-    <row r="910" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:52" ht="15.75" customHeight="1">
       <c r="A910" s="1"/>
       <c r="B910" s="1"/>
       <c r="C910" s="1"/>
@@ -50504,7 +50521,7 @@
       <c r="AY910" s="1"/>
       <c r="AZ910" s="1"/>
     </row>
-    <row r="911" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:52" ht="15.75" customHeight="1">
       <c r="A911" s="1"/>
       <c r="B911" s="1"/>
       <c r="C911" s="1"/>
@@ -50558,7 +50575,7 @@
       <c r="AY911" s="1"/>
       <c r="AZ911" s="1"/>
     </row>
-    <row r="912" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:52" ht="15.75" customHeight="1">
       <c r="A912" s="1"/>
       <c r="B912" s="1"/>
       <c r="C912" s="1"/>
@@ -50612,7 +50629,7 @@
       <c r="AY912" s="1"/>
       <c r="AZ912" s="1"/>
     </row>
-    <row r="913" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:52" ht="15.75" customHeight="1">
       <c r="A913" s="1"/>
       <c r="B913" s="1"/>
       <c r="C913" s="1"/>
@@ -50666,7 +50683,7 @@
       <c r="AY913" s="1"/>
       <c r="AZ913" s="1"/>
     </row>
-    <row r="914" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:52" ht="15.75" customHeight="1">
       <c r="A914" s="1"/>
       <c r="B914" s="1"/>
       <c r="C914" s="1"/>
@@ -50720,7 +50737,7 @@
       <c r="AY914" s="1"/>
       <c r="AZ914" s="1"/>
     </row>
-    <row r="915" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:52" ht="15.75" customHeight="1">
       <c r="A915" s="1"/>
       <c r="B915" s="1"/>
       <c r="C915" s="1"/>
@@ -50774,7 +50791,7 @@
       <c r="AY915" s="1"/>
       <c r="AZ915" s="1"/>
     </row>
-    <row r="916" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:52" ht="15.75" customHeight="1">
       <c r="A916" s="1"/>
       <c r="B916" s="1"/>
       <c r="C916" s="1"/>
@@ -50828,7 +50845,7 @@
       <c r="AY916" s="1"/>
       <c r="AZ916" s="1"/>
     </row>
-    <row r="917" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:52" ht="15.75" customHeight="1">
       <c r="A917" s="1"/>
       <c r="B917" s="1"/>
       <c r="C917" s="1"/>
@@ -50882,7 +50899,7 @@
       <c r="AY917" s="1"/>
       <c r="AZ917" s="1"/>
     </row>
-    <row r="918" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:52" ht="15.75" customHeight="1">
       <c r="A918" s="1"/>
       <c r="B918" s="1"/>
       <c r="C918" s="1"/>
@@ -50936,7 +50953,7 @@
       <c r="AY918" s="1"/>
       <c r="AZ918" s="1"/>
     </row>
-    <row r="919" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:52" ht="15.75" customHeight="1">
       <c r="A919" s="1"/>
       <c r="B919" s="1"/>
       <c r="C919" s="1"/>
@@ -50990,7 +51007,7 @@
       <c r="AY919" s="1"/>
       <c r="AZ919" s="1"/>
     </row>
-    <row r="920" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:52" ht="15.75" customHeight="1">
       <c r="A920" s="1"/>
       <c r="B920" s="1"/>
       <c r="C920" s="1"/>
@@ -51044,7 +51061,7 @@
       <c r="AY920" s="1"/>
       <c r="AZ920" s="1"/>
     </row>
-    <row r="921" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:52" ht="15.75" customHeight="1">
       <c r="A921" s="1"/>
       <c r="B921" s="1"/>
       <c r="C921" s="1"/>
@@ -51098,7 +51115,7 @@
       <c r="AY921" s="1"/>
       <c r="AZ921" s="1"/>
     </row>
-    <row r="922" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:52" ht="15.75" customHeight="1">
       <c r="A922" s="1"/>
       <c r="B922" s="1"/>
       <c r="C922" s="1"/>
@@ -51152,7 +51169,7 @@
       <c r="AY922" s="1"/>
       <c r="AZ922" s="1"/>
     </row>
-    <row r="923" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:52" ht="15.75" customHeight="1">
       <c r="A923" s="1"/>
       <c r="B923" s="1"/>
       <c r="C923" s="1"/>
@@ -51206,7 +51223,7 @@
       <c r="AY923" s="1"/>
       <c r="AZ923" s="1"/>
     </row>
-    <row r="924" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:52" ht="15.75" customHeight="1">
       <c r="A924" s="1"/>
       <c r="B924" s="1"/>
       <c r="C924" s="1"/>
@@ -51260,7 +51277,7 @@
       <c r="AY924" s="1"/>
       <c r="AZ924" s="1"/>
     </row>
-    <row r="925" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:52" ht="15.75" customHeight="1">
       <c r="A925" s="1"/>
       <c r="B925" s="1"/>
       <c r="C925" s="1"/>
@@ -51314,7 +51331,7 @@
       <c r="AY925" s="1"/>
       <c r="AZ925" s="1"/>
     </row>
-    <row r="926" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:52" ht="15.75" customHeight="1">
       <c r="A926" s="1"/>
       <c r="B926" s="1"/>
       <c r="C926" s="1"/>
@@ -51368,7 +51385,7 @@
       <c r="AY926" s="1"/>
       <c r="AZ926" s="1"/>
     </row>
-    <row r="927" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:52" ht="15.75" customHeight="1">
       <c r="A927" s="1"/>
       <c r="B927" s="1"/>
       <c r="C927" s="1"/>
@@ -51422,7 +51439,7 @@
       <c r="AY927" s="1"/>
       <c r="AZ927" s="1"/>
     </row>
-    <row r="928" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:52" ht="15.75" customHeight="1">
       <c r="A928" s="1"/>
       <c r="B928" s="1"/>
       <c r="C928" s="1"/>
@@ -51476,7 +51493,7 @@
       <c r="AY928" s="1"/>
       <c r="AZ928" s="1"/>
     </row>
-    <row r="929" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:52" ht="15.75" customHeight="1">
       <c r="A929" s="1"/>
       <c r="B929" s="1"/>
       <c r="C929" s="1"/>
@@ -51530,7 +51547,7 @@
       <c r="AY929" s="1"/>
       <c r="AZ929" s="1"/>
     </row>
-    <row r="930" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:52" ht="15.75" customHeight="1">
       <c r="A930" s="1"/>
       <c r="B930" s="1"/>
       <c r="C930" s="1"/>
@@ -51584,7 +51601,7 @@
       <c r="AY930" s="1"/>
       <c r="AZ930" s="1"/>
     </row>
-    <row r="931" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:52" ht="15.75" customHeight="1">
       <c r="A931" s="1"/>
       <c r="B931" s="1"/>
       <c r="C931" s="1"/>
@@ -51638,7 +51655,7 @@
       <c r="AY931" s="1"/>
       <c r="AZ931" s="1"/>
     </row>
-    <row r="932" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:52" ht="15.75" customHeight="1">
       <c r="A932" s="1"/>
       <c r="B932" s="1"/>
       <c r="C932" s="1"/>
@@ -51692,7 +51709,7 @@
       <c r="AY932" s="1"/>
       <c r="AZ932" s="1"/>
     </row>
-    <row r="933" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:52" ht="15.75" customHeight="1">
       <c r="A933" s="1"/>
       <c r="B933" s="1"/>
       <c r="C933" s="1"/>
@@ -51746,7 +51763,7 @@
       <c r="AY933" s="1"/>
       <c r="AZ933" s="1"/>
     </row>
-    <row r="934" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:52" ht="15.75" customHeight="1">
       <c r="A934" s="1"/>
       <c r="B934" s="1"/>
       <c r="C934" s="1"/>
@@ -51800,7 +51817,7 @@
       <c r="AY934" s="1"/>
       <c r="AZ934" s="1"/>
     </row>
-    <row r="935" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:52" ht="15.75" customHeight="1">
       <c r="A935" s="1"/>
       <c r="B935" s="1"/>
       <c r="C935" s="1"/>
@@ -51854,7 +51871,7 @@
       <c r="AY935" s="1"/>
       <c r="AZ935" s="1"/>
     </row>
-    <row r="936" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:52" ht="15.75" customHeight="1">
       <c r="A936" s="1"/>
       <c r="B936" s="1"/>
       <c r="C936" s="1"/>
@@ -51908,7 +51925,7 @@
       <c r="AY936" s="1"/>
       <c r="AZ936" s="1"/>
     </row>
-    <row r="937" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:52" ht="15.75" customHeight="1">
       <c r="A937" s="1"/>
       <c r="B937" s="1"/>
       <c r="C937" s="1"/>
@@ -51962,7 +51979,7 @@
       <c r="AY937" s="1"/>
       <c r="AZ937" s="1"/>
     </row>
-    <row r="938" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:52" ht="15.75" customHeight="1">
       <c r="A938" s="1"/>
       <c r="B938" s="1"/>
       <c r="C938" s="1"/>
@@ -52016,7 +52033,7 @@
       <c r="AY938" s="1"/>
       <c r="AZ938" s="1"/>
     </row>
-    <row r="939" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:52" ht="15.75" customHeight="1">
       <c r="A939" s="1"/>
       <c r="B939" s="1"/>
       <c r="C939" s="1"/>
@@ -52070,7 +52087,7 @@
       <c r="AY939" s="1"/>
       <c r="AZ939" s="1"/>
     </row>
-    <row r="940" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:52" ht="15.75" customHeight="1">
       <c r="A940" s="1"/>
       <c r="B940" s="1"/>
       <c r="C940" s="1"/>
@@ -52124,7 +52141,7 @@
       <c r="AY940" s="1"/>
       <c r="AZ940" s="1"/>
     </row>
-    <row r="941" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:52" ht="15.75" customHeight="1">
       <c r="A941" s="1"/>
       <c r="B941" s="1"/>
       <c r="C941" s="1"/>
@@ -52178,7 +52195,7 @@
       <c r="AY941" s="1"/>
       <c r="AZ941" s="1"/>
     </row>
-    <row r="942" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:52" ht="15.75" customHeight="1">
       <c r="A942" s="1"/>
       <c r="B942" s="1"/>
       <c r="C942" s="1"/>
@@ -52232,7 +52249,7 @@
       <c r="AY942" s="1"/>
       <c r="AZ942" s="1"/>
     </row>
-    <row r="943" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:52" ht="15.75" customHeight="1">
       <c r="A943" s="1"/>
       <c r="B943" s="1"/>
       <c r="C943" s="1"/>
@@ -52286,7 +52303,7 @@
       <c r="AY943" s="1"/>
       <c r="AZ943" s="1"/>
     </row>
-    <row r="944" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:52" ht="15.75" customHeight="1">
       <c r="A944" s="1"/>
       <c r="B944" s="1"/>
       <c r="C944" s="1"/>
@@ -52340,7 +52357,7 @@
       <c r="AY944" s="1"/>
       <c r="AZ944" s="1"/>
     </row>
-    <row r="945" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:52" ht="15.75" customHeight="1">
       <c r="A945" s="1"/>
       <c r="B945" s="1"/>
       <c r="C945" s="1"/>
@@ -52394,7 +52411,7 @@
       <c r="AY945" s="1"/>
       <c r="AZ945" s="1"/>
     </row>
-    <row r="946" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:52" ht="15.75" customHeight="1">
       <c r="A946" s="1"/>
       <c r="B946" s="1"/>
       <c r="C946" s="1"/>
@@ -52448,7 +52465,7 @@
       <c r="AY946" s="1"/>
       <c r="AZ946" s="1"/>
     </row>
-    <row r="947" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:52" ht="15.75" customHeight="1">
       <c r="A947" s="1"/>
       <c r="B947" s="1"/>
       <c r="C947" s="1"/>
@@ -52502,7 +52519,7 @@
       <c r="AY947" s="1"/>
       <c r="AZ947" s="1"/>
     </row>
-    <row r="948" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:52" ht="15.75" customHeight="1">
       <c r="A948" s="1"/>
       <c r="B948" s="1"/>
       <c r="C948" s="1"/>
@@ -52556,7 +52573,7 @@
       <c r="AY948" s="1"/>
       <c r="AZ948" s="1"/>
     </row>
-    <row r="949" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:52" ht="15.75" customHeight="1">
       <c r="A949" s="1"/>
       <c r="B949" s="1"/>
       <c r="C949" s="1"/>
@@ -52610,7 +52627,7 @@
       <c r="AY949" s="1"/>
       <c r="AZ949" s="1"/>
     </row>
-    <row r="950" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:52" ht="15.75" customHeight="1">
       <c r="A950" s="1"/>
       <c r="B950" s="1"/>
       <c r="C950" s="1"/>
@@ -52664,7 +52681,7 @@
       <c r="AY950" s="1"/>
       <c r="AZ950" s="1"/>
     </row>
-    <row r="951" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:52" ht="15.75" customHeight="1">
       <c r="A951" s="1"/>
       <c r="B951" s="1"/>
       <c r="C951" s="1"/>
@@ -52718,7 +52735,7 @@
       <c r="AY951" s="1"/>
       <c r="AZ951" s="1"/>
     </row>
-    <row r="952" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:52" ht="15.75" customHeight="1">
       <c r="A952" s="1"/>
       <c r="B952" s="1"/>
       <c r="C952" s="1"/>
@@ -52772,7 +52789,7 @@
       <c r="AY952" s="1"/>
       <c r="AZ952" s="1"/>
     </row>
-    <row r="953" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:52" ht="15.75" customHeight="1">
       <c r="A953" s="1"/>
       <c r="B953" s="1"/>
       <c r="C953" s="1"/>
@@ -52826,7 +52843,7 @@
       <c r="AY953" s="1"/>
       <c r="AZ953" s="1"/>
     </row>
-    <row r="954" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:52" ht="15.75" customHeight="1">
       <c r="A954" s="1"/>
       <c r="B954" s="1"/>
       <c r="C954" s="1"/>
@@ -52880,7 +52897,7 @@
       <c r="AY954" s="1"/>
       <c r="AZ954" s="1"/>
     </row>
-    <row r="955" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:52" ht="15.75" customHeight="1">
       <c r="A955" s="1"/>
       <c r="B955" s="1"/>
       <c r="C955" s="1"/>
@@ -52934,7 +52951,7 @@
       <c r="AY955" s="1"/>
       <c r="AZ955" s="1"/>
     </row>
-    <row r="956" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:52" ht="15.75" customHeight="1">
       <c r="A956" s="1"/>
       <c r="B956" s="1"/>
       <c r="C956" s="1"/>
@@ -52988,7 +53005,7 @@
       <c r="AY956" s="1"/>
       <c r="AZ956" s="1"/>
     </row>
-    <row r="957" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:52" ht="15.75" customHeight="1">
       <c r="A957" s="1"/>
       <c r="B957" s="1"/>
       <c r="C957" s="1"/>
@@ -53042,7 +53059,7 @@
       <c r="AY957" s="1"/>
       <c r="AZ957" s="1"/>
     </row>
-    <row r="958" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:52" ht="15.75" customHeight="1">
       <c r="A958" s="1"/>
       <c r="B958" s="1"/>
       <c r="C958" s="1"/>
@@ -53096,7 +53113,7 @@
       <c r="AY958" s="1"/>
       <c r="AZ958" s="1"/>
     </row>
-    <row r="959" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:52" ht="15.75" customHeight="1">
       <c r="A959" s="1"/>
       <c r="B959" s="1"/>
       <c r="C959" s="1"/>
@@ -53150,7 +53167,7 @@
       <c r="AY959" s="1"/>
       <c r="AZ959" s="1"/>
     </row>
-    <row r="960" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:52" ht="15.75" customHeight="1">
       <c r="A960" s="1"/>
       <c r="B960" s="1"/>
       <c r="C960" s="1"/>
@@ -53204,7 +53221,7 @@
       <c r="AY960" s="1"/>
       <c r="AZ960" s="1"/>
     </row>
-    <row r="961" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:52" ht="15.75" customHeight="1">
       <c r="A961" s="1"/>
       <c r="B961" s="1"/>
       <c r="C961" s="1"/>
@@ -53258,7 +53275,7 @@
       <c r="AY961" s="1"/>
       <c r="AZ961" s="1"/>
     </row>
-    <row r="962" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:52" ht="15.75" customHeight="1">
       <c r="A962" s="1"/>
       <c r="B962" s="1"/>
       <c r="C962" s="1"/>
@@ -53312,7 +53329,7 @@
       <c r="AY962" s="1"/>
       <c r="AZ962" s="1"/>
     </row>
-    <row r="963" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:52" ht="15.75" customHeight="1">
       <c r="A963" s="1"/>
       <c r="B963" s="1"/>
       <c r="C963" s="1"/>
@@ -53366,7 +53383,7 @@
       <c r="AY963" s="1"/>
       <c r="AZ963" s="1"/>
     </row>
-    <row r="964" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:52" ht="15.75" customHeight="1">
       <c r="A964" s="1"/>
       <c r="B964" s="1"/>
       <c r="C964" s="1"/>
@@ -53420,7 +53437,7 @@
       <c r="AY964" s="1"/>
       <c r="AZ964" s="1"/>
     </row>
-    <row r="965" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:52" ht="15.75" customHeight="1">
       <c r="A965" s="1"/>
       <c r="B965" s="1"/>
       <c r="C965" s="1"/>
@@ -53474,7 +53491,7 @@
       <c r="AY965" s="1"/>
       <c r="AZ965" s="1"/>
     </row>
-    <row r="966" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:52" ht="15.75" customHeight="1">
       <c r="A966" s="1"/>
       <c r="B966" s="1"/>
       <c r="C966" s="1"/>
@@ -53528,7 +53545,7 @@
       <c r="AY966" s="1"/>
       <c r="AZ966" s="1"/>
     </row>
-    <row r="967" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:52" ht="15.75" customHeight="1">
       <c r="A967" s="1"/>
       <c r="B967" s="1"/>
       <c r="C967" s="1"/>
@@ -53582,7 +53599,7 @@
       <c r="AY967" s="1"/>
       <c r="AZ967" s="1"/>
     </row>
-    <row r="968" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:52" ht="15.75" customHeight="1">
       <c r="A968" s="1"/>
       <c r="B968" s="1"/>
       <c r="C968" s="1"/>
@@ -53636,7 +53653,7 @@
       <c r="AY968" s="1"/>
       <c r="AZ968" s="1"/>
     </row>
-    <row r="969" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:52" ht="15.75" customHeight="1">
       <c r="A969" s="1"/>
       <c r="B969" s="1"/>
       <c r="C969" s="1"/>
@@ -53690,7 +53707,7 @@
       <c r="AY969" s="1"/>
       <c r="AZ969" s="1"/>
     </row>
-    <row r="970" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:52" ht="15.75" customHeight="1">
       <c r="A970" s="1"/>
       <c r="B970" s="1"/>
       <c r="C970" s="1"/>
@@ -53744,7 +53761,7 @@
       <c r="AY970" s="1"/>
       <c r="AZ970" s="1"/>
     </row>
-    <row r="971" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:52" ht="15.75" customHeight="1">
       <c r="A971" s="1"/>
       <c r="B971" s="1"/>
       <c r="C971" s="1"/>
@@ -53798,7 +53815,7 @@
       <c r="AY971" s="1"/>
       <c r="AZ971" s="1"/>
     </row>
-    <row r="972" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:52" ht="15.75" customHeight="1">
       <c r="A972" s="1"/>
       <c r="B972" s="1"/>
       <c r="C972" s="1"/>
@@ -53852,7 +53869,7 @@
       <c r="AY972" s="1"/>
       <c r="AZ972" s="1"/>
     </row>
-    <row r="973" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:52" ht="15.75" customHeight="1">
       <c r="A973" s="1"/>
       <c r="B973" s="1"/>
       <c r="C973" s="1"/>
@@ -53906,7 +53923,7 @@
       <c r="AY973" s="1"/>
       <c r="AZ973" s="1"/>
     </row>
-    <row r="974" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:52" ht="15.75" customHeight="1">
       <c r="A974" s="1"/>
       <c r="B974" s="1"/>
       <c r="C974" s="1"/>
@@ -53960,7 +53977,7 @@
       <c r="AY974" s="1"/>
       <c r="AZ974" s="1"/>
     </row>
-    <row r="975" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:52" ht="15.75" customHeight="1">
       <c r="A975" s="1"/>
       <c r="B975" s="1"/>
       <c r="C975" s="1"/>
@@ -54014,7 +54031,7 @@
       <c r="AY975" s="1"/>
       <c r="AZ975" s="1"/>
     </row>
-    <row r="976" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:52" ht="15.75" customHeight="1">
       <c r="A976" s="1"/>
       <c r="B976" s="1"/>
       <c r="C976" s="1"/>
@@ -54068,7 +54085,7 @@
       <c r="AY976" s="1"/>
       <c r="AZ976" s="1"/>
     </row>
-    <row r="977" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:52" ht="15.75" customHeight="1">
       <c r="A977" s="1"/>
       <c r="B977" s="1"/>
       <c r="C977" s="1"/>
@@ -54122,7 +54139,7 @@
       <c r="AY977" s="1"/>
       <c r="AZ977" s="1"/>
     </row>
-    <row r="978" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:52" ht="15.75" customHeight="1">
       <c r="A978" s="1"/>
       <c r="B978" s="1"/>
       <c r="C978" s="1"/>
@@ -54176,7 +54193,7 @@
       <c r="AY978" s="1"/>
       <c r="AZ978" s="1"/>
     </row>
-    <row r="979" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:52" ht="15.75" customHeight="1">
       <c r="A979" s="1"/>
       <c r="B979" s="1"/>
       <c r="C979" s="1"/>
@@ -54230,7 +54247,7 @@
       <c r="AY979" s="1"/>
       <c r="AZ979" s="1"/>
     </row>
-    <row r="980" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:52" ht="15.75" customHeight="1">
       <c r="A980" s="1"/>
       <c r="B980" s="1"/>
       <c r="C980" s="1"/>
@@ -54284,7 +54301,7 @@
       <c r="AY980" s="1"/>
       <c r="AZ980" s="1"/>
     </row>
-    <row r="981" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:52" ht="15.75" customHeight="1">
       <c r="A981" s="1"/>
       <c r="B981" s="1"/>
       <c r="C981" s="1"/>
@@ -54338,7 +54355,7 @@
       <c r="AY981" s="1"/>
       <c r="AZ981" s="1"/>
     </row>
-    <row r="982" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:52" ht="15.75" customHeight="1">
       <c r="A982" s="1"/>
       <c r="B982" s="1"/>
       <c r="C982" s="1"/>
@@ -54392,7 +54409,7 @@
       <c r="AY982" s="1"/>
       <c r="AZ982" s="1"/>
     </row>
-    <row r="983" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:52" ht="15.75" customHeight="1">
       <c r="A983" s="1"/>
       <c r="B983" s="1"/>
       <c r="C983" s="1"/>
@@ -54446,7 +54463,7 @@
       <c r="AY983" s="1"/>
       <c r="AZ983" s="1"/>
     </row>
-    <row r="984" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:52" ht="15.75" customHeight="1">
       <c r="A984" s="1"/>
       <c r="B984" s="1"/>
       <c r="C984" s="1"/>
@@ -54500,7 +54517,7 @@
       <c r="AY984" s="1"/>
       <c r="AZ984" s="1"/>
     </row>
-    <row r="985" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:52" ht="15.75" customHeight="1">
       <c r="A985" s="1"/>
       <c r="B985" s="1"/>
       <c r="C985" s="1"/>
@@ -54554,7 +54571,7 @@
       <c r="AY985" s="1"/>
       <c r="AZ985" s="1"/>
     </row>
-    <row r="986" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:52" ht="15.75" customHeight="1">
       <c r="A986" s="1"/>
       <c r="B986" s="1"/>
       <c r="C986" s="1"/>
@@ -54608,7 +54625,7 @@
       <c r="AY986" s="1"/>
       <c r="AZ986" s="1"/>
     </row>
-    <row r="987" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:52" ht="15.75" customHeight="1">
       <c r="A987" s="1"/>
       <c r="B987" s="1"/>
       <c r="C987" s="1"/>
@@ -54662,7 +54679,7 @@
       <c r="AY987" s="1"/>
       <c r="AZ987" s="1"/>
     </row>
-    <row r="988" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:52" ht="15.75" customHeight="1">
       <c r="A988" s="1"/>
       <c r="B988" s="1"/>
       <c r="C988" s="1"/>
@@ -54716,7 +54733,7 @@
       <c r="AY988" s="1"/>
       <c r="AZ988" s="1"/>
     </row>
-    <row r="989" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:52" ht="15.75" customHeight="1">
       <c r="A989" s="1"/>
       <c r="B989" s="1"/>
       <c r="C989" s="1"/>
@@ -54770,7 +54787,7 @@
       <c r="AY989" s="1"/>
       <c r="AZ989" s="1"/>
     </row>
-    <row r="990" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:52" ht="15.75" customHeight="1">
       <c r="A990" s="1"/>
       <c r="B990" s="1"/>
       <c r="C990" s="1"/>
@@ -54824,7 +54841,7 @@
       <c r="AY990" s="1"/>
       <c r="AZ990" s="1"/>
     </row>
-    <row r="991" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:52" ht="15.75" customHeight="1">
       <c r="A991" s="1"/>
       <c r="B991" s="1"/>
       <c r="C991" s="1"/>
@@ -54878,7 +54895,7 @@
       <c r="AY991" s="1"/>
       <c r="AZ991" s="1"/>
     </row>
-    <row r="992" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:52" ht="15.75" customHeight="1">
       <c r="A992" s="1"/>
       <c r="B992" s="1"/>
       <c r="C992" s="1"/>
@@ -54932,7 +54949,7 @@
       <c r="AY992" s="1"/>
       <c r="AZ992" s="1"/>
     </row>
-    <row r="993" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:52" ht="15.75" customHeight="1">
       <c r="A993" s="1"/>
       <c r="B993" s="1"/>
       <c r="C993" s="1"/>
@@ -54986,7 +55003,7 @@
       <c r="AY993" s="1"/>
       <c r="AZ993" s="1"/>
     </row>
-    <row r="994" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:52" ht="15.75" customHeight="1">
       <c r="A994" s="1"/>
       <c r="B994" s="1"/>
       <c r="C994" s="1"/>
@@ -55040,7 +55057,7 @@
       <c r="AY994" s="1"/>
       <c r="AZ994" s="1"/>
     </row>
-    <row r="995" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:52" ht="15.75" customHeight="1">
       <c r="A995" s="1"/>
       <c r="B995" s="1"/>
       <c r="C995" s="1"/>
@@ -55094,7 +55111,7 @@
       <c r="AY995" s="1"/>
       <c r="AZ995" s="1"/>
     </row>
-    <row r="996" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:52" ht="15.75" customHeight="1">
       <c r="A996" s="1"/>
       <c r="B996" s="1"/>
       <c r="C996" s="1"/>
@@ -55148,7 +55165,7 @@
       <c r="AY996" s="1"/>
       <c r="AZ996" s="1"/>
     </row>
-    <row r="997" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:52" ht="15.75" customHeight="1">
       <c r="A997" s="1"/>
       <c r="B997" s="1"/>
       <c r="C997" s="1"/>
@@ -55202,7 +55219,7 @@
       <c r="AY997" s="1"/>
       <c r="AZ997" s="1"/>
     </row>
-    <row r="998" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:52" ht="15.75" customHeight="1">
       <c r="A998" s="1"/>
       <c r="B998" s="1"/>
       <c r="C998" s="1"/>
@@ -55256,7 +55273,7 @@
       <c r="AY998" s="1"/>
       <c r="AZ998" s="1"/>
     </row>
-    <row r="999" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:52" ht="15.75" customHeight="1">
       <c r="A999" s="1"/>
       <c r="B999" s="1"/>
       <c r="C999" s="1"/>
@@ -55310,7 +55327,7 @@
       <c r="AY999" s="1"/>
       <c r="AZ999" s="1"/>
     </row>
-    <row r="1000" spans="1:52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:52" ht="15.75" customHeight="1">
       <c r="A1000" s="1"/>
       <c r="B1000" s="1"/>
       <c r="C1000" s="1"/>
@@ -55366,17 +55383,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="V8:Y8"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="AJ8:AL8"/>
-    <mergeCell ref="AF8:AH8"/>
-    <mergeCell ref="V14:AA14"/>
-    <mergeCell ref="AE14:AL14"/>
     <mergeCell ref="V2:AA2"/>
     <mergeCell ref="AE2:AI2"/>
     <mergeCell ref="P8:T8"/>
@@ -55386,6 +55392,17 @@
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="L2:O2"/>
+    <mergeCell ref="V8:Y8"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="AJ8:AL8"/>
+    <mergeCell ref="AF8:AH8"/>
+    <mergeCell ref="V14:AA14"/>
+    <mergeCell ref="AE14:AL14"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="L14:M14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
